--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\danger\traducoes\traducao-blue-dragon-xbox360\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BD\traducao-blue-dragon-xbox360\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="787">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2379,6 +2379,12 @@
   </si>
   <si>
     <t>Não</t>
+  </si>
+  <si>
+    <t>UDS</t>
+  </si>
+  <si>
+    <t>SIM</t>
   </si>
 </sst>
 </file>
@@ -2722,7 +2728,7 @@
   <dimension ref="B1:D782"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C322" sqref="C322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2748,7 +2754,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -2756,7 +2765,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -2764,7 +2776,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -2772,7 +2787,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -2780,7 +2798,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -2788,7 +2809,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -2796,7 +2820,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -5167,7 +5194,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B305" s="1" t="s">
         <v>304</v>
       </c>
@@ -5175,7 +5202,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B306" s="1" t="s">
         <v>305</v>
       </c>
@@ -5183,7 +5210,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B307" s="1" t="s">
         <v>306</v>
       </c>
@@ -5191,7 +5218,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B308" s="1" t="s">
         <v>307</v>
       </c>
@@ -5199,7 +5226,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B309" s="1" t="s">
         <v>308</v>
       </c>
@@ -5207,7 +5234,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B310" s="1" t="s">
         <v>309</v>
       </c>
@@ -5215,7 +5242,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B311" s="1" t="s">
         <v>310</v>
       </c>
@@ -5223,55 +5250,73 @@
         <v>784</v>
       </c>
     </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B312" s="1" t="s">
         <v>311</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B313" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B314" s="1" t="s">
         <v>313</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B315" s="1" t="s">
         <v>314</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B316" s="1" t="s">
         <v>315</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B317" s="1" t="s">
         <v>316</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B318" s="1" t="s">
         <v>317</v>
       </c>
@@ -5279,15 +5324,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="319" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B319" s="1" t="s">
         <v>318</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="320" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B320" s="1" t="s">
         <v>319</v>
       </c>
@@ -5295,7 +5343,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="321" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B321" s="1" t="s">
         <v>320</v>
       </c>
@@ -5303,7 +5351,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="322" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B322" s="1" t="s">
         <v>321</v>
       </c>
@@ -5311,7 +5359,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="323" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B323" s="1" t="s">
         <v>322</v>
       </c>
@@ -5319,7 +5367,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="324" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B324" s="1" t="s">
         <v>323</v>
       </c>
@@ -5327,15 +5375,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="325" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B325" s="1" t="s">
         <v>324</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B326" s="1" t="s">
         <v>325</v>
       </c>
@@ -5343,7 +5394,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B327" s="1" t="s">
         <v>326</v>
       </c>
@@ -5351,7 +5402,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B328" s="1" t="s">
         <v>327</v>
       </c>
@@ -5359,7 +5410,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B329" s="1" t="s">
         <v>328</v>
       </c>
@@ -5367,7 +5418,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="330" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B330" s="1" t="s">
         <v>329</v>
       </c>
@@ -5375,7 +5426,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="331" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B331" s="1" t="s">
         <v>330</v>
       </c>
@@ -5383,7 +5434,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="332" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B332" s="1" t="s">
         <v>331</v>
       </c>
@@ -5391,7 +5442,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="333" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B333" s="1" t="s">
         <v>332</v>
       </c>
@@ -5399,7 +5450,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="334" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B334" s="1" t="s">
         <v>333</v>
       </c>
@@ -5407,7 +5458,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B335" s="1" t="s">
         <v>334</v>
       </c>
@@ -5415,15 +5466,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B336" s="1" t="s">
         <v>335</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B337" s="1" t="s">
         <v>336</v>
       </c>
@@ -5431,15 +5485,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="338" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B338" s="1" t="s">
         <v>337</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="339" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B339" s="1" t="s">
         <v>338</v>
       </c>
@@ -5447,7 +5504,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="340" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B340" s="1" t="s">
         <v>339</v>
       </c>
@@ -5455,7 +5512,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="341" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B341" s="1" t="s">
         <v>340</v>
       </c>
@@ -5463,7 +5520,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="342" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B342" s="1" t="s">
         <v>341</v>
       </c>
@@ -5471,7 +5528,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="343" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B343" s="1" t="s">
         <v>342</v>
       </c>
@@ -5479,15 +5536,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="344" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B344" s="1" t="s">
         <v>343</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="345" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B345" s="1" t="s">
         <v>344</v>
       </c>
@@ -5495,7 +5555,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="346" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B346" s="1" t="s">
         <v>345</v>
       </c>
@@ -5503,7 +5563,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="347" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B347" s="1" t="s">
         <v>346</v>
       </c>
@@ -5511,7 +5571,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="348" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B348" s="1" t="s">
         <v>347</v>
       </c>
@@ -5519,7 +5579,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="349" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B349" s="1" t="s">
         <v>348</v>
       </c>
@@ -5527,7 +5587,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="350" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B350" s="1" t="s">
         <v>349</v>
       </c>
@@ -5535,15 +5595,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="351" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B351" s="1" t="s">
         <v>350</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="352" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B352" s="1" t="s">
         <v>351</v>
       </c>
@@ -5551,7 +5614,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="353" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B353" s="1" t="s">
         <v>352</v>
       </c>
@@ -5559,7 +5622,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B354" s="1" t="s">
         <v>353</v>
       </c>
@@ -5567,15 +5630,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="355" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B355" s="1" t="s">
         <v>354</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="356" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B356" s="1" t="s">
         <v>355</v>
       </c>
@@ -5583,7 +5649,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="357" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B357" s="1" t="s">
         <v>356</v>
       </c>
@@ -5591,15 +5657,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="358" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B358" s="1" t="s">
         <v>357</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="359" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B359" s="1" t="s">
         <v>358</v>
       </c>
@@ -5607,7 +5676,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="360" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B360" s="1" t="s">
         <v>359</v>
       </c>
@@ -5615,7 +5684,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="361" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B361" s="1" t="s">
         <v>360</v>
       </c>
@@ -5623,7 +5692,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="362" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B362" s="1" t="s">
         <v>361</v>
       </c>
@@ -5631,7 +5700,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="363" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B363" s="1" t="s">
         <v>362</v>
       </c>
@@ -5639,7 +5708,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="364" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B364" s="1" t="s">
         <v>363</v>
       </c>
@@ -5647,7 +5716,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="365" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B365" s="1" t="s">
         <v>364</v>
       </c>
@@ -5655,7 +5724,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="366" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B366" s="1" t="s">
         <v>365</v>
       </c>
@@ -5663,7 +5732,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="367" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B367" s="1" t="s">
         <v>366</v>
       </c>
@@ -5671,7 +5740,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="368" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B368" s="1" t="s">
         <v>367</v>
       </c>
@@ -5935,7 +6004,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="401" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B401" s="1" t="s">
         <v>400</v>
       </c>
@@ -5943,15 +6012,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="402" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B402" s="1" t="s">
         <v>401</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="403" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="403" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B403" s="1" t="s">
         <v>402</v>
       </c>
@@ -5959,7 +6031,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="404" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B404" s="1" t="s">
         <v>403</v>
       </c>
@@ -5967,7 +6039,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="405" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B405" s="1" t="s">
         <v>404</v>
       </c>
@@ -5975,7 +6047,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="406" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B406" s="1" t="s">
         <v>405</v>
       </c>
@@ -5983,7 +6055,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="407" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B407" s="1" t="s">
         <v>406</v>
       </c>
@@ -5991,7 +6063,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="408" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B408" s="1" t="s">
         <v>407</v>
       </c>
@@ -5999,7 +6071,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="409" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B409" s="1" t="s">
         <v>408</v>
       </c>
@@ -6007,7 +6079,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="410" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B410" s="1" t="s">
         <v>409</v>
       </c>
@@ -6015,7 +6087,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="411" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B411" s="1" t="s">
         <v>410</v>
       </c>
@@ -6023,7 +6095,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="412" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B412" s="1" t="s">
         <v>411</v>
       </c>
@@ -6031,7 +6103,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="413" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B413" s="1" t="s">
         <v>412</v>
       </c>
@@ -6039,7 +6111,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="414" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B414" s="1" t="s">
         <v>413</v>
       </c>
@@ -6047,31 +6119,40 @@
         <v>784</v>
       </c>
     </row>
-    <row r="415" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B415" s="1" t="s">
         <v>414</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="416" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="416" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B416" s="1" t="s">
         <v>415</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="417" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="417" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B417" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="418" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="418" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B418" s="1" t="s">
         <v>417</v>
       </c>
@@ -6079,7 +6160,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="419" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B419" s="1" t="s">
         <v>418</v>
       </c>
@@ -6087,7 +6168,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="420" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B420" s="1" t="s">
         <v>419</v>
       </c>
@@ -6095,15 +6176,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="421" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B421" s="1" t="s">
         <v>420</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="422" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="422" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B422" s="1" t="s">
         <v>421</v>
       </c>
@@ -6111,7 +6195,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="423" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B423" s="1" t="s">
         <v>422</v>
       </c>
@@ -6119,7 +6203,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="424" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B424" s="1" t="s">
         <v>423</v>
       </c>
@@ -6127,15 +6211,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="425" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B425" s="1" t="s">
         <v>424</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="426" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="426" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B426" s="1" t="s">
         <v>425</v>
       </c>
@@ -6143,7 +6230,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="427" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B427" s="1" t="s">
         <v>426</v>
       </c>
@@ -6151,7 +6238,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="428" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B428" s="1" t="s">
         <v>427</v>
       </c>
@@ -6159,7 +6246,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="429" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B429" s="1" t="s">
         <v>428</v>
       </c>
@@ -6167,7 +6254,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="430" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B430" s="1" t="s">
         <v>429</v>
       </c>
@@ -6175,7 +6262,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="431" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B431" s="1" t="s">
         <v>430</v>
       </c>
@@ -6183,7 +6270,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="432" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B432" s="1" t="s">
         <v>431</v>
       </c>
@@ -6191,15 +6278,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="433" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B433" s="1" t="s">
         <v>432</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="434" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="434" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B434" s="1" t="s">
         <v>433</v>
       </c>
@@ -6207,7 +6297,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="435" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B435" s="1" t="s">
         <v>434</v>
       </c>
@@ -6215,7 +6305,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="436" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B436" s="1" t="s">
         <v>435</v>
       </c>
@@ -6223,7 +6313,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="437" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B437" s="1" t="s">
         <v>436</v>
       </c>
@@ -6231,15 +6321,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="438" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B438" s="1" t="s">
         <v>437</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="439" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="439" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B439" s="1" t="s">
         <v>438</v>
       </c>
@@ -6247,7 +6340,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="440" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B440" s="1" t="s">
         <v>439</v>
       </c>
@@ -6255,7 +6348,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="441" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B441" s="1" t="s">
         <v>440</v>
       </c>
@@ -6263,7 +6356,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="442" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B442" s="1" t="s">
         <v>441</v>
       </c>
@@ -6271,7 +6364,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="443" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B443" s="1" t="s">
         <v>442</v>
       </c>
@@ -6279,15 +6372,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="444" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B444" s="1" t="s">
         <v>443</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="445" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="445" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B445" s="1" t="s">
         <v>444</v>
       </c>
@@ -6295,7 +6391,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="446" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B446" s="1" t="s">
         <v>445</v>
       </c>
@@ -6303,7 +6399,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="447" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B447" s="1" t="s">
         <v>446</v>
       </c>
@@ -6311,7 +6407,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="448" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B448" s="1" t="s">
         <v>447</v>
       </c>
@@ -6319,7 +6415,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="449" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B449" s="1" t="s">
         <v>448</v>
       </c>
@@ -6327,7 +6423,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="450" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B450" s="1" t="s">
         <v>449</v>
       </c>
@@ -6335,15 +6431,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="451" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B451" s="1" t="s">
         <v>450</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="452" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="452" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B452" s="1" t="s">
         <v>451</v>
       </c>
@@ -6351,23 +6450,29 @@
         <v>784</v>
       </c>
     </row>
-    <row r="453" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B453" s="1" t="s">
         <v>452</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="454" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="454" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B454" s="1" t="s">
         <v>453</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="455" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="455" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B455" s="1" t="s">
         <v>454</v>
       </c>
@@ -6375,7 +6480,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="456" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B456" s="1" t="s">
         <v>455</v>
       </c>
@@ -6383,15 +6488,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="457" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B457" s="1" t="s">
         <v>456</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="458" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="458" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B458" s="1" t="s">
         <v>457</v>
       </c>
@@ -6399,7 +6507,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="459" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B459" s="1" t="s">
         <v>458</v>
       </c>
@@ -6407,7 +6515,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="460" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B460" s="1" t="s">
         <v>459</v>
       </c>
@@ -6415,7 +6523,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="461" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B461" s="1" t="s">
         <v>460</v>
       </c>
@@ -6423,7 +6531,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="462" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B462" s="1" t="s">
         <v>461</v>
       </c>
@@ -6431,7 +6539,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="463" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B463" s="1" t="s">
         <v>462</v>
       </c>
@@ -6439,7 +6547,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="464" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B464" s="1" t="s">
         <v>463</v>
       </c>
@@ -6447,7 +6555,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="465" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B465" s="1" t="s">
         <v>464</v>
       </c>
@@ -6455,7 +6563,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="466" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B466" s="1" t="s">
         <v>465</v>
       </c>
@@ -6463,7 +6571,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="467" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B467" s="1" t="s">
         <v>466</v>
       </c>
@@ -6471,7 +6579,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="468" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B468" s="1" t="s">
         <v>467</v>
       </c>
@@ -6479,7 +6587,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="469" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B469" s="1" t="s">
         <v>468</v>
       </c>
@@ -6487,7 +6595,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="470" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B470" s="1" t="s">
         <v>469</v>
       </c>
@@ -6495,7 +6603,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="471" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B471" s="1" t="s">
         <v>470</v>
       </c>
@@ -6503,7 +6611,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="472" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B472" s="1" t="s">
         <v>471</v>
       </c>
@@ -6511,7 +6619,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="473" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B473" s="1" t="s">
         <v>472</v>
       </c>
@@ -6519,7 +6627,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="474" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B474" s="1" t="s">
         <v>473</v>
       </c>
@@ -6527,7 +6635,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="475" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B475" s="1" t="s">
         <v>474</v>
       </c>
@@ -6535,7 +6643,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="476" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B476" s="1" t="s">
         <v>475</v>
       </c>
@@ -6543,7 +6651,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="477" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B477" s="1" t="s">
         <v>476</v>
       </c>
@@ -6551,15 +6659,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="478" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B478" s="1" t="s">
         <v>477</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="479" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="479" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B479" s="1" t="s">
         <v>478</v>
       </c>
@@ -6567,7 +6678,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="480" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B480" s="1" t="s">
         <v>479</v>
       </c>
@@ -6575,7 +6686,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="481" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B481" s="1" t="s">
         <v>480</v>
       </c>
@@ -6583,7 +6694,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="482" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B482" s="1" t="s">
         <v>481</v>
       </c>
@@ -6591,7 +6702,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="483" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B483" s="1" t="s">
         <v>482</v>
       </c>
@@ -6599,7 +6710,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="484" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B484" s="1" t="s">
         <v>483</v>
       </c>
@@ -6607,15 +6718,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="485" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B485" s="1" t="s">
         <v>484</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="486" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="486" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B486" s="1" t="s">
         <v>485</v>
       </c>
@@ -6623,7 +6737,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="487" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B487" s="1" t="s">
         <v>486</v>
       </c>
@@ -6631,7 +6745,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="488" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B488" s="1" t="s">
         <v>487</v>
       </c>
@@ -6639,7 +6753,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="489" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B489" s="1" t="s">
         <v>488</v>
       </c>
@@ -6647,7 +6761,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="490" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B490" s="1" t="s">
         <v>489</v>
       </c>
@@ -6655,7 +6769,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="491" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B491" s="1" t="s">
         <v>490</v>
       </c>
@@ -6663,7 +6777,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="492" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B492" s="1" t="s">
         <v>491</v>
       </c>
@@ -6671,7 +6785,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="493" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B493" s="1" t="s">
         <v>492</v>
       </c>
@@ -6679,7 +6793,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="494" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B494" s="1" t="s">
         <v>493</v>
       </c>
@@ -6687,7 +6801,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="495" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B495" s="1" t="s">
         <v>494</v>
       </c>
@@ -6695,7 +6809,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="496" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B496" s="1" t="s">
         <v>495</v>
       </c>
@@ -6703,7 +6817,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="497" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B497" s="1" t="s">
         <v>496</v>
       </c>
@@ -6711,7 +6825,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="498" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B498" s="1" t="s">
         <v>497</v>
       </c>
@@ -6719,7 +6833,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="499" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B499" s="1" t="s">
         <v>498</v>
       </c>
@@ -6727,7 +6841,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="500" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B500" s="1" t="s">
         <v>499</v>
       </c>
@@ -6735,15 +6849,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="501" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B501" s="1" t="s">
         <v>500</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="502" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="502" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B502" s="1" t="s">
         <v>501</v>
       </c>
@@ -6751,7 +6868,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="503" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B503" s="1" t="s">
         <v>502</v>
       </c>
@@ -6759,15 +6876,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="504" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B504" s="1" t="s">
         <v>503</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="505" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="505" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B505" s="1" t="s">
         <v>504</v>
       </c>
@@ -6775,7 +6895,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="506" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B506" s="1" t="s">
         <v>505</v>
       </c>
@@ -6783,7 +6903,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="507" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B507" s="1" t="s">
         <v>506</v>
       </c>
@@ -6791,7 +6911,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="508" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B508" s="1" t="s">
         <v>507</v>
       </c>
@@ -6799,7 +6919,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="509" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B509" s="1" t="s">
         <v>508</v>
       </c>
@@ -6807,7 +6927,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="510" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B510" s="1" t="s">
         <v>509</v>
       </c>
@@ -6815,7 +6935,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="511" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B511" s="1" t="s">
         <v>510</v>
       </c>
@@ -6823,7 +6943,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="512" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B512" s="1" t="s">
         <v>511</v>
       </c>
@@ -6831,7 +6951,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="513" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B513" s="1" t="s">
         <v>512</v>
       </c>
@@ -6839,7 +6959,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="514" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B514" s="1" t="s">
         <v>513</v>
       </c>
@@ -6847,7 +6967,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="515" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B515" s="1" t="s">
         <v>514</v>
       </c>
@@ -6855,7 +6975,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="516" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B516" s="1" t="s">
         <v>515</v>
       </c>
@@ -6863,7 +6983,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="517" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B517" s="1" t="s">
         <v>516</v>
       </c>
@@ -6871,7 +6991,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="518" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B518" s="1" t="s">
         <v>517</v>
       </c>
@@ -6879,7 +6999,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="519" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B519" s="1" t="s">
         <v>518</v>
       </c>
@@ -6887,7 +7007,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="520" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B520" s="1" t="s">
         <v>519</v>
       </c>
@@ -6895,7 +7015,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="521" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B521" s="1" t="s">
         <v>520</v>
       </c>
@@ -6903,7 +7023,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="522" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B522" s="1" t="s">
         <v>521</v>
       </c>
@@ -6911,15 +7031,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="523" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B523" s="1" t="s">
         <v>522</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="524" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="524" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B524" s="1" t="s">
         <v>523</v>
       </c>
@@ -6927,7 +7050,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="525" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B525" s="1" t="s">
         <v>524</v>
       </c>
@@ -6935,7 +7058,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="526" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B526" s="1" t="s">
         <v>525</v>
       </c>
@@ -6943,7 +7066,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="527" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B527" s="1" t="s">
         <v>526</v>
       </c>
@@ -6951,7 +7074,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="528" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B528" s="1" t="s">
         <v>527</v>
       </c>
@@ -6959,7 +7082,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="529" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B529" s="1" t="s">
         <v>528</v>
       </c>
@@ -6967,7 +7090,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="530" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B530" s="1" t="s">
         <v>529</v>
       </c>
@@ -6975,7 +7098,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="531" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B531" s="1" t="s">
         <v>530</v>
       </c>
@@ -6983,7 +7106,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="532" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B532" s="1" t="s">
         <v>531</v>
       </c>
@@ -6991,7 +7114,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="533" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B533" s="1" t="s">
         <v>532</v>
       </c>
@@ -6999,7 +7122,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="534" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B534" s="1" t="s">
         <v>533</v>
       </c>
@@ -7007,7 +7130,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="535" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B535" s="1" t="s">
         <v>534</v>
       </c>
@@ -7015,15 +7138,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="536" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B536" s="1" t="s">
         <v>535</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="537" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="537" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B537" s="1" t="s">
         <v>536</v>
       </c>
@@ -7031,7 +7157,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="538" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B538" s="1" t="s">
         <v>537</v>
       </c>
@@ -7039,7 +7165,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="539" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B539" s="1" t="s">
         <v>538</v>
       </c>
@@ -7047,7 +7173,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="540" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B540" s="1" t="s">
         <v>539</v>
       </c>
@@ -7055,7 +7181,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="541" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B541" s="1" t="s">
         <v>540</v>
       </c>
@@ -7063,7 +7189,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="542" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B542" s="1" t="s">
         <v>541</v>
       </c>
@@ -7071,7 +7197,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="543" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B543" s="1" t="s">
         <v>542</v>
       </c>
@@ -7079,7 +7205,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="544" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B544" s="1" t="s">
         <v>543</v>
       </c>
@@ -7087,7 +7213,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="545" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B545" s="1" t="s">
         <v>544</v>
       </c>
@@ -7095,7 +7221,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="546" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B546" s="1" t="s">
         <v>545</v>
       </c>
@@ -7103,7 +7229,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="547" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B547" s="1" t="s">
         <v>546</v>
       </c>
@@ -7111,7 +7237,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="548" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B548" s="1" t="s">
         <v>547</v>
       </c>
@@ -7119,7 +7245,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="549" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B549" s="1" t="s">
         <v>548</v>
       </c>
@@ -7127,7 +7253,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="550" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B550" s="1" t="s">
         <v>549</v>
       </c>
@@ -7135,7 +7261,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="551" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B551" s="1" t="s">
         <v>550</v>
       </c>
@@ -7143,7 +7269,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="552" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B552" s="1" t="s">
         <v>551</v>
       </c>
@@ -7151,7 +7277,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="553" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B553" s="1" t="s">
         <v>552</v>
       </c>
@@ -7159,7 +7285,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="554" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B554" s="1" t="s">
         <v>553</v>
       </c>
@@ -7167,7 +7293,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="555" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B555" s="1" t="s">
         <v>554</v>
       </c>
@@ -7175,7 +7301,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="556" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B556" s="1" t="s">
         <v>555</v>
       </c>
@@ -7183,7 +7309,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="557" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B557" s="1" t="s">
         <v>556</v>
       </c>
@@ -7191,28 +7317,37 @@
         <v>784</v>
       </c>
     </row>
-    <row r="558" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B558" s="1" t="s">
         <v>557</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="559" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="559" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B559" s="1" t="s">
         <v>558</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="560" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="560" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B560" s="1" t="s">
         <v>559</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="561" spans="2:3" x14ac:dyDescent="0.25">
@@ -7343,7 +7478,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="577" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B577" s="1" t="s">
         <v>576</v>
       </c>
@@ -7351,7 +7486,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="578" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B578" s="1" t="s">
         <v>577</v>
       </c>
@@ -7359,7 +7494,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="579" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B579" s="1" t="s">
         <v>578</v>
       </c>
@@ -7367,7 +7502,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="580" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B580" s="1" t="s">
         <v>579</v>
       </c>
@@ -7375,7 +7510,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="581" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B581" s="1" t="s">
         <v>580</v>
       </c>
@@ -7383,7 +7518,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="582" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B582" s="1" t="s">
         <v>581</v>
       </c>
@@ -7391,15 +7526,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="583" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B583" s="1" t="s">
         <v>582</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="584" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D583" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="584" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B584" s="1" t="s">
         <v>583</v>
       </c>
@@ -7407,23 +7545,29 @@
         <v>784</v>
       </c>
     </row>
-    <row r="585" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B585" s="1" t="s">
         <v>584</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="586" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D585" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="586" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B586" s="1" t="s">
         <v>585</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="587" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D586" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="587" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B587" s="1" t="s">
         <v>586</v>
       </c>
@@ -7431,7 +7575,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="588" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B588" s="1" t="s">
         <v>587</v>
       </c>
@@ -7439,7 +7583,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="589" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B589" s="1" t="s">
         <v>588</v>
       </c>
@@ -7447,7 +7591,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="590" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B590" s="1" t="s">
         <v>589</v>
       </c>
@@ -7455,7 +7599,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="591" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B591" s="1" t="s">
         <v>590</v>
       </c>
@@ -7463,7 +7607,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="592" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B592" s="1" t="s">
         <v>591</v>
       </c>
@@ -7471,7 +7615,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="593" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B593" s="1" t="s">
         <v>592</v>
       </c>
@@ -7479,7 +7623,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="594" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B594" s="1" t="s">
         <v>593</v>
       </c>
@@ -7487,15 +7631,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="595" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B595" s="1" t="s">
         <v>594</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="596" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D595" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="596" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B596" s="1" t="s">
         <v>595</v>
       </c>
@@ -7503,7 +7650,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="597" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B597" s="1" t="s">
         <v>596</v>
       </c>
@@ -7511,7 +7658,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="598" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B598" s="1" t="s">
         <v>597</v>
       </c>
@@ -7519,7 +7666,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="599" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B599" s="1" t="s">
         <v>598</v>
       </c>
@@ -7527,7 +7674,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="600" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B600" s="1" t="s">
         <v>599</v>
       </c>
@@ -7535,7 +7682,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="601" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B601" s="1" t="s">
         <v>600</v>
       </c>
@@ -7543,7 +7690,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="602" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B602" s="1" t="s">
         <v>601</v>
       </c>
@@ -7551,7 +7698,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="603" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B603" s="1" t="s">
         <v>602</v>
       </c>
@@ -7559,7 +7706,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="604" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B604" s="1" t="s">
         <v>603</v>
       </c>
@@ -7567,7 +7714,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="605" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B605" s="1" t="s">
         <v>604</v>
       </c>
@@ -7575,7 +7722,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="606" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B606" s="1" t="s">
         <v>605</v>
       </c>
@@ -7583,7 +7730,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="607" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B607" s="1" t="s">
         <v>606</v>
       </c>
@@ -7591,7 +7738,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="608" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B608" s="1" t="s">
         <v>607</v>
       </c>
@@ -7599,7 +7746,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="609" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B609" s="1" t="s">
         <v>608</v>
       </c>
@@ -7607,7 +7754,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="610" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B610" s="1" t="s">
         <v>609</v>
       </c>
@@ -7615,7 +7762,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="611" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B611" s="1" t="s">
         <v>610</v>
       </c>
@@ -7623,7 +7770,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="612" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B612" s="1" t="s">
         <v>611</v>
       </c>
@@ -7631,7 +7778,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="613" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B613" s="1" t="s">
         <v>612</v>
       </c>
@@ -7639,7 +7786,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="614" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B614" s="1" t="s">
         <v>613</v>
       </c>
@@ -7647,7 +7794,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="615" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B615" s="1" t="s">
         <v>614</v>
       </c>
@@ -7655,7 +7802,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="616" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B616" s="1" t="s">
         <v>615</v>
       </c>
@@ -7663,7 +7810,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="617" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B617" s="1" t="s">
         <v>616</v>
       </c>
@@ -7671,23 +7818,29 @@
         <v>784</v>
       </c>
     </row>
-    <row r="618" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B618" s="1" t="s">
         <v>617</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="619" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D618" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="619" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B619" s="1" t="s">
         <v>618</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="620" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D619" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="620" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B620" s="1" t="s">
         <v>619</v>
       </c>
@@ -7695,7 +7848,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="621" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B621" s="1" t="s">
         <v>620</v>
       </c>
@@ -7703,7 +7856,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="622" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B622" s="1" t="s">
         <v>621</v>
       </c>
@@ -7711,7 +7864,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="623" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B623" s="1" t="s">
         <v>622</v>
       </c>
@@ -7719,7 +7872,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="624" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B624" s="1" t="s">
         <v>623</v>
       </c>
@@ -7727,7 +7880,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="625" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B625" s="1" t="s">
         <v>624</v>
       </c>
@@ -7735,7 +7888,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="626" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B626" s="1" t="s">
         <v>625</v>
       </c>
@@ -7743,7 +7896,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="627" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B627" s="1" t="s">
         <v>626</v>
       </c>
@@ -7751,7 +7904,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="628" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B628" s="1" t="s">
         <v>627</v>
       </c>
@@ -7759,7 +7912,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="629" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B629" s="1" t="s">
         <v>628</v>
       </c>
@@ -7767,7 +7920,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="630" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B630" s="1" t="s">
         <v>629</v>
       </c>
@@ -7775,7 +7928,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="631" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B631" s="1" t="s">
         <v>630</v>
       </c>
@@ -7783,7 +7936,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="632" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B632" s="1" t="s">
         <v>631</v>
       </c>
@@ -7791,7 +7944,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="633" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B633" s="1" t="s">
         <v>632</v>
       </c>
@@ -7799,7 +7952,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="634" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B634" s="1" t="s">
         <v>633</v>
       </c>
@@ -7807,7 +7960,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="635" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B635" s="1" t="s">
         <v>634</v>
       </c>
@@ -7815,7 +7968,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="636" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B636" s="1" t="s">
         <v>635</v>
       </c>
@@ -7823,7 +7976,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="637" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B637" s="1" t="s">
         <v>636</v>
       </c>
@@ -7831,7 +7984,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="638" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B638" s="1" t="s">
         <v>637</v>
       </c>
@@ -7839,7 +7992,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="639" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B639" s="1" t="s">
         <v>638</v>
       </c>
@@ -7847,23 +8000,29 @@
         <v>784</v>
       </c>
     </row>
-    <row r="640" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B640" s="1" t="s">
         <v>639</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="641" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D640" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="641" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B641" s="1" t="s">
         <v>640</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="642" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D641" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="642" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B642" s="1" t="s">
         <v>641</v>
       </c>
@@ -7871,7 +8030,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="643" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B643" s="1" t="s">
         <v>642</v>
       </c>
@@ -7879,7 +8038,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="644" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B644" s="1" t="s">
         <v>643</v>
       </c>
@@ -7887,7 +8046,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="645" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B645" s="1" t="s">
         <v>644</v>
       </c>
@@ -7895,7 +8054,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="646" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B646" s="1" t="s">
         <v>645</v>
       </c>
@@ -7903,15 +8062,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="647" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B647" s="1" t="s">
         <v>646</v>
       </c>
       <c r="C647" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="648" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D647" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="648" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B648" s="1" t="s">
         <v>647</v>
       </c>
@@ -7919,7 +8081,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="649" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B649" s="1" t="s">
         <v>648</v>
       </c>
@@ -7927,7 +8089,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="650" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B650" s="1" t="s">
         <v>649</v>
       </c>
@@ -7935,7 +8097,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="651" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B651" s="1" t="s">
         <v>650</v>
       </c>
@@ -7943,7 +8105,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="652" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B652" s="1" t="s">
         <v>651</v>
       </c>
@@ -7951,7 +8113,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="653" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B653" s="1" t="s">
         <v>652</v>
       </c>
@@ -7959,7 +8121,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="654" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B654" s="1" t="s">
         <v>653</v>
       </c>
@@ -7967,7 +8129,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="655" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B655" s="1" t="s">
         <v>654</v>
       </c>
@@ -7975,7 +8137,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="656" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B656" s="1" t="s">
         <v>655</v>
       </c>
@@ -7983,7 +8145,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="657" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B657" s="1" t="s">
         <v>656</v>
       </c>
@@ -7991,7 +8153,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="658" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B658" s="1" t="s">
         <v>657</v>
       </c>
@@ -7999,7 +8161,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="659" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B659" s="1" t="s">
         <v>658</v>
       </c>
@@ -8007,7 +8169,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="660" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B660" s="1" t="s">
         <v>659</v>
       </c>
@@ -8015,7 +8177,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="661" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B661" s="1" t="s">
         <v>660</v>
       </c>
@@ -8023,7 +8185,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="662" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B662" s="1" t="s">
         <v>661</v>
       </c>
@@ -8031,7 +8193,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="663" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B663" s="1" t="s">
         <v>662</v>
       </c>
@@ -8039,15 +8201,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="664" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B664" s="1" t="s">
         <v>663</v>
       </c>
       <c r="C664" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="665" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D664" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="665" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B665" s="1" t="s">
         <v>664</v>
       </c>
@@ -8055,7 +8220,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="666" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B666" s="1" t="s">
         <v>665</v>
       </c>
@@ -8063,7 +8228,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="667" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B667" s="1" t="s">
         <v>666</v>
       </c>
@@ -8071,7 +8236,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="668" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B668" s="1" t="s">
         <v>667</v>
       </c>
@@ -8079,7 +8244,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="669" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B669" s="1" t="s">
         <v>668</v>
       </c>
@@ -8087,7 +8252,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="670" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B670" s="1" t="s">
         <v>669</v>
       </c>
@@ -8095,7 +8260,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="671" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B671" s="1" t="s">
         <v>670</v>
       </c>
@@ -8103,7 +8268,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="672" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B672" s="1" t="s">
         <v>671</v>
       </c>
@@ -8239,7 +8404,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="689" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B689" s="1" t="s">
         <v>688</v>
       </c>
@@ -8247,7 +8412,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="690" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B690" s="1" t="s">
         <v>689</v>
       </c>
@@ -8255,7 +8420,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="691" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B691" s="1" t="s">
         <v>690</v>
       </c>
@@ -8263,7 +8428,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="692" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B692" s="1" t="s">
         <v>691</v>
       </c>
@@ -8271,15 +8436,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="693" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B693" s="1" t="s">
         <v>692</v>
       </c>
       <c r="C693" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="694" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D693" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="694" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B694" s="1" t="s">
         <v>693</v>
       </c>
@@ -8287,7 +8455,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="695" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B695" s="1" t="s">
         <v>694</v>
       </c>
@@ -8295,7 +8463,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="696" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B696" s="1" t="s">
         <v>695</v>
       </c>
@@ -8303,7 +8471,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="697" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B697" s="1" t="s">
         <v>696</v>
       </c>
@@ -8311,7 +8479,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="698" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B698" s="1" t="s">
         <v>697</v>
       </c>
@@ -8319,52 +8487,70 @@
         <v>784</v>
       </c>
     </row>
-    <row r="699" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B699" s="1" t="s">
         <v>698</v>
       </c>
       <c r="C699" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="700" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D699" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="700" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B700" s="1" t="s">
         <v>699</v>
       </c>
       <c r="C700" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="701" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D700" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="701" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B701" s="1" t="s">
         <v>700</v>
       </c>
       <c r="C701" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="702" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D701" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="702" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B702" s="1" t="s">
         <v>701</v>
       </c>
       <c r="C702" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="703" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D702" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="703" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B703" s="1" t="s">
         <v>702</v>
       </c>
       <c r="C703" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="704" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D703" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="704" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B704" s="1" t="s">
         <v>703</v>
       </c>
       <c r="C704" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D704" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="705" spans="2:3" x14ac:dyDescent="0.25">
@@ -8623,7 +8809,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="737" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B737" s="1" t="s">
         <v>736</v>
       </c>
@@ -8631,7 +8817,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="738" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B738" s="1" t="s">
         <v>737</v>
       </c>
@@ -8639,7 +8825,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="739" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B739" s="1" t="s">
         <v>738</v>
       </c>
@@ -8647,7 +8833,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="740" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B740" s="1" t="s">
         <v>739</v>
       </c>
@@ -8655,23 +8841,29 @@
         <v>784</v>
       </c>
     </row>
-    <row r="741" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B741" s="1" t="s">
         <v>740</v>
       </c>
       <c r="C741" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="742" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D741" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="742" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B742" s="1" t="s">
         <v>741</v>
       </c>
       <c r="C742" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="743" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D742" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="743" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B743" s="1" t="s">
         <v>742</v>
       </c>
@@ -8679,7 +8871,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="744" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B744" s="1" t="s">
         <v>743</v>
       </c>
@@ -8687,7 +8879,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="745" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B745" s="1" t="s">
         <v>744</v>
       </c>
@@ -8695,7 +8887,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="746" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B746" s="1" t="s">
         <v>745</v>
       </c>
@@ -8703,7 +8895,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="747" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B747" s="1" t="s">
         <v>746</v>
       </c>
@@ -8711,7 +8903,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="748" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B748" s="1" t="s">
         <v>747</v>
       </c>
@@ -8719,7 +8911,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="749" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B749" s="1" t="s">
         <v>748</v>
       </c>
@@ -8727,7 +8919,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="750" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B750" s="1" t="s">
         <v>749</v>
       </c>
@@ -8735,7 +8927,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="751" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B751" s="1" t="s">
         <v>750</v>
       </c>
@@ -8743,12 +8935,15 @@
         <v>784</v>
       </c>
     </row>
-    <row r="752" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B752" s="1" t="s">
         <v>751</v>
       </c>
       <c r="C752" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D752" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="753" spans="2:3" x14ac:dyDescent="0.25">
@@ -8879,7 +9074,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="769" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B769" s="1" t="s">
         <v>768</v>
       </c>
@@ -8887,7 +9082,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="770" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B770" s="1" t="s">
         <v>769</v>
       </c>
@@ -8895,7 +9090,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="771" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B771" s="1" t="s">
         <v>770</v>
       </c>
@@ -8903,7 +9098,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="772" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B772" s="1" t="s">
         <v>771</v>
       </c>
@@ -8911,7 +9106,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="773" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B773" s="1" t="s">
         <v>772</v>
       </c>
@@ -8919,7 +9114,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="774" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B774" s="1" t="s">
         <v>773</v>
       </c>
@@ -8927,7 +9122,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="775" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B775" s="1" t="s">
         <v>774</v>
       </c>
@@ -8935,15 +9130,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="776" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B776" s="1" t="s">
         <v>775</v>
       </c>
       <c r="C776" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="777" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D776" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="777" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B777" s="1" t="s">
         <v>776</v>
       </c>
@@ -8951,15 +9149,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="778" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B778" s="1" t="s">
         <v>777</v>
       </c>
       <c r="C778" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="779" spans="2:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D778" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="779" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B779" s="1" t="s">
         <v>778</v>
       </c>
@@ -8967,7 +9168,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="780" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B780" s="1" t="s">
         <v>779</v>
       </c>
@@ -8975,7 +9176,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="781" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B781" s="1" t="s">
         <v>780</v>
       </c>
@@ -8983,12 +9184,15 @@
         <v>784</v>
       </c>
     </row>
-    <row r="782" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B782" s="1" t="s">
         <v>781</v>
       </c>
       <c r="C782" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D782" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
   </sheetData>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="788">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2385,6 +2385,9 @@
   </si>
   <si>
     <t>SIM</t>
+  </si>
+  <si>
+    <t>*SIM</t>
   </si>
 </sst>
 </file>
@@ -2727,8 +2730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C322" sqref="C322"/>
+    <sheetView tabSelected="1" topLeftCell="A753" workbookViewId="0">
+      <selection activeCell="D761" sqref="D761"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5348,7 +5351,10 @@
         <v>320</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>784</v>
+        <v>787</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.25">
@@ -7735,7 +7741,10 @@
         <v>606</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>784</v>
+        <v>787</v>
+      </c>
+      <c r="D607" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="608" spans="2:4" x14ac:dyDescent="0.25">
@@ -7885,7 +7894,10 @@
         <v>624</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>784</v>
+        <v>787</v>
+      </c>
+      <c r="D625" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="626" spans="2:4" x14ac:dyDescent="0.25">
@@ -8946,7 +8958,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="753" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B753" s="1" t="s">
         <v>752</v>
       </c>
@@ -8954,7 +8966,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="754" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B754" s="1" t="s">
         <v>753</v>
       </c>
@@ -8962,7 +8974,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="755" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B755" s="1" t="s">
         <v>754</v>
       </c>
@@ -8970,7 +8982,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="756" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B756" s="1" t="s">
         <v>755</v>
       </c>
@@ -8978,7 +8990,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="757" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B757" s="1" t="s">
         <v>756</v>
       </c>
@@ -8986,7 +8998,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="758" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B758" s="1" t="s">
         <v>757</v>
       </c>
@@ -8994,7 +9006,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="759" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B759" s="1" t="s">
         <v>758</v>
       </c>
@@ -9002,15 +9014,18 @@
         <v>784</v>
       </c>
     </row>
-    <row r="760" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B760" s="1" t="s">
         <v>759</v>
       </c>
       <c r="C760" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="761" spans="2:3" x14ac:dyDescent="0.25">
+        <v>787</v>
+      </c>
+      <c r="D760" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="761" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B761" s="1" t="s">
         <v>760</v>
       </c>
@@ -9018,7 +9033,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="762" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B762" s="1" t="s">
         <v>761</v>
       </c>
@@ -9026,7 +9041,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="763" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B763" s="1" t="s">
         <v>762</v>
       </c>
@@ -9034,7 +9049,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="764" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B764" s="1" t="s">
         <v>763</v>
       </c>
@@ -9042,7 +9057,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="765" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B765" s="1" t="s">
         <v>764</v>
       </c>
@@ -9050,7 +9065,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="766" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B766" s="1" t="s">
         <v>765</v>
       </c>
@@ -9058,7 +9073,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="767" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B767" s="1" t="s">
         <v>766</v>
       </c>
@@ -9066,7 +9081,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="768" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B768" s="1" t="s">
         <v>767</v>
       </c>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="788">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2730,8 +2730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A753" workbookViewId="0">
-      <selection activeCell="D761" sqref="D761"/>
+    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="D323" sqref="D323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5324,7 +5324,10 @@
         <v>317</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.25">
@@ -5343,7 +5346,10 @@
         <v>319</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.25">
@@ -5362,7 +5368,10 @@
         <v>321</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="788">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2730,8 +2730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="D323" sqref="D323"/>
+    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
+      <selection activeCell="C326" sqref="C326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5379,7 +5379,10 @@
         <v>322</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.25">
@@ -5387,7 +5390,10 @@
         <v>323</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.25">
@@ -5406,7 +5412,10 @@
         <v>325</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>784</v>
+        <v>787</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="788">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2731,7 +2731,7 @@
   <dimension ref="B1:D782"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="C326" sqref="C326"/>
+      <selection activeCell="C330" sqref="C330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5423,7 +5423,10 @@
         <v>326</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.25">
@@ -5431,7 +5434,10 @@
         <v>327</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.25">
@@ -5439,7 +5445,10 @@
         <v>328</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.25">
@@ -5447,7 +5456,10 @@
         <v>329</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="788">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2731,7 +2731,7 @@
   <dimension ref="B1:D782"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="C330" sqref="C330"/>
+      <selection activeCell="C332" sqref="C332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5390,7 +5390,7 @@
         <v>323</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>785</v>
@@ -5423,7 +5423,7 @@
         <v>326</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>785</v>
@@ -5467,7 +5467,10 @@
         <v>330</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>784</v>
+        <v>787</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="788">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2730,8 +2730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="C332" sqref="C332"/>
+    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
+      <selection activeCell="C335" sqref="C335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5478,7 +5478,10 @@
         <v>331</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.25">
@@ -5486,7 +5489,10 @@
         <v>332</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.25">
@@ -5494,7 +5500,10 @@
         <v>333</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.25">
@@ -5502,7 +5511,10 @@
         <v>334</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="789">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2388,6 +2388,9 @@
   </si>
   <si>
     <t>*SIM</t>
+  </si>
+  <si>
+    <t>juminho</t>
   </si>
 </sst>
 </file>
@@ -2730,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="C335" sqref="C335"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5554,6 +5557,9 @@
       <c r="C339" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D339" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B340" s="1" t="s">
@@ -5562,6 +5568,9 @@
       <c r="C340" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D340" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B341" s="1" t="s">
@@ -5570,6 +5579,9 @@
       <c r="C341" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D341" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B342" s="1" t="s">
@@ -5578,6 +5590,9 @@
       <c r="C342" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D342" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B343" s="1" t="s">
@@ -5586,6 +5601,9 @@
       <c r="C343" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D343" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="344" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B344" s="1" t="s">
@@ -5605,6 +5623,9 @@
       <c r="C345" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D345" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B346" s="1" t="s">
@@ -5613,6 +5634,9 @@
       <c r="C346" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D346" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B347" s="1" t="s">
@@ -5621,6 +5645,9 @@
       <c r="C347" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D347" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B348" s="1" t="s">
@@ -5629,6 +5656,9 @@
       <c r="C348" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D348" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B349" s="1" t="s">
@@ -5637,6 +5667,9 @@
       <c r="C349" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D349" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B350" s="1" t="s">
@@ -5645,6 +5678,9 @@
       <c r="C350" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D350" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B351" s="1" t="s">
@@ -5664,6 +5700,9 @@
       <c r="C352" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D352" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B353" s="1" t="s">
@@ -5672,6 +5711,9 @@
       <c r="C353" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D353" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B354" s="1" t="s">
@@ -5680,6 +5722,9 @@
       <c r="C354" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D354" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="355" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B355" s="1" t="s">
@@ -5699,6 +5744,9 @@
       <c r="C356" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D356" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B357" s="1" t="s">
@@ -5707,6 +5755,9 @@
       <c r="C357" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D357" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="358" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B358" s="1" t="s">
@@ -5726,6 +5777,9 @@
       <c r="C359" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D359" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B360" s="1" t="s">
@@ -5734,6 +5788,9 @@
       <c r="C360" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D360" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B361" s="1" t="s">
@@ -5742,6 +5799,9 @@
       <c r="C361" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D361" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B362" s="1" t="s">
@@ -5750,6 +5810,9 @@
       <c r="C362" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D362" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B363" s="1" t="s">
@@ -5758,6 +5821,9 @@
       <c r="C363" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D363" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B364" s="1" t="s">
@@ -5766,6 +5832,9 @@
       <c r="C364" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D364" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="365" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B365" s="1" t="s">
@@ -5774,6 +5843,9 @@
       <c r="C365" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D365" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="366" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B366" s="1" t="s">
@@ -5782,6 +5854,9 @@
       <c r="C366" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D366" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B367" s="1" t="s">
@@ -5790,6 +5865,9 @@
       <c r="C367" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D367" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B368" s="1" t="s">
@@ -5798,40 +5876,55 @@
       <c r="C368" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="369" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D368" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B369" s="1" t="s">
         <v>368</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="370" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D369" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="370" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B370" s="1" t="s">
         <v>369</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="371" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D370" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="371" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B371" s="1" t="s">
         <v>370</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="372" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D371" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B372" s="1" t="s">
         <v>371</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="373" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D372" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B373" s="1" t="s">
         <v>372</v>
       </c>
@@ -5839,7 +5932,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="374" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B374" s="1" t="s">
         <v>373</v>
       </c>
@@ -5847,7 +5940,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="375" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B375" s="1" t="s">
         <v>374</v>
       </c>
@@ -5855,7 +5948,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="376" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B376" s="1" t="s">
         <v>375</v>
       </c>
@@ -5863,7 +5956,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="377" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B377" s="1" t="s">
         <v>376</v>
       </c>
@@ -5871,7 +5964,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="378" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B378" s="1" t="s">
         <v>377</v>
       </c>
@@ -5879,7 +5972,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="379" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B379" s="1" t="s">
         <v>378</v>
       </c>
@@ -5887,7 +5980,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="380" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B380" s="1" t="s">
         <v>379</v>
       </c>
@@ -5895,7 +5988,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="381" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B381" s="1" t="s">
         <v>380</v>
       </c>
@@ -5903,7 +5996,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="382" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B382" s="1" t="s">
         <v>381</v>
       </c>
@@ -5911,7 +6004,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="383" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B383" s="1" t="s">
         <v>382</v>
       </c>
@@ -5919,7 +6012,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="384" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B384" s="1" t="s">
         <v>383</v>
       </c>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="789">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2733,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="D222" sqref="D222"/>
+    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
+      <selection activeCell="C374" sqref="C374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5536,7 +5536,10 @@
         <v>336</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>784</v>
+        <v>787</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="338" spans="2:4" x14ac:dyDescent="0.25">
@@ -5929,7 +5932,10 @@
         <v>372</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="374" spans="2:4" x14ac:dyDescent="0.25">
@@ -5937,7 +5943,10 @@
         <v>373</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="375" spans="2:4" x14ac:dyDescent="0.25">
@@ -5945,7 +5954,10 @@
         <v>374</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="376" spans="2:4" x14ac:dyDescent="0.25">
@@ -5953,7 +5965,10 @@
         <v>375</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="377" spans="2:4" x14ac:dyDescent="0.25">
@@ -5961,7 +5976,10 @@
         <v>376</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="789">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2733,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
-      <selection activeCell="C374" sqref="C374"/>
+    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="D441" sqref="D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6192,6 +6192,9 @@
       <c r="C403" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D403" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="404" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B404" s="1" t="s">
@@ -6200,6 +6203,9 @@
       <c r="C404" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D404" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="405" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B405" s="1" t="s">
@@ -6208,6 +6214,9 @@
       <c r="C405" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D405" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B406" s="1" t="s">
@@ -6216,6 +6225,9 @@
       <c r="C406" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D406" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="407" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B407" s="1" t="s">
@@ -6224,6 +6236,9 @@
       <c r="C407" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D407" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="408" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B408" s="1" t="s">
@@ -6232,6 +6247,9 @@
       <c r="C408" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D408" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="409" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B409" s="1" t="s">
@@ -6240,6 +6258,9 @@
       <c r="C409" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D409" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="410" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B410" s="1" t="s">
@@ -6248,6 +6269,9 @@
       <c r="C410" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D410" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="411" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B411" s="1" t="s">
@@ -6256,6 +6280,9 @@
       <c r="C411" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D411" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="412" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B412" s="1" t="s">
@@ -6264,6 +6291,9 @@
       <c r="C412" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D412" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B413" s="1" t="s">
@@ -6272,6 +6302,9 @@
       <c r="C413" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D413" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="414" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B414" s="1" t="s">
@@ -6280,6 +6313,9 @@
       <c r="C414" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D414" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="415" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B415" s="1" t="s">
@@ -6321,6 +6357,9 @@
       <c r="C418" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D418" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="419" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B419" s="1" t="s">
@@ -6329,6 +6368,9 @@
       <c r="C419" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D419" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B420" s="1" t="s">
@@ -6337,6 +6379,9 @@
       <c r="C420" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D420" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="421" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B421" s="1" t="s">
@@ -6356,6 +6401,9 @@
       <c r="C422" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D422" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B423" s="1" t="s">
@@ -6364,6 +6412,9 @@
       <c r="C423" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D423" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="424" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B424" s="1" t="s">
@@ -6372,6 +6423,9 @@
       <c r="C424" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D424" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="425" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B425" s="1" t="s">
@@ -6390,6 +6444,9 @@
       </c>
       <c r="C426" s="1" t="s">
         <v>784</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="789">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2733,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="D441" sqref="D441"/>
+    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
+      <selection activeCell="D445" sqref="D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5558,7 +5558,7 @@
         <v>338</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>788</v>
@@ -5569,7 +5569,7 @@
         <v>339</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>788</v>
@@ -5580,7 +5580,7 @@
         <v>340</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>788</v>
@@ -5591,7 +5591,7 @@
         <v>341</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>788</v>
@@ -5602,7 +5602,7 @@
         <v>342</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>788</v>
@@ -5624,7 +5624,7 @@
         <v>344</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>788</v>
@@ -5635,7 +5635,7 @@
         <v>345</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>788</v>
@@ -5646,7 +5646,7 @@
         <v>346</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>788</v>
@@ -5657,7 +5657,7 @@
         <v>347</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>788</v>
@@ -5668,7 +5668,7 @@
         <v>348</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>788</v>
@@ -5679,7 +5679,7 @@
         <v>349</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>788</v>
@@ -5701,7 +5701,7 @@
         <v>351</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>788</v>
@@ -5712,7 +5712,7 @@
         <v>352</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>788</v>
@@ -5723,7 +5723,7 @@
         <v>353</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>788</v>
@@ -5745,7 +5745,7 @@
         <v>355</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>788</v>
@@ -5756,7 +5756,7 @@
         <v>356</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>788</v>
@@ -5778,7 +5778,7 @@
         <v>358</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>788</v>
@@ -5789,7 +5789,7 @@
         <v>359</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>788</v>
@@ -5800,7 +5800,7 @@
         <v>360</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>788</v>
@@ -5811,7 +5811,7 @@
         <v>361</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>788</v>
@@ -5822,7 +5822,7 @@
         <v>362</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>788</v>
@@ -5833,7 +5833,7 @@
         <v>363</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>788</v>
@@ -5844,7 +5844,7 @@
         <v>364</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>788</v>
@@ -5855,7 +5855,7 @@
         <v>365</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>788</v>
@@ -5866,7 +5866,7 @@
         <v>366</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>788</v>
@@ -5877,7 +5877,7 @@
         <v>367</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>788</v>
@@ -5888,7 +5888,7 @@
         <v>368</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>788</v>
@@ -5899,7 +5899,7 @@
         <v>369</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D370" s="1" t="s">
         <v>788</v>
@@ -5910,7 +5910,7 @@
         <v>370</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D371" s="1" t="s">
         <v>788</v>
@@ -5921,7 +5921,7 @@
         <v>371</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>788</v>
@@ -5989,6 +5989,9 @@
       <c r="C378" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D378" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="379" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B379" s="1" t="s">
@@ -5997,6 +6000,9 @@
       <c r="C379" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D379" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="380" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B380" s="1" t="s">
@@ -6005,6 +6011,9 @@
       <c r="C380" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D380" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="381" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B381" s="1" t="s">
@@ -6013,6 +6022,9 @@
       <c r="C381" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D381" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="382" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B382" s="1" t="s">
@@ -6021,6 +6033,9 @@
       <c r="C382" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D382" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="383" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B383" s="1" t="s">
@@ -6029,6 +6044,9 @@
       <c r="C383" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D383" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="384" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B384" s="1" t="s">
@@ -6037,133 +6055,184 @@
       <c r="C384" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D384" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B385" s="1" t="s">
         <v>384</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="386" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D385" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B386" s="1" t="s">
         <v>385</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="387" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D386" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B387" s="1" t="s">
         <v>386</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="388" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D387" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B388" s="1" t="s">
         <v>387</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="389" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D388" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B389" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="390" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D389" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B390" s="1" t="s">
         <v>389</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="391" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D390" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B391" s="1" t="s">
         <v>390</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D391" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B392" s="1" t="s">
         <v>391</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="393" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D392" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B393" s="1" t="s">
         <v>392</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="394" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D393" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B394" s="1" t="s">
         <v>393</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="395" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D394" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B395" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="396" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D395" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="396" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B396" s="1" t="s">
         <v>395</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="397" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D396" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B397" s="1" t="s">
         <v>396</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="398" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D397" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="398" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B398" s="1" t="s">
         <v>397</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="399" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D398" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="399" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B399" s="1" t="s">
         <v>398</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="400" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D399" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="400" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B400" s="1" t="s">
         <v>399</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>784</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.25">
@@ -6173,6 +6242,9 @@
       <c r="C401" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D401" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="402" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B402" s="1" t="s">
@@ -6456,6 +6528,9 @@
       <c r="C427" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D427" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="428" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B428" s="1" t="s">
@@ -6464,6 +6539,9 @@
       <c r="C428" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D428" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="429" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B429" s="1" t="s">
@@ -6472,6 +6550,9 @@
       <c r="C429" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D429" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="430" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B430" s="1" t="s">
@@ -6480,6 +6561,9 @@
       <c r="C430" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D430" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="431" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B431" s="1" t="s">
@@ -6488,6 +6572,9 @@
       <c r="C431" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D431" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="432" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B432" s="1" t="s">
@@ -6496,6 +6583,9 @@
       <c r="C432" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D432" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B433" s="1" t="s">
@@ -6515,6 +6605,9 @@
       <c r="C434" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D434" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="435" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B435" s="1" t="s">
@@ -6523,6 +6616,9 @@
       <c r="C435" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D435" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="436" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B436" s="1" t="s">
@@ -6531,6 +6627,9 @@
       <c r="C436" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D436" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="437" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B437" s="1" t="s">
@@ -6539,6 +6638,9 @@
       <c r="C437" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D437" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="438" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B438" s="1" t="s">
@@ -6558,6 +6660,9 @@
       <c r="C439" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D439" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="440" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B440" s="1" t="s">
@@ -6566,6 +6671,9 @@
       <c r="C440" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D440" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="441" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B441" s="1" t="s">
@@ -6574,6 +6682,9 @@
       <c r="C441" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D441" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B442" s="1" t="s">
@@ -6582,6 +6693,9 @@
       <c r="C442" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D442" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="443" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B443" s="1" t="s">
@@ -6590,6 +6704,9 @@
       <c r="C443" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D443" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="444" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B444" s="1" t="s">
@@ -6608,6 +6725,9 @@
       </c>
       <c r="C445" s="1" t="s">
         <v>784</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="446" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="789">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2733,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445"/>
+    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
+      <selection activeCell="C455" sqref="C455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6816,7 +6816,10 @@
         <v>454</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.25">
@@ -6824,7 +6827,10 @@
         <v>455</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="457" spans="2:4" x14ac:dyDescent="0.25">
@@ -6843,7 +6849,10 @@
         <v>457</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="459" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2733,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="C455" sqref="C455"/>
+    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
+      <selection activeCell="C405" sqref="C405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6262,7 +6262,7 @@
         <v>402</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D403" s="1" t="s">
         <v>785</v>
@@ -6273,7 +6273,7 @@
         <v>403</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D404" s="1" t="s">
         <v>785</v>
@@ -6284,7 +6284,7 @@
         <v>404</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D405" s="1" t="s">
         <v>785</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="789">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2733,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
-      <selection activeCell="C405" sqref="C405"/>
+    <sheetView tabSelected="1" topLeftCell="A765" workbookViewId="0">
+      <selection activeCell="D777" sqref="D777"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9522,7 +9522,10 @@
         <v>778</v>
       </c>
       <c r="C779" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D779" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="780" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="789">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2733,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A765" workbookViewId="0">
-      <selection activeCell="D777" sqref="D777"/>
+    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="C248" sqref="C248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8806,7 +8806,10 @@
         <v>693</v>
       </c>
       <c r="C694" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D694" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="695" spans="2:4" x14ac:dyDescent="0.25">
@@ -8814,7 +8817,10 @@
         <v>694</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D695" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="696" spans="2:4" x14ac:dyDescent="0.25">
@@ -8822,7 +8828,10 @@
         <v>695</v>
       </c>
       <c r="C696" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D696" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="697" spans="2:4" x14ac:dyDescent="0.25">
@@ -8830,7 +8839,10 @@
         <v>696</v>
       </c>
       <c r="C697" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D697" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="698" spans="2:4" x14ac:dyDescent="0.25">
@@ -8838,7 +8850,10 @@
         <v>697</v>
       </c>
       <c r="C698" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D698" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="699" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="789">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2733,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="C248" sqref="C248"/>
+    <sheetView tabSelected="1" topLeftCell="A629" workbookViewId="0">
+      <selection activeCell="D643" sqref="D643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8383,6 +8383,9 @@
       <c r="C642" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D642" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="643" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B643" s="1" t="s">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="789">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2733,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A629" workbookViewId="0">
-      <selection activeCell="D643" sqref="D643"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="D400" sqref="D400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6737,6 +6737,9 @@
       <c r="C446" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D446" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="447" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B447" s="1" t="s">
@@ -6745,6 +6748,9 @@
       <c r="C447" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D447" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="448" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B448" s="1" t="s">
@@ -6753,6 +6759,9 @@
       <c r="C448" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D448" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B449" s="1" t="s">
@@ -6761,6 +6770,9 @@
       <c r="C449" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D449" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="450" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B450" s="1" t="s">
@@ -6769,6 +6781,9 @@
       <c r="C450" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D450" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="451" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B451" s="1" t="s">
@@ -6788,6 +6803,9 @@
       <c r="C452" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D452" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="453" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B453" s="1" t="s">
@@ -8096,6 +8114,9 @@
       <c r="C608" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D608" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="609" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B609" s="1" t="s">
@@ -8104,6 +8125,9 @@
       <c r="C609" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D609" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="610" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B610" s="1" t="s">
@@ -8112,6 +8136,9 @@
       <c r="C610" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D610" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="611" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B611" s="1" t="s">
@@ -8119,6 +8146,9 @@
       </c>
       <c r="C611" s="1" t="s">
         <v>784</v>
+      </c>
+      <c r="D611" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="612" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="789">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2733,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="D400" sqref="D400"/>
+    <sheetView tabSelected="1" topLeftCell="A453" workbookViewId="0">
+      <selection activeCell="D460" sqref="D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6878,7 +6878,10 @@
         <v>458</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="460" spans="2:4" x14ac:dyDescent="0.25">
@@ -6886,7 +6889,10 @@
         <v>459</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="461" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="790">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2391,6 +2391,9 @@
   </si>
   <si>
     <t>juminho</t>
+  </si>
+  <si>
+    <t>sIM</t>
   </si>
 </sst>
 </file>
@@ -2733,8 +2736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A453" workbookViewId="0">
-      <selection activeCell="D460" sqref="D460"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="C504" sqref="C504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7202,7 +7205,10 @@
         <v>497</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="499" spans="2:4" x14ac:dyDescent="0.25">
@@ -7218,7 +7224,10 @@
         <v>499</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="501" spans="2:4" x14ac:dyDescent="0.25">
@@ -7237,7 +7246,10 @@
         <v>501</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="503" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BD\traducao-blue-dragon-xbox360\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20940" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="791">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2394,6 +2389,9 @@
   </si>
   <si>
     <t>sIM</t>
+  </si>
+  <si>
+    <t>cfarl</t>
   </si>
 </sst>
 </file>
@@ -2514,7 +2512,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2549,7 +2547,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2726,7 +2724,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2736,8 +2734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="C504" sqref="C504"/>
+    <sheetView tabSelected="1" topLeftCell="A747" workbookViewId="0">
+      <selection activeCell="G756" sqref="G756"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9389,6 +9387,9 @@
       <c r="C755" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D755" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="756" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B756" s="1" t="s">
@@ -9397,6 +9398,9 @@
       <c r="C756" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D756" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="757" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B757" s="1" t="s">
@@ -9405,6 +9409,9 @@
       <c r="C757" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D757" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="758" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B758" s="1" t="s">
@@ -9412,6 +9419,9 @@
       </c>
       <c r="C758" s="1" t="s">
         <v>784</v>
+      </c>
+      <c r="D758" s="1" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="759" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="792">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2392,6 +2392,9 @@
   </si>
   <si>
     <t>cfarl</t>
+  </si>
+  <si>
+    <t>Revisado e retirado * por cfarl</t>
   </si>
 </sst>
 </file>
@@ -2421,7 +2424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2444,14 +2447,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2724,7 +2737,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2732,10 +2745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D782"/>
+  <dimension ref="B1:E782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A747" workbookViewId="0">
-      <selection activeCell="G756" sqref="G756"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="B321" sqref="B321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5356,18 +5369,21 @@
         <v>785</v>
       </c>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B321" s="1" t="s">
         <v>320</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E321" s="3" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="322" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B322" s="1" t="s">
         <v>321</v>
       </c>
@@ -5378,7 +5394,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B323" s="1" t="s">
         <v>322</v>
       </c>
@@ -5389,18 +5405,21 @@
         <v>785</v>
       </c>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B324" s="1" t="s">
         <v>323</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E324" s="3" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B325" s="1" t="s">
         <v>324</v>
       </c>
@@ -5411,7 +5430,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B326" s="1" t="s">
         <v>325</v>
       </c>
@@ -5422,7 +5441,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B327" s="1" t="s">
         <v>326</v>
       </c>
@@ -5433,7 +5452,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B328" s="1" t="s">
         <v>327</v>
       </c>
@@ -5444,7 +5463,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B329" s="1" t="s">
         <v>328</v>
       </c>
@@ -5455,7 +5474,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B330" s="1" t="s">
         <v>329</v>
       </c>
@@ -5466,7 +5485,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B331" s="1" t="s">
         <v>330</v>
       </c>
@@ -5477,7 +5496,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B332" s="1" t="s">
         <v>331</v>
       </c>
@@ -5488,7 +5507,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B333" s="1" t="s">
         <v>332</v>
       </c>
@@ -5499,7 +5518,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B334" s="1" t="s">
         <v>333</v>
       </c>
@@ -5510,7 +5529,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B335" s="1" t="s">
         <v>334</v>
       </c>
@@ -5521,7 +5540,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B336" s="1" t="s">
         <v>335</v>
       </c>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2736,8 +2736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="C504" sqref="C504"/>
+    <sheetView tabSelected="1" topLeftCell="A780" workbookViewId="0">
+      <selection activeCell="D802" sqref="D802"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="790">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2736,8 +2736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A780" workbookViewId="0">
-      <selection activeCell="D802" sqref="D802"/>
+    <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
+      <selection activeCell="D461" sqref="D461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6903,7 +6903,10 @@
         <v>460</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="462" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="791">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2394,6 +2394,9 @@
   </si>
   <si>
     <t>sIM</t>
+  </si>
+  <si>
+    <t>uds</t>
   </si>
 </sst>
 </file>
@@ -2737,7 +2740,7 @@
   <dimension ref="B1:D782"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="D461" sqref="D461"/>
+      <selection activeCell="D463" sqref="D463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6914,7 +6917,10 @@
         <v>461</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="790">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2394,9 +2394,6 @@
   </si>
   <si>
     <t>sIM</t>
-  </si>
-  <si>
-    <t>uds</t>
   </si>
 </sst>
 </file>
@@ -2739,8 +2736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="D463" sqref="D463"/>
+    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
+      <selection activeCell="D509" sqref="D509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6920,7 +6917,7 @@
         <v>786</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.25">
@@ -7317,7 +7314,10 @@
         <v>508</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="510" spans="2:4" x14ac:dyDescent="0.25">
@@ -7325,7 +7325,10 @@
         <v>509</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="511" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BD\traducao-blue-dragon-xbox360\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\danger\traducoes\blue-dragon\traducao-blue-dragon-xbox360\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="792">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2394,6 +2394,12 @@
   </si>
   <si>
     <t>sIM</t>
+  </si>
+  <si>
+    <t>cfarl</t>
+  </si>
+  <si>
+    <t>Sim</t>
   </si>
 </sst>
 </file>
@@ -2736,8 +2742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
-      <selection activeCell="D509" sqref="D509"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E758" sqref="E758"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7746,132 +7752,180 @@
         <v>785</v>
       </c>
     </row>
-    <row r="561" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B561" s="1" t="s">
         <v>560</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="562" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D561" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="562" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B562" s="1" t="s">
         <v>561</v>
       </c>
       <c r="C562" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="563" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D562" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="563" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B563" s="1" t="s">
         <v>562</v>
       </c>
       <c r="C563" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="564" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D563" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="564" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B564" s="1" t="s">
         <v>563</v>
       </c>
       <c r="C564" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="565" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D564" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="565" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B565" s="1" t="s">
         <v>564</v>
       </c>
       <c r="C565" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="566" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D565" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="566" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B566" s="1" t="s">
         <v>565</v>
       </c>
       <c r="C566" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="567" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D566" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="567" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B567" s="1" t="s">
         <v>566</v>
       </c>
       <c r="C567" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="568" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D567" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="568" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B568" s="1" t="s">
         <v>567</v>
       </c>
       <c r="C568" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="569" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D568" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="569" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B569" s="1" t="s">
         <v>568</v>
       </c>
       <c r="C569" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="570" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D569" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="570" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B570" s="1" t="s">
         <v>569</v>
       </c>
       <c r="C570" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="571" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D570" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="571" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B571" s="1" t="s">
         <v>570</v>
       </c>
       <c r="C571" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="572" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D571" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="572" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B572" s="1" t="s">
         <v>571</v>
       </c>
       <c r="C572" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="573" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D572" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="573" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B573" s="1" t="s">
         <v>572</v>
       </c>
       <c r="C573" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="574" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D573" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="574" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B574" s="1" t="s">
         <v>573</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="575" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D574" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="575" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B575" s="1" t="s">
         <v>574</v>
       </c>
       <c r="C575" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="576" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D575" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="576" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B576" s="1" t="s">
         <v>575</v>
       </c>
       <c r="C576" s="1" t="s">
         <v>784</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="577" spans="2:4" x14ac:dyDescent="0.25">
@@ -7881,6 +7935,9 @@
       <c r="C577" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D577" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="578" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B578" s="1" t="s">
@@ -7889,6 +7946,9 @@
       <c r="C578" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D578" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="579" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B579" s="1" t="s">
@@ -7897,6 +7957,9 @@
       <c r="C579" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D579" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="580" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B580" s="1" t="s">
@@ -7905,6 +7968,9 @@
       <c r="C580" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D580" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="581" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B581" s="1" t="s">
@@ -7913,6 +7979,9 @@
       <c r="C581" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D581" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="582" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B582" s="1" t="s">
@@ -7921,6 +7990,9 @@
       <c r="C582" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D582" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="583" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B583" s="1" t="s">
@@ -7970,6 +8042,9 @@
       <c r="C587" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D587" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="588" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B588" s="1" t="s">
@@ -7978,6 +8053,9 @@
       <c r="C588" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D588" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="589" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B589" s="1" t="s">
@@ -7986,6 +8064,9 @@
       <c r="C589" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D589" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="590" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B590" s="1" t="s">
@@ -7994,6 +8075,9 @@
       <c r="C590" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D590" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="591" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B591" s="1" t="s">
@@ -8002,6 +8086,9 @@
       <c r="C591" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D591" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="592" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B592" s="1" t="s">
@@ -8010,6 +8097,9 @@
       <c r="C592" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D592" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="593" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B593" s="1" t="s">
@@ -8018,6 +8108,9 @@
       <c r="C593" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D593" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="594" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B594" s="1" t="s">
@@ -8026,6 +8119,9 @@
       <c r="C594" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D594" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="595" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B595" s="1" t="s">
@@ -8045,6 +8141,9 @@
       <c r="C596" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D596" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="597" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B597" s="1" t="s">
@@ -8053,6 +8152,9 @@
       <c r="C597" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D597" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="598" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B598" s="1" t="s">
@@ -8061,6 +8163,9 @@
       <c r="C598" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D598" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="599" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B599" s="1" t="s">
@@ -8069,6 +8174,9 @@
       <c r="C599" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D599" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="600" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B600" s="1" t="s">
@@ -8077,6 +8185,9 @@
       <c r="C600" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D600" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="601" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B601" s="1" t="s">
@@ -8085,6 +8196,9 @@
       <c r="C601" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D601" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="602" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B602" s="1" t="s">
@@ -8093,6 +8207,9 @@
       <c r="C602" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D602" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="603" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B603" s="1" t="s">
@@ -8101,6 +8218,9 @@
       <c r="C603" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D603" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="604" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B604" s="1" t="s">
@@ -8109,6 +8229,9 @@
       <c r="C604" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D604" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="605" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B605" s="1" t="s">
@@ -8117,6 +8240,9 @@
       <c r="C605" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D605" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="606" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B606" s="1" t="s">
@@ -8125,6 +8251,9 @@
       <c r="C606" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D606" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="607" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B607" s="1" t="s">
@@ -9399,7 +9528,10 @@
         <v>754</v>
       </c>
       <c r="C755" s="1" t="s">
-        <v>784</v>
+        <v>791</v>
+      </c>
+      <c r="D755" s="1" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="756" spans="2:4" x14ac:dyDescent="0.25">
@@ -9407,7 +9539,10 @@
         <v>755</v>
       </c>
       <c r="C756" s="1" t="s">
-        <v>784</v>
+        <v>791</v>
+      </c>
+      <c r="D756" s="1" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="757" spans="2:4" x14ac:dyDescent="0.25">
@@ -9415,7 +9550,10 @@
         <v>756</v>
       </c>
       <c r="C757" s="1" t="s">
-        <v>784</v>
+        <v>791</v>
+      </c>
+      <c r="D757" s="1" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="758" spans="2:4" x14ac:dyDescent="0.25">
@@ -9423,7 +9561,10 @@
         <v>757</v>
       </c>
       <c r="C758" s="1" t="s">
-        <v>784</v>
+        <v>791</v>
+      </c>
+      <c r="D758" s="1" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="759" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2742,8 +2742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E758" sqref="E758"/>
+    <sheetView tabSelected="1" topLeftCell="A544" workbookViewId="0">
+      <selection activeCell="F551" sqref="F551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7757,7 +7757,7 @@
         <v>560</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D561" s="1" t="s">
         <v>790</v>
@@ -7768,7 +7768,7 @@
         <v>561</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D562" s="1" t="s">
         <v>790</v>
@@ -7779,7 +7779,7 @@
         <v>562</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D563" s="1" t="s">
         <v>790</v>
@@ -7790,7 +7790,7 @@
         <v>563</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D564" s="1" t="s">
         <v>790</v>
@@ -7801,7 +7801,7 @@
         <v>564</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D565" s="1" t="s">
         <v>790</v>
@@ -7812,7 +7812,7 @@
         <v>565</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D566" s="1" t="s">
         <v>790</v>
@@ -7823,7 +7823,7 @@
         <v>566</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D567" s="1" t="s">
         <v>790</v>
@@ -7834,7 +7834,7 @@
         <v>567</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D568" s="1" t="s">
         <v>790</v>
@@ -7845,7 +7845,7 @@
         <v>568</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D569" s="1" t="s">
         <v>790</v>
@@ -7856,7 +7856,7 @@
         <v>569</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D570" s="1" t="s">
         <v>790</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\danger\traducoes\blue-dragon\traducao-blue-dragon-xbox360\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BD\traducao-blue-dragon-xbox360\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="792">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2742,8 +2742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A544" workbookViewId="0">
-      <selection activeCell="F551" sqref="F551"/>
+    <sheetView tabSelected="1" topLeftCell="A462" workbookViewId="0">
+      <selection activeCell="D467" sqref="D467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6931,7 +6931,10 @@
         <v>462</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="464" spans="2:4" x14ac:dyDescent="0.25">
@@ -6939,7 +6942,10 @@
         <v>463</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="465" spans="2:4" x14ac:dyDescent="0.25">
@@ -6947,7 +6953,10 @@
         <v>464</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="466" spans="2:4" x14ac:dyDescent="0.25">
@@ -6955,7 +6964,10 @@
         <v>465</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="467" spans="2:4" x14ac:dyDescent="0.25">
@@ -6963,7 +6975,10 @@
         <v>466</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="468" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="792">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2742,8 +2742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A462" workbookViewId="0">
-      <selection activeCell="D467" sqref="D467"/>
+    <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
+      <selection activeCell="D482" sqref="D482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7093,7 +7093,10 @@
         <v>480</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="482" spans="2:4" x14ac:dyDescent="0.25">
@@ -7101,7 +7104,10 @@
         <v>481</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="483" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BD\traducao-blue-dragon-xbox360\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\danger\traducoes\blue-dragon\traducao-blue-dragon-xbox360\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="792">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2464,8 +2464,56 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC6EFCE"/>
+      <color rgb="FFC6EFDA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2742,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
-      <selection activeCell="D482" sqref="D482"/>
+    <sheetView tabSelected="1" topLeftCell="A576" workbookViewId="0">
+      <selection activeCell="F542" sqref="F542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7888,7 +7936,7 @@
         <v>570</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D571" s="1" t="s">
         <v>790</v>
@@ -7899,7 +7947,7 @@
         <v>571</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D572" s="1" t="s">
         <v>790</v>
@@ -7910,7 +7958,7 @@
         <v>572</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D573" s="1" t="s">
         <v>790</v>
@@ -7921,7 +7969,7 @@
         <v>573</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D574" s="1" t="s">
         <v>790</v>
@@ -7932,7 +7980,7 @@
         <v>574</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D575" s="1" t="s">
         <v>790</v>
@@ -7943,7 +7991,7 @@
         <v>575</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D576" s="1" t="s">
         <v>790</v>
@@ -7954,7 +8002,7 @@
         <v>576</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D577" s="1" t="s">
         <v>790</v>
@@ -7965,7 +8013,7 @@
         <v>577</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D578" s="1" t="s">
         <v>790</v>
@@ -7976,7 +8024,7 @@
         <v>578</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D579" s="1" t="s">
         <v>790</v>
@@ -7987,7 +8035,7 @@
         <v>579</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D580" s="1" t="s">
         <v>790</v>
@@ -7998,7 +8046,7 @@
         <v>580</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D581" s="1" t="s">
         <v>790</v>
@@ -8009,7 +8057,7 @@
         <v>581</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D582" s="1" t="s">
         <v>790</v>
@@ -8031,7 +8079,10 @@
         <v>583</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D584" s="1" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="585" spans="2:4" x14ac:dyDescent="0.25">
@@ -8061,7 +8112,7 @@
         <v>586</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D587" s="1" t="s">
         <v>790</v>
@@ -8072,7 +8123,7 @@
         <v>587</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D588" s="1" t="s">
         <v>790</v>
@@ -8083,7 +8134,7 @@
         <v>588</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D589" s="1" t="s">
         <v>790</v>
@@ -8094,7 +8145,7 @@
         <v>589</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D590" s="1" t="s">
         <v>790</v>
@@ -8105,7 +8156,7 @@
         <v>590</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D591" s="1" t="s">
         <v>790</v>
@@ -8116,7 +8167,7 @@
         <v>591</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D592" s="1" t="s">
         <v>790</v>
@@ -8127,7 +8178,7 @@
         <v>592</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D593" s="1" t="s">
         <v>790</v>
@@ -8138,7 +8189,7 @@
         <v>593</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D594" s="1" t="s">
         <v>790</v>
@@ -9796,6 +9847,27 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"SIM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
+      <formula>LEN(TRIM(D1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\danger\traducoes\blue-dragon\traducao-blue-dragon-xbox360\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BD\traducao-blue-dragon-xbox360\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="793">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2400,6 +2400,9 @@
   </si>
   <si>
     <t>Sim</t>
+  </si>
+  <si>
+    <t>*sim</t>
   </si>
 </sst>
 </file>
@@ -2464,24 +2467,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -2496,13 +2482,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2790,8 +2769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A576" workbookViewId="0">
-      <selection activeCell="F542" sqref="F542"/>
+    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
+      <selection activeCell="C408" sqref="C408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6352,7 +6331,7 @@
         <v>405</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="D406" s="1" t="s">
         <v>785</v>
@@ -6363,7 +6342,7 @@
         <v>406</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D407" s="1" t="s">
         <v>785</v>
@@ -9858,12 +9837,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2770,7 +2770,7 @@
   <dimension ref="B1:D782"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="C408" sqref="C408"/>
+      <selection activeCell="D410" sqref="D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6375,7 +6375,7 @@
         <v>409</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D410" s="1" t="s">
         <v>785</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2769,8 +2769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="D410" sqref="D410"/>
+    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
+      <selection activeCell="C425" sqref="C425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6485,7 +6485,7 @@
         <v>419</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D420" s="1" t="s">
         <v>785</v>
@@ -6507,7 +6507,7 @@
         <v>421</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D422" s="1" t="s">
         <v>785</v>
@@ -6518,7 +6518,7 @@
         <v>422</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D423" s="1" t="s">
         <v>785</v>
@@ -6529,7 +6529,7 @@
         <v>423</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D424" s="1" t="s">
         <v>785</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2769,8 +2769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
-      <selection activeCell="C425" sqref="C425"/>
+    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
+      <selection activeCell="C487" sqref="C487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6023,7 +6023,7 @@
         <v>377</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>788</v>
@@ -6034,7 +6034,7 @@
         <v>378</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>788</v>
@@ -6045,7 +6045,7 @@
         <v>379</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>788</v>
@@ -6056,7 +6056,7 @@
         <v>380</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>788</v>
@@ -6067,7 +6067,7 @@
         <v>381</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>788</v>
@@ -6078,7 +6078,7 @@
         <v>382</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>788</v>
@@ -6089,7 +6089,7 @@
         <v>383</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>788</v>
@@ -6100,7 +6100,7 @@
         <v>384</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D385" s="1" t="s">
         <v>788</v>
@@ -6111,7 +6111,7 @@
         <v>385</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D386" s="1" t="s">
         <v>788</v>
@@ -6122,7 +6122,7 @@
         <v>386</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D387" s="1" t="s">
         <v>788</v>
@@ -6133,7 +6133,7 @@
         <v>387</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D388" s="1" t="s">
         <v>788</v>
@@ -6144,7 +6144,7 @@
         <v>388</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D389" s="1" t="s">
         <v>788</v>
@@ -6155,7 +6155,7 @@
         <v>389</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D390" s="1" t="s">
         <v>788</v>
@@ -6166,7 +6166,7 @@
         <v>390</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D391" s="1" t="s">
         <v>788</v>
@@ -6177,7 +6177,7 @@
         <v>391</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D392" s="1" t="s">
         <v>788</v>
@@ -6188,7 +6188,7 @@
         <v>392</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D393" s="1" t="s">
         <v>788</v>
@@ -6199,7 +6199,7 @@
         <v>393</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D394" s="1" t="s">
         <v>788</v>
@@ -6210,7 +6210,7 @@
         <v>394</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D395" s="1" t="s">
         <v>788</v>
@@ -6221,7 +6221,7 @@
         <v>395</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>788</v>
@@ -6232,7 +6232,7 @@
         <v>396</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>788</v>
@@ -6243,7 +6243,7 @@
         <v>397</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D398" s="1" t="s">
         <v>788</v>
@@ -6254,7 +6254,7 @@
         <v>398</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D399" s="1" t="s">
         <v>788</v>
@@ -6265,7 +6265,7 @@
         <v>399</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D400" s="1" t="s">
         <v>788</v>
@@ -6276,7 +6276,7 @@
         <v>400</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D401" s="1" t="s">
         <v>788</v>
@@ -6287,7 +6287,7 @@
         <v>401</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="D402" s="1" t="s">
         <v>785</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="793">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2769,8 +2769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="C487" sqref="C487"/>
+    <sheetView tabSelected="1" topLeftCell="A509" workbookViewId="0">
+      <selection activeCell="D511" sqref="D511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7015,6 +7015,9 @@
       <c r="C468" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D468" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="469" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B469" s="1" t="s">
@@ -7023,6 +7026,9 @@
       <c r="C469" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D469" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="470" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B470" s="1" t="s">
@@ -7031,6 +7037,9 @@
       <c r="C470" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D470" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="471" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B471" s="1" t="s">
@@ -7039,6 +7048,9 @@
       <c r="C471" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D471" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="472" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B472" s="1" t="s">
@@ -7047,6 +7059,9 @@
       <c r="C472" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D472" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="473" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B473" s="1" t="s">
@@ -7055,6 +7070,9 @@
       <c r="C473" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D473" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="474" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B474" s="1" t="s">
@@ -7063,6 +7081,9 @@
       <c r="C474" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D474" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="475" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B475" s="1" t="s">
@@ -7071,6 +7092,9 @@
       <c r="C475" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D475" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="476" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B476" s="1" t="s">
@@ -7079,6 +7103,9 @@
       <c r="C476" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D476" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B477" s="1" t="s">
@@ -7087,6 +7114,9 @@
       <c r="C477" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D477" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="478" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B478" s="1" t="s">
@@ -7106,6 +7136,9 @@
       <c r="C479" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D479" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="480" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B480" s="1" t="s">
@@ -7114,6 +7147,9 @@
       <c r="C480" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D480" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="481" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B481" s="1" t="s">
@@ -7171,6 +7207,9 @@
       <c r="C486" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D486" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="487" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B487" s="1" t="s">
@@ -7179,6 +7218,9 @@
       <c r="C487" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D487" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="488" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B488" s="1" t="s">
@@ -7187,6 +7229,9 @@
       <c r="C488" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D488" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="489" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B489" s="1" t="s">
@@ -7195,6 +7240,9 @@
       <c r="C489" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D489" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="490" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B490" s="1" t="s">
@@ -7203,6 +7251,9 @@
       <c r="C490" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D490" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="491" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B491" s="1" t="s">
@@ -7211,6 +7262,9 @@
       <c r="C491" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D491" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="492" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B492" s="1" t="s">
@@ -7219,6 +7273,9 @@
       <c r="C492" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D492" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="493" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B493" s="1" t="s">
@@ -7227,6 +7284,9 @@
       <c r="C493" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D493" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="494" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B494" s="1" t="s">
@@ -7235,6 +7295,9 @@
       <c r="C494" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D494" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="495" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B495" s="1" t="s">
@@ -7243,6 +7306,9 @@
       <c r="C495" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D495" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="496" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B496" s="1" t="s">
@@ -7251,6 +7317,9 @@
       <c r="C496" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D496" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="497" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B497" s="1" t="s">
@@ -7258,6 +7327,9 @@
       </c>
       <c r="C497" s="1" t="s">
         <v>784</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="498" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="794">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2403,6 +2403,9 @@
   </si>
   <si>
     <t>*sim</t>
+  </si>
+  <si>
+    <t>uds</t>
   </si>
 </sst>
 </file>
@@ -2769,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A509" workbookViewId="0">
-      <selection activeCell="D511" sqref="D511"/>
+    <sheetView tabSelected="1" topLeftCell="A521" workbookViewId="0">
+      <selection activeCell="D527" sqref="D527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7585,7 +7588,10 @@
         <v>525</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="527" spans="2:4" x14ac:dyDescent="0.25">
@@ -9635,7 +9641,10 @@
         <v>752</v>
       </c>
       <c r="C753" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
+      </c>
+      <c r="D753" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="754" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BD\traducao-blue-dragon-xbox360\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20940" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="794">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2470,7 +2465,45 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2550,7 +2583,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2585,7 +2618,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2762,7 +2795,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2772,8 +2805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A521" workbookViewId="0">
-      <selection activeCell="D527" sqref="D527"/>
+    <sheetView tabSelected="1" topLeftCell="A525" workbookViewId="0">
+      <selection activeCell="E530" sqref="E530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7601,6 +7634,9 @@
       <c r="C527" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D527" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="528" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B528" s="1" t="s">
@@ -7609,6 +7645,9 @@
       <c r="C528" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D528" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="529" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B529" s="1" t="s">
@@ -7617,6 +7656,9 @@
       <c r="C529" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D529" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="530" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B530" s="1" t="s">
@@ -7625,6 +7667,9 @@
       <c r="C530" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D530" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="531" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B531" s="1" t="s">
@@ -7633,6 +7678,9 @@
       <c r="C531" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D531" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="532" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B532" s="1" t="s">
@@ -7641,6 +7689,9 @@
       <c r="C532" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D532" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="533" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B533" s="1" t="s">
@@ -7649,6 +7700,9 @@
       <c r="C533" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D533" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="534" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B534" s="1" t="s">
@@ -7657,6 +7711,9 @@
       <c r="C534" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D534" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="535" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B535" s="1" t="s">
@@ -7665,6 +7722,9 @@
       <c r="C535" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D535" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="536" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B536" s="1" t="s">
@@ -7684,6 +7744,9 @@
       <c r="C537" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D537" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="538" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B538" s="1" t="s">
@@ -7692,6 +7755,9 @@
       <c r="C538" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D538" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="539" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B539" s="1" t="s">
@@ -7700,6 +7766,9 @@
       <c r="C539" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D539" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="540" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B540" s="1" t="s">
@@ -7708,6 +7777,9 @@
       <c r="C540" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D540" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="541" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B541" s="1" t="s">
@@ -7716,6 +7788,9 @@
       <c r="C541" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D541" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="542" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B542" s="1" t="s">
@@ -7724,6 +7799,9 @@
       <c r="C542" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D542" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="543" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B543" s="1" t="s">
@@ -7732,6 +7810,9 @@
       <c r="C543" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D543" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="544" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B544" s="1" t="s">
@@ -7740,6 +7821,9 @@
       <c r="C544" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D544" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="545" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B545" s="1" t="s">
@@ -7748,6 +7832,9 @@
       <c r="C545" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D545" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="546" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B546" s="1" t="s">
@@ -7756,6 +7843,9 @@
       <c r="C546" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D546" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="547" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B547" s="1" t="s">
@@ -7764,6 +7854,9 @@
       <c r="C547" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D547" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="548" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B548" s="1" t="s">
@@ -7772,6 +7865,9 @@
       <c r="C548" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D548" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="549" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B549" s="1" t="s">
@@ -7780,6 +7876,9 @@
       <c r="C549" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D549" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="550" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B550" s="1" t="s">
@@ -7788,6 +7887,9 @@
       <c r="C550" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D550" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="551" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B551" s="1" t="s">
@@ -7796,6 +7898,9 @@
       <c r="C551" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D551" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="552" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B552" s="1" t="s">
@@ -7804,6 +7909,9 @@
       <c r="C552" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D552" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="553" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B553" s="1" t="s">
@@ -7812,6 +7920,9 @@
       <c r="C553" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D553" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="554" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B554" s="1" t="s">
@@ -7820,6 +7931,9 @@
       <c r="C554" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D554" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="555" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B555" s="1" t="s">
@@ -7828,6 +7942,9 @@
       <c r="C555" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D555" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="556" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B556" s="1" t="s">
@@ -7836,6 +7953,9 @@
       <c r="C556" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D556" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="557" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B557" s="1" t="s">
@@ -7844,6 +7964,9 @@
       <c r="C557" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D557" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="558" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B558" s="1" t="s">
@@ -8268,7 +8391,7 @@
         <v>595</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D596" s="1" t="s">
         <v>790</v>
@@ -8279,7 +8402,7 @@
         <v>596</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D597" s="1" t="s">
         <v>790</v>
@@ -8290,7 +8413,7 @@
         <v>597</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D598" s="1" t="s">
         <v>790</v>
@@ -8301,7 +8424,7 @@
         <v>598</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D599" s="1" t="s">
         <v>790</v>
@@ -8312,7 +8435,7 @@
         <v>599</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D600" s="1" t="s">
         <v>790</v>
@@ -8323,7 +8446,7 @@
         <v>600</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D601" s="1" t="s">
         <v>790</v>
@@ -8334,7 +8457,7 @@
         <v>601</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D602" s="1" t="s">
         <v>790</v>
@@ -8345,7 +8468,7 @@
         <v>602</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D603" s="1" t="s">
         <v>790</v>
@@ -8356,7 +8479,7 @@
         <v>603</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D604" s="1" t="s">
         <v>790</v>
@@ -8367,7 +8490,7 @@
         <v>604</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D605" s="1" t="s">
         <v>790</v>
@@ -8378,7 +8501,7 @@
         <v>605</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D606" s="1" t="s">
         <v>790</v>
@@ -9918,12 +10041,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BD\traducao-blue-dragon-xbox360\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -2465,45 +2470,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -2795,7 +2762,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2805,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A525" workbookViewId="0">
-      <selection activeCell="E530" sqref="E530"/>
+    <sheetView tabSelected="1" topLeftCell="A650" workbookViewId="0">
+      <selection activeCell="D672" sqref="D672"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5432,7 +5399,7 @@
         <v>320</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>785</v>
@@ -5465,7 +5432,7 @@
         <v>323</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>785</v>
@@ -5487,7 +5454,7 @@
         <v>325</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>785</v>
@@ -5498,7 +5465,7 @@
         <v>326</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>785</v>
@@ -5542,7 +5509,7 @@
         <v>330</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>785</v>
@@ -5608,7 +5575,7 @@
         <v>336</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>785</v>
@@ -10041,12 +10008,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A650" workbookViewId="0">
-      <selection activeCell="D672" sqref="D672"/>
+    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
+      <selection activeCell="C419" sqref="C419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6466,7 +6466,7 @@
         <v>417</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="D418" s="1" t="s">
         <v>785</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419"/>
+    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="C415" sqref="C415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6411,7 +6411,7 @@
         <v>412</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D413" s="1" t="s">
         <v>785</v>
@@ -6422,7 +6422,7 @@
         <v>413</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D414" s="1" t="s">
         <v>785</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="C415" sqref="C415"/>
+    <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
+      <selection activeCell="C448" sqref="C448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6774,7 +6774,7 @@
         <v>445</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D446" s="1" t="s">
         <v>785</v>
@@ -6785,7 +6785,7 @@
         <v>446</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D447" s="1" t="s">
         <v>785</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2773,7 +2773,7 @@
   <dimension ref="B1:D782"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
-      <selection activeCell="C448" sqref="C448"/>
+      <selection activeCell="C449" sqref="C449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6796,7 +6796,7 @@
         <v>447</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D448" s="1" t="s">
         <v>785</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="794">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
-      <selection activeCell="C449" sqref="C449"/>
+    <sheetView tabSelected="1" topLeftCell="A609" workbookViewId="0">
+      <selection activeCell="D618" sqref="D618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8534,7 +8534,10 @@
         <v>611</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>784</v>
+        <v>787</v>
+      </c>
+      <c r="D612" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="613" spans="2:4" x14ac:dyDescent="0.25">
@@ -8582,7 +8585,7 @@
         <v>617</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="D618" s="1" t="s">
         <v>785</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BD\traducao-blue-dragon-xbox360\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="794">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2470,7 +2465,76 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2762,7 +2826,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2772,8 +2836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A609" workbookViewId="0">
-      <selection activeCell="D618" sqref="D618"/>
+    <sheetView tabSelected="1" topLeftCell="A494" workbookViewId="0">
+      <selection activeCell="D503" sqref="D503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7353,6 +7417,9 @@
       <c r="C499" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D499" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="500" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B500" s="1" t="s">
@@ -7394,6 +7461,9 @@
       <c r="C503" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D503" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="504" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B504" s="1" t="s">
@@ -7413,6 +7483,9 @@
       <c r="C505" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D505" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="506" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B506" s="1" t="s">
@@ -7421,6 +7494,9 @@
       <c r="C506" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D506" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="507" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B507" s="1" t="s">
@@ -7429,6 +7505,9 @@
       <c r="C507" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D507" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="508" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B508" s="1" t="s">
@@ -7437,6 +7516,9 @@
       <c r="C508" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D508" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="509" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B509" s="1" t="s">
@@ -7467,6 +7549,9 @@
       <c r="C511" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D511" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="512" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B512" s="1" t="s">
@@ -7475,6 +7560,9 @@
       <c r="C512" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D512" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="513" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B513" s="1" t="s">
@@ -7483,6 +7571,9 @@
       <c r="C513" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D513" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="514" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B514" s="1" t="s">
@@ -7491,6 +7582,9 @@
       <c r="C514" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D514" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="515" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B515" s="1" t="s">
@@ -7499,6 +7593,9 @@
       <c r="C515" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D515" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="516" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B516" s="1" t="s">
@@ -7507,6 +7604,9 @@
       <c r="C516" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D516" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="517" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B517" s="1" t="s">
@@ -7515,6 +7615,9 @@
       <c r="C517" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D517" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="518" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B518" s="1" t="s">
@@ -7523,6 +7626,9 @@
       <c r="C518" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D518" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="519" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B519" s="1" t="s">
@@ -7531,6 +7637,9 @@
       <c r="C519" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D519" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="520" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B520" s="1" t="s">
@@ -7539,6 +7648,9 @@
       <c r="C520" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D520" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="521" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B521" s="1" t="s">
@@ -7547,6 +7659,9 @@
       <c r="C521" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D521" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="522" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B522" s="1" t="s">
@@ -7555,6 +7670,9 @@
       <c r="C522" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D522" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="523" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B523" s="1" t="s">
@@ -7574,6 +7692,9 @@
       <c r="C524" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D524" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="525" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B525" s="1" t="s">
@@ -7582,6 +7703,9 @@
       <c r="C525" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D525" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="526" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B526" s="1" t="s">
@@ -7599,7 +7723,7 @@
         <v>526</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D527" s="1" t="s">
         <v>790</v>
@@ -7610,7 +7734,7 @@
         <v>527</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D528" s="1" t="s">
         <v>790</v>
@@ -7621,7 +7745,7 @@
         <v>528</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D529" s="1" t="s">
         <v>790</v>
@@ -7632,7 +7756,7 @@
         <v>529</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D530" s="1" t="s">
         <v>790</v>
@@ -7643,7 +7767,7 @@
         <v>530</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D531" s="1" t="s">
         <v>790</v>
@@ -7654,7 +7778,7 @@
         <v>531</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D532" s="1" t="s">
         <v>790</v>
@@ -7665,7 +7789,7 @@
         <v>532</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D533" s="1" t="s">
         <v>790</v>
@@ -7676,7 +7800,7 @@
         <v>533</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D534" s="1" t="s">
         <v>790</v>
@@ -7687,7 +7811,7 @@
         <v>534</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D535" s="1" t="s">
         <v>790</v>
@@ -7709,7 +7833,7 @@
         <v>536</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D537" s="1" t="s">
         <v>790</v>
@@ -7720,7 +7844,7 @@
         <v>537</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D538" s="1" t="s">
         <v>790</v>
@@ -7731,7 +7855,7 @@
         <v>538</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D539" s="1" t="s">
         <v>790</v>
@@ -7742,7 +7866,7 @@
         <v>539</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D540" s="1" t="s">
         <v>790</v>
@@ -7753,7 +7877,7 @@
         <v>540</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D541" s="1" t="s">
         <v>790</v>
@@ -7764,7 +7888,7 @@
         <v>541</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D542" s="1" t="s">
         <v>790</v>
@@ -7775,7 +7899,7 @@
         <v>542</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D543" s="1" t="s">
         <v>790</v>
@@ -7786,7 +7910,7 @@
         <v>543</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D544" s="1" t="s">
         <v>790</v>
@@ -7797,7 +7921,7 @@
         <v>544</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D545" s="1" t="s">
         <v>790</v>
@@ -7808,7 +7932,7 @@
         <v>545</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D546" s="1" t="s">
         <v>790</v>
@@ -7819,7 +7943,7 @@
         <v>546</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D547" s="1" t="s">
         <v>790</v>
@@ -7830,7 +7954,7 @@
         <v>547</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D548" s="1" t="s">
         <v>790</v>
@@ -7841,7 +7965,7 @@
         <v>548</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D549" s="1" t="s">
         <v>790</v>
@@ -7852,7 +7976,7 @@
         <v>549</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D550" s="1" t="s">
         <v>790</v>
@@ -7863,7 +7987,7 @@
         <v>550</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D551" s="1" t="s">
         <v>790</v>
@@ -7874,7 +7998,7 @@
         <v>551</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D552" s="1" t="s">
         <v>790</v>
@@ -7885,7 +8009,7 @@
         <v>552</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D553" s="1" t="s">
         <v>790</v>
@@ -7896,7 +8020,7 @@
         <v>553</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D554" s="1" t="s">
         <v>790</v>
@@ -7907,7 +8031,7 @@
         <v>554</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D555" s="1" t="s">
         <v>790</v>
@@ -7918,7 +8042,7 @@
         <v>555</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D556" s="1" t="s">
         <v>790</v>
@@ -7929,7 +8053,7 @@
         <v>556</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D557" s="1" t="s">
         <v>790</v>
@@ -10011,12 +10135,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\danger\traducoes\blue-dragon\traducao-blue-dragon-xbox360\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="794">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2465,7 +2470,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -2474,6 +2479,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
@@ -2481,6 +2489,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
@@ -2488,27 +2499,9 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
@@ -2826,7 +2819,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2836,8 +2829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="D503" sqref="D503"/>
+    <sheetView tabSelected="1" topLeftCell="A737" workbookViewId="0">
+      <selection activeCell="D743" sqref="D743:D751"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7415,7 +7408,7 @@
         <v>498</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="D499" s="1" t="s">
         <v>790</v>
@@ -7459,7 +7452,7 @@
         <v>502</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D503" s="1" t="s">
         <v>790</v>
@@ -7481,7 +7474,7 @@
         <v>504</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D505" s="1" t="s">
         <v>790</v>
@@ -7492,7 +7485,7 @@
         <v>505</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D506" s="1" t="s">
         <v>790</v>
@@ -7503,7 +7496,7 @@
         <v>506</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D507" s="1" t="s">
         <v>790</v>
@@ -7514,7 +7507,7 @@
         <v>507</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D508" s="1" t="s">
         <v>790</v>
@@ -7547,7 +7540,7 @@
         <v>510</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D511" s="1" t="s">
         <v>790</v>
@@ -7558,7 +7551,7 @@
         <v>511</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D512" s="1" t="s">
         <v>790</v>
@@ -7569,7 +7562,7 @@
         <v>512</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D513" s="1" t="s">
         <v>790</v>
@@ -7580,7 +7573,7 @@
         <v>513</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D514" s="1" t="s">
         <v>790</v>
@@ -7591,7 +7584,7 @@
         <v>514</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D515" s="1" t="s">
         <v>790</v>
@@ -7602,7 +7595,7 @@
         <v>515</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D516" s="1" t="s">
         <v>790</v>
@@ -7613,7 +7606,7 @@
         <v>516</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D517" s="1" t="s">
         <v>790</v>
@@ -7624,7 +7617,7 @@
         <v>517</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D518" s="1" t="s">
         <v>790</v>
@@ -7635,7 +7628,7 @@
         <v>518</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D519" s="1" t="s">
         <v>790</v>
@@ -7646,7 +7639,7 @@
         <v>519</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D520" s="1" t="s">
         <v>790</v>
@@ -7657,7 +7650,7 @@
         <v>520</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D521" s="1" t="s">
         <v>790</v>
@@ -7668,7 +7661,7 @@
         <v>521</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D522" s="1" t="s">
         <v>790</v>
@@ -7690,7 +7683,7 @@
         <v>523</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D524" s="1" t="s">
         <v>790</v>
@@ -7701,7 +7694,7 @@
         <v>524</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D525" s="1" t="s">
         <v>790</v>
@@ -9777,6 +9770,9 @@
       <c r="C743" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D743" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="744" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B744" s="1" t="s">
@@ -9785,6 +9781,9 @@
       <c r="C744" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D744" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="745" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B745" s="1" t="s">
@@ -9793,6 +9792,9 @@
       <c r="C745" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D745" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="746" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B746" s="1" t="s">
@@ -9801,6 +9803,9 @@
       <c r="C746" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D746" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="747" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B747" s="1" t="s">
@@ -9809,6 +9814,9 @@
       <c r="C747" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D747" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="748" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B748" s="1" t="s">
@@ -9817,6 +9825,9 @@
       <c r="C748" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D748" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="749" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B749" s="1" t="s">
@@ -9825,6 +9836,9 @@
       <c r="C749" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D749" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="750" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B750" s="1" t="s">
@@ -9833,6 +9847,9 @@
       <c r="C750" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D750" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="751" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B751" s="1" t="s">
@@ -9841,6 +9858,9 @@
       <c r="C751" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D751" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="752" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B752" s="1" t="s">
@@ -9870,6 +9890,9 @@
       </c>
       <c r="C754" s="1" t="s">
         <v>784</v>
+      </c>
+      <c r="D754" s="1" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="755" spans="2:4" x14ac:dyDescent="0.25">
@@ -10135,12 +10158,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\danger\traducoes\blue-dragon\traducao-blue-dragon-xbox360\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BD\traducao-blue-dragon-xbox360\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="794">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2470,64 +2470,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -2829,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A737" workbookViewId="0">
-      <selection activeCell="D743" sqref="D743:D751"/>
+    <sheetView tabSelected="1" topLeftCell="A618" workbookViewId="0">
+      <selection activeCell="D627" sqref="D627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8726,6 +8669,9 @@
       <c r="C620" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D620" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="621" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B621" s="1" t="s">
@@ -8734,6 +8680,9 @@
       <c r="C621" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D621" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="622" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B622" s="1" t="s">
@@ -8742,6 +8691,9 @@
       <c r="C622" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D622" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="623" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B623" s="1" t="s">
@@ -8750,6 +8702,9 @@
       <c r="C623" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D623" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="624" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B624" s="1" t="s">
@@ -8758,6 +8713,9 @@
       <c r="C624" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D624" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="625" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B625" s="1" t="s">
@@ -8777,6 +8735,9 @@
       <c r="C626" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D626" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="627" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B627" s="1" t="s">
@@ -8784,6 +8745,9 @@
       </c>
       <c r="C627" s="1" t="s">
         <v>784</v>
+      </c>
+      <c r="D627" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="628" spans="2:4" x14ac:dyDescent="0.25">
@@ -10158,12 +10122,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A618" workbookViewId="0">
-      <selection activeCell="D627" sqref="D627"/>
+    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="D408" sqref="D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6356,7 +6356,7 @@
         <v>407</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D408" s="1" t="s">
         <v>785</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="794">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="D408" sqref="D408"/>
+    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
+      <selection activeCell="D485" sqref="D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7183,6 +7183,9 @@
       <c r="C483" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D483" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="484" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B484" s="1" t="s">
@@ -7190,6 +7193,9 @@
       </c>
       <c r="C484" s="1" t="s">
         <v>784</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="485" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
-      <selection activeCell="D485" sqref="D485"/>
+    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
+      <selection activeCell="C412" sqref="C412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6334,7 +6334,7 @@
         <v>405</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="D406" s="1" t="s">
         <v>785</v>
@@ -6367,7 +6367,7 @@
         <v>408</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D409" s="1" t="s">
         <v>785</v>
@@ -6389,7 +6389,7 @@
         <v>410</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D411" s="1" t="s">
         <v>785</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BD\traducao-blue-dragon-xbox360\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\danger\traducoes\blue-dragon\traducao-blue-dragon-xbox360\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="794">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2470,7 +2470,34 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2772,8 +2799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="C412" sqref="C412"/>
+    <sheetView tabSelected="1" topLeftCell="A711" workbookViewId="0">
+      <selection activeCell="B721" sqref="B721"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9551,132 +9578,180 @@
         <v>784</v>
       </c>
     </row>
-    <row r="721" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B721" s="1" t="s">
         <v>720</v>
       </c>
       <c r="C721" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="722" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D721" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="722" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B722" s="1" t="s">
         <v>721</v>
       </c>
       <c r="C722" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="723" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D722" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="723" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B723" s="1" t="s">
         <v>722</v>
       </c>
       <c r="C723" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="724" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D723" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="724" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B724" s="1" t="s">
         <v>723</v>
       </c>
       <c r="C724" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="725" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D724" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="725" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B725" s="1" t="s">
         <v>724</v>
       </c>
       <c r="C725" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="726" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D725" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="726" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B726" s="1" t="s">
         <v>725</v>
       </c>
       <c r="C726" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="727" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D726" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="727" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B727" s="1" t="s">
         <v>726</v>
       </c>
       <c r="C727" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="728" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D727" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="728" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B728" s="1" t="s">
         <v>727</v>
       </c>
       <c r="C728" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="729" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D728" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="729" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B729" s="1" t="s">
         <v>728</v>
       </c>
       <c r="C729" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="730" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D729" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="730" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B730" s="1" t="s">
         <v>729</v>
       </c>
       <c r="C730" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="731" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D730" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="731" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B731" s="1" t="s">
         <v>730</v>
       </c>
       <c r="C731" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="732" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D731" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="732" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B732" s="1" t="s">
         <v>731</v>
       </c>
       <c r="C732" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="733" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D732" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="733" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B733" s="1" t="s">
         <v>732</v>
       </c>
       <c r="C733" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="734" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D733" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="734" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B734" s="1" t="s">
         <v>733</v>
       </c>
       <c r="C734" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="735" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D734" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="735" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B735" s="1" t="s">
         <v>734</v>
       </c>
       <c r="C735" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="736" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D735" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="736" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B736" s="1" t="s">
         <v>735</v>
       </c>
       <c r="C736" s="1" t="s">
         <v>784</v>
+      </c>
+      <c r="D736" s="1" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="737" spans="2:4" x14ac:dyDescent="0.25">
@@ -9686,6 +9761,9 @@
       <c r="C737" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D737" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="738" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B738" s="1" t="s">
@@ -9694,6 +9772,9 @@
       <c r="C738" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D738" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="739" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B739" s="1" t="s">
@@ -9702,6 +9783,9 @@
       <c r="C739" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D739" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="740" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B740" s="1" t="s">
@@ -9710,6 +9794,9 @@
       <c r="C740" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D740" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="741" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B741" s="1" t="s">
@@ -9738,7 +9825,7 @@
         <v>742</v>
       </c>
       <c r="C743" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D743" s="1" t="s">
         <v>790</v>
@@ -9749,7 +9836,7 @@
         <v>743</v>
       </c>
       <c r="C744" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D744" s="1" t="s">
         <v>790</v>
@@ -9760,7 +9847,7 @@
         <v>744</v>
       </c>
       <c r="C745" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D745" s="1" t="s">
         <v>790</v>
@@ -9771,7 +9858,7 @@
         <v>745</v>
       </c>
       <c r="C746" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D746" s="1" t="s">
         <v>790</v>
@@ -9782,7 +9869,7 @@
         <v>746</v>
       </c>
       <c r="C747" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D747" s="1" t="s">
         <v>790</v>
@@ -9793,7 +9880,7 @@
         <v>747</v>
       </c>
       <c r="C748" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D748" s="1" t="s">
         <v>790</v>
@@ -9804,7 +9891,7 @@
         <v>748</v>
       </c>
       <c r="C749" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D749" s="1" t="s">
         <v>790</v>
@@ -9815,7 +9902,7 @@
         <v>749</v>
       </c>
       <c r="C750" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D750" s="1" t="s">
         <v>790</v>
@@ -9826,7 +9913,7 @@
         <v>750</v>
       </c>
       <c r="C751" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D751" s="1" t="s">
         <v>790</v>
@@ -9859,7 +9946,7 @@
         <v>753</v>
       </c>
       <c r="C754" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D754" s="1" t="s">
         <v>790</v>
@@ -10128,12 +10215,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\danger\traducoes\blue-dragon\traducao-blue-dragon-xbox360\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BD\traducao-blue-dragon-xbox360\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2470,34 +2470,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -2799,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A711" workbookViewId="0">
-      <selection activeCell="B721" sqref="B721"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="C420" sqref="C420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6427,7 +6400,7 @@
         <v>411</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D412" s="1" t="s">
         <v>785</v>
@@ -6504,7 +6477,7 @@
         <v>418</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D419" s="1" t="s">
         <v>785</v>
@@ -10215,12 +10188,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="C420" sqref="C420"/>
+    <sheetView tabSelected="1" topLeftCell="A670" workbookViewId="0">
+      <selection activeCell="C692" sqref="C692"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6565,7 +6565,7 @@
         <v>426</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D427" s="1" t="s">
         <v>788</v>
@@ -6576,7 +6576,7 @@
         <v>427</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D428" s="1" t="s">
         <v>788</v>
@@ -6587,7 +6587,7 @@
         <v>428</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>788</v>
@@ -6598,7 +6598,7 @@
         <v>429</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D430" s="1" t="s">
         <v>788</v>
@@ -6609,7 +6609,7 @@
         <v>430</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D431" s="1" t="s">
         <v>788</v>
@@ -6620,7 +6620,7 @@
         <v>431</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D432" s="1" t="s">
         <v>788</v>
@@ -6642,7 +6642,7 @@
         <v>433</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>788</v>
@@ -6653,7 +6653,7 @@
         <v>434</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D435" s="1" t="s">
         <v>788</v>
@@ -6664,7 +6664,7 @@
         <v>435</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D436" s="1" t="s">
         <v>788</v>
@@ -6675,7 +6675,7 @@
         <v>436</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D437" s="1" t="s">
         <v>788</v>
@@ -6697,7 +6697,7 @@
         <v>438</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D439" s="1" t="s">
         <v>788</v>
@@ -6708,7 +6708,7 @@
         <v>439</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D440" s="1" t="s">
         <v>788</v>
@@ -6719,7 +6719,7 @@
         <v>440</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D441" s="1" t="s">
         <v>788</v>
@@ -6730,7 +6730,7 @@
         <v>441</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D442" s="1" t="s">
         <v>788</v>
@@ -6741,7 +6741,7 @@
         <v>442</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D443" s="1" t="s">
         <v>788</v>
@@ -6763,7 +6763,7 @@
         <v>444</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D445" s="1" t="s">
         <v>788</v>
@@ -7016,7 +7016,7 @@
         <v>467</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="D468" s="1" t="s">
         <v>788</v>
@@ -7027,7 +7027,7 @@
         <v>468</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D469" s="1" t="s">
         <v>788</v>
@@ -7038,7 +7038,7 @@
         <v>469</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D470" s="1" t="s">
         <v>788</v>
@@ -7049,7 +7049,7 @@
         <v>470</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D471" s="1" t="s">
         <v>788</v>
@@ -7060,7 +7060,7 @@
         <v>471</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>788</v>
@@ -7071,7 +7071,7 @@
         <v>472</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D473" s="1" t="s">
         <v>788</v>
@@ -7082,7 +7082,7 @@
         <v>473</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D474" s="1" t="s">
         <v>788</v>
@@ -7093,7 +7093,7 @@
         <v>474</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D475" s="1" t="s">
         <v>788</v>
@@ -7104,7 +7104,7 @@
         <v>475</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D476" s="1" t="s">
         <v>788</v>
@@ -7115,7 +7115,7 @@
         <v>476</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D477" s="1" t="s">
         <v>788</v>
@@ -7137,7 +7137,7 @@
         <v>478</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D479" s="1" t="s">
         <v>788</v>
@@ -7148,7 +7148,7 @@
         <v>479</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D480" s="1" t="s">
         <v>788</v>
@@ -7214,7 +7214,7 @@
         <v>485</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D486" s="1" t="s">
         <v>788</v>
@@ -7225,7 +7225,7 @@
         <v>486</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D487" s="1" t="s">
         <v>788</v>
@@ -7236,7 +7236,7 @@
         <v>487</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D488" s="1" t="s">
         <v>788</v>
@@ -7247,7 +7247,7 @@
         <v>488</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D489" s="1" t="s">
         <v>788</v>
@@ -7258,7 +7258,7 @@
         <v>489</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D490" s="1" t="s">
         <v>788</v>
@@ -7269,7 +7269,7 @@
         <v>490</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D491" s="1" t="s">
         <v>788</v>
@@ -7280,7 +7280,7 @@
         <v>491</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D492" s="1" t="s">
         <v>788</v>
@@ -7291,7 +7291,7 @@
         <v>492</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D493" s="1" t="s">
         <v>788</v>
@@ -7302,7 +7302,7 @@
         <v>493</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D494" s="1" t="s">
         <v>788</v>
@@ -7313,7 +7313,7 @@
         <v>494</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D495" s="1" t="s">
         <v>788</v>
@@ -7324,7 +7324,7 @@
         <v>495</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D496" s="1" t="s">
         <v>788</v>
@@ -7335,7 +7335,7 @@
         <v>496</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D497" s="1" t="s">
         <v>788</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="794">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A670" workbookViewId="0">
-      <selection activeCell="C692" sqref="C692"/>
+    <sheetView tabSelected="1" topLeftCell="A701" workbookViewId="0">
+      <selection activeCell="D718" sqref="D718"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9423,119 +9423,161 @@
         <v>785</v>
       </c>
     </row>
-    <row r="705" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B705" s="1" t="s">
         <v>704</v>
       </c>
       <c r="C705" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="706" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D705" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="706" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B706" s="1" t="s">
         <v>705</v>
       </c>
       <c r="C706" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="707" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D706" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="707" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B707" s="1" t="s">
         <v>706</v>
       </c>
       <c r="C707" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="708" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D707" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="708" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B708" s="1" t="s">
         <v>707</v>
       </c>
       <c r="C708" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="709" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D708" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="709" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B709" s="1" t="s">
         <v>708</v>
       </c>
       <c r="C709" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="710" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D709" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="710" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B710" s="1" t="s">
         <v>709</v>
       </c>
       <c r="C710" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="711" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D710" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="711" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B711" s="1" t="s">
         <v>710</v>
       </c>
       <c r="C711" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="712" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D711" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="712" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B712" s="1" t="s">
         <v>711</v>
       </c>
       <c r="C712" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="713" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D712" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="713" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B713" s="1" t="s">
         <v>712</v>
       </c>
       <c r="C713" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="714" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D713" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="714" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B714" s="1" t="s">
         <v>713</v>
       </c>
       <c r="C714" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="715" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D714" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="715" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B715" s="1" t="s">
         <v>714</v>
       </c>
       <c r="C715" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="716" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D715" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="716" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B716" s="1" t="s">
         <v>715</v>
       </c>
       <c r="C716" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="717" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D716" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="717" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B717" s="1" t="s">
         <v>716</v>
       </c>
       <c r="C717" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="718" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D717" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="718" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B718" s="1" t="s">
         <v>717</v>
       </c>
       <c r="C718" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="719" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D718" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="719" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B719" s="1" t="s">
         <v>718</v>
       </c>
@@ -9543,7 +9585,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="720" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B720" s="1" t="s">
         <v>719</v>
       </c>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A701" workbookViewId="0">
-      <selection activeCell="D718" sqref="D718"/>
+    <sheetView tabSelected="1" topLeftCell="A602" workbookViewId="0">
+      <selection activeCell="C624" sqref="C624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6554,7 +6554,7 @@
         <v>425</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D426" s="1" t="s">
         <v>785</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BD\traducao-blue-dragon-xbox360\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\danger\traducoes\blue-dragon\traducao-blue-dragon-xbox360\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2470,7 +2470,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2772,8 +2782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A602" workbookViewId="0">
-      <selection activeCell="C624" sqref="C624"/>
+    <sheetView tabSelected="1" topLeftCell="A680" workbookViewId="0">
+      <selection activeCell="C741" sqref="C721:C741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9598,7 +9608,7 @@
         <v>720</v>
       </c>
       <c r="C721" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D721" s="1" t="s">
         <v>790</v>
@@ -9609,7 +9619,7 @@
         <v>721</v>
       </c>
       <c r="C722" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D722" s="1" t="s">
         <v>790</v>
@@ -9620,7 +9630,7 @@
         <v>722</v>
       </c>
       <c r="C723" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D723" s="1" t="s">
         <v>790</v>
@@ -9631,7 +9641,7 @@
         <v>723</v>
       </c>
       <c r="C724" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D724" s="1" t="s">
         <v>790</v>
@@ -9642,7 +9652,7 @@
         <v>724</v>
       </c>
       <c r="C725" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D725" s="1" t="s">
         <v>790</v>
@@ -9653,7 +9663,7 @@
         <v>725</v>
       </c>
       <c r="C726" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D726" s="1" t="s">
         <v>790</v>
@@ -9664,7 +9674,7 @@
         <v>726</v>
       </c>
       <c r="C727" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D727" s="1" t="s">
         <v>790</v>
@@ -9675,7 +9685,7 @@
         <v>727</v>
       </c>
       <c r="C728" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D728" s="1" t="s">
         <v>790</v>
@@ -9686,7 +9696,7 @@
         <v>728</v>
       </c>
       <c r="C729" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D729" s="1" t="s">
         <v>790</v>
@@ -9697,7 +9707,7 @@
         <v>729</v>
       </c>
       <c r="C730" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D730" s="1" t="s">
         <v>790</v>
@@ -9708,7 +9718,7 @@
         <v>730</v>
       </c>
       <c r="C731" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D731" s="1" t="s">
         <v>790</v>
@@ -9719,7 +9729,7 @@
         <v>731</v>
       </c>
       <c r="C732" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D732" s="1" t="s">
         <v>790</v>
@@ -9730,7 +9740,7 @@
         <v>732</v>
       </c>
       <c r="C733" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D733" s="1" t="s">
         <v>790</v>
@@ -9741,7 +9751,7 @@
         <v>733</v>
       </c>
       <c r="C734" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D734" s="1" t="s">
         <v>790</v>
@@ -9752,7 +9762,7 @@
         <v>734</v>
       </c>
       <c r="C735" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D735" s="1" t="s">
         <v>790</v>
@@ -9763,7 +9773,7 @@
         <v>735</v>
       </c>
       <c r="C736" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D736" s="1" t="s">
         <v>790</v>
@@ -9774,7 +9784,7 @@
         <v>736</v>
       </c>
       <c r="C737" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D737" s="1" t="s">
         <v>790</v>
@@ -9785,7 +9795,7 @@
         <v>737</v>
       </c>
       <c r="C738" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D738" s="1" t="s">
         <v>790</v>
@@ -9796,7 +9806,7 @@
         <v>738</v>
       </c>
       <c r="C739" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D739" s="1" t="s">
         <v>790</v>
@@ -9807,7 +9817,7 @@
         <v>739</v>
       </c>
       <c r="C740" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D740" s="1" t="s">
         <v>790</v>
@@ -10230,12 +10240,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="794">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2470,11 +2470,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
@@ -2782,8 +2786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A680" workbookViewId="0">
-      <selection activeCell="C741" sqref="C721:C741"/>
+    <sheetView tabSelected="1" topLeftCell="A581" workbookViewId="0">
+      <selection activeCell="D665" sqref="D665:D692"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9084,6 +9088,9 @@
       <c r="C665" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D665" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="666" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B666" s="1" t="s">
@@ -9092,6 +9099,9 @@
       <c r="C666" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D666" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="667" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B667" s="1" t="s">
@@ -9100,6 +9110,9 @@
       <c r="C667" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D667" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="668" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B668" s="1" t="s">
@@ -9108,6 +9121,9 @@
       <c r="C668" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D668" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="669" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B669" s="1" t="s">
@@ -9116,6 +9132,9 @@
       <c r="C669" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D669" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="670" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B670" s="1" t="s">
@@ -9124,6 +9143,9 @@
       <c r="C670" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D670" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="671" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B671" s="1" t="s">
@@ -9132,6 +9154,9 @@
       <c r="C671" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D671" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="672" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B672" s="1" t="s">
@@ -9140,133 +9165,184 @@
       <c r="C672" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="673" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D672" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="673" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B673" s="1" t="s">
         <v>672</v>
       </c>
       <c r="C673" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="674" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D673" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="674" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B674" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C674" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="675" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D674" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="675" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B675" s="1" t="s">
         <v>674</v>
       </c>
       <c r="C675" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="676" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D675" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="676" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B676" s="1" t="s">
         <v>675</v>
       </c>
       <c r="C676" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="677" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D676" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="677" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B677" s="1" t="s">
         <v>676</v>
       </c>
       <c r="C677" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="678" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D677" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="678" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B678" s="1" t="s">
         <v>677</v>
       </c>
       <c r="C678" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="679" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D678" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="679" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B679" s="1" t="s">
         <v>678</v>
       </c>
       <c r="C679" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="680" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D679" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="680" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B680" s="1" t="s">
         <v>679</v>
       </c>
       <c r="C680" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="681" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D680" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="681" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B681" s="1" t="s">
         <v>680</v>
       </c>
       <c r="C681" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="682" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D681" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="682" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B682" s="1" t="s">
         <v>681</v>
       </c>
       <c r="C682" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="683" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D682" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="683" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B683" s="1" t="s">
         <v>682</v>
       </c>
       <c r="C683" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="684" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D683" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="684" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B684" s="1" t="s">
         <v>683</v>
       </c>
       <c r="C684" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="685" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D684" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="685" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B685" s="1" t="s">
         <v>684</v>
       </c>
       <c r="C685" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="686" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D685" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="686" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B686" s="1" t="s">
         <v>685</v>
       </c>
       <c r="C686" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="687" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D686" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="687" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B687" s="1" t="s">
         <v>686</v>
       </c>
       <c r="C687" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="688" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D687" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="688" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B688" s="1" t="s">
         <v>687</v>
       </c>
       <c r="C688" s="1" t="s">
         <v>784</v>
+      </c>
+      <c r="D688" s="1" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="689" spans="2:4" x14ac:dyDescent="0.25">
@@ -9276,6 +9352,9 @@
       <c r="C689" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D689" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="690" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B690" s="1" t="s">
@@ -9284,6 +9363,9 @@
       <c r="C690" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D690" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="691" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B691" s="1" t="s">
@@ -9292,6 +9374,9 @@
       <c r="C691" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D691" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="692" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B692" s="1" t="s">
@@ -9300,6 +9385,9 @@
       <c r="C692" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D692" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="693" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B693" s="1" t="s">
@@ -9594,6 +9682,9 @@
       <c r="C719" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D719" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="720" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B720" s="1" t="s">
@@ -9601,6 +9692,9 @@
       </c>
       <c r="C720" s="1" t="s">
         <v>784</v>
+      </c>
+      <c r="D720" s="1" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="721" spans="2:4" x14ac:dyDescent="0.25">
@@ -10240,12 +10334,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\danger\traducoes\blue-dragon\traducao-blue-dragon-xbox360\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BD\traducao-blue-dragon-xbox360\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2470,21 +2470,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -2786,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A581" workbookViewId="0">
-      <selection activeCell="D665" sqref="D665:D692"/>
+    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
+      <selection activeCell="C453" sqref="C453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6832,7 +6818,7 @@
         <v>449</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D450" s="1" t="s">
         <v>785</v>
@@ -6854,7 +6840,7 @@
         <v>451</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="D452" s="1" t="s">
         <v>785</v>
@@ -10334,12 +10320,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
-      <selection activeCell="C453" sqref="C453"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C610" sqref="C610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6807,7 +6807,7 @@
         <v>448</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D449" s="1" t="s">
         <v>785</v>
@@ -8545,7 +8545,7 @@
         <v>606</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D607" s="1" t="s">
         <v>785</v>
@@ -8556,7 +8556,7 @@
         <v>607</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D608" s="1" t="s">
         <v>785</v>
@@ -8567,7 +8567,7 @@
         <v>608</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D609" s="1" t="s">
         <v>785</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C610" sqref="C610"/>
+    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="C485" sqref="C485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7181,7 +7181,7 @@
         <v>482</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D483" s="1" t="s">
         <v>785</v>
@@ -7192,7 +7192,7 @@
         <v>483</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D484" s="1" t="s">
         <v>785</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="C485" sqref="C485"/>
+    <sheetView tabSelected="1" topLeftCell="A615" workbookViewId="0">
+      <selection activeCell="C621" sqref="C621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8673,7 +8673,7 @@
         <v>619</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D620" s="1" t="s">
         <v>785</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2773,7 +2773,7 @@
   <dimension ref="B1:D782"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A615" workbookViewId="0">
-      <selection activeCell="C621" sqref="C621"/>
+      <selection activeCell="C626" sqref="C626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8728,7 +8728,7 @@
         <v>624</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D625" s="1" t="s">
         <v>785</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="794">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A615" workbookViewId="0">
-      <selection activeCell="C626" sqref="C626"/>
+    <sheetView tabSelected="1" topLeftCell="A766" workbookViewId="0">
+      <selection activeCell="D782" sqref="D782"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10258,6 +10258,9 @@
       <c r="C777" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D777" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="778" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B778" s="1" t="s">
@@ -10288,6 +10291,9 @@
       <c r="C780" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D780" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="781" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B781" s="1" t="s">
@@ -10295,6 +10301,9 @@
       </c>
       <c r="C781" s="1" t="s">
         <v>784</v>
+      </c>
+      <c r="D781" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="782" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="794">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A766" workbookViewId="0">
-      <selection activeCell="D782" sqref="D782"/>
+    <sheetView tabSelected="1" topLeftCell="A625" workbookViewId="0">
+      <selection activeCell="D629" sqref="D629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8763,6 +8763,9 @@
       <c r="C628" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D628" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="629" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B629" s="1" t="s">
@@ -9512,7 +9515,7 @@
         <v>704</v>
       </c>
       <c r="C705" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D705" s="1" t="s">
         <v>788</v>
@@ -9523,7 +9526,7 @@
         <v>705</v>
       </c>
       <c r="C706" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D706" s="1" t="s">
         <v>788</v>
@@ -9534,7 +9537,7 @@
         <v>706</v>
       </c>
       <c r="C707" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D707" s="1" t="s">
         <v>788</v>
@@ -9545,7 +9548,7 @@
         <v>707</v>
       </c>
       <c r="C708" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D708" s="1" t="s">
         <v>788</v>
@@ -9556,7 +9559,7 @@
         <v>708</v>
       </c>
       <c r="C709" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D709" s="1" t="s">
         <v>788</v>
@@ -9567,7 +9570,7 @@
         <v>709</v>
       </c>
       <c r="C710" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D710" s="1" t="s">
         <v>788</v>
@@ -9578,7 +9581,7 @@
         <v>710</v>
       </c>
       <c r="C711" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D711" s="1" t="s">
         <v>788</v>
@@ -9589,7 +9592,7 @@
         <v>711</v>
       </c>
       <c r="C712" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D712" s="1" t="s">
         <v>788</v>
@@ -9600,7 +9603,7 @@
         <v>712</v>
       </c>
       <c r="C713" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D713" s="1" t="s">
         <v>788</v>
@@ -9611,7 +9614,7 @@
         <v>713</v>
       </c>
       <c r="C714" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D714" s="1" t="s">
         <v>788</v>
@@ -9622,7 +9625,7 @@
         <v>714</v>
       </c>
       <c r="C715" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D715" s="1" t="s">
         <v>788</v>
@@ -9633,7 +9636,7 @@
         <v>715</v>
       </c>
       <c r="C716" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D716" s="1" t="s">
         <v>788</v>
@@ -9644,7 +9647,7 @@
         <v>716</v>
       </c>
       <c r="C717" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D717" s="1" t="s">
         <v>788</v>
@@ -9655,7 +9658,7 @@
         <v>717</v>
       </c>
       <c r="C718" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D718" s="1" t="s">
         <v>788</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BD\traducao-blue-dragon-xbox360\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\danger\traducoes\traducao-blue-dragon-xbox360\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="794">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2470,7 +2470,51 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2772,8 +2816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A625" workbookViewId="0">
-      <selection activeCell="D629" sqref="D629"/>
+    <sheetView tabSelected="1" topLeftCell="A679" workbookViewId="0">
+      <selection activeCell="C665" sqref="C665"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8938,6 +8982,9 @@
       <c r="C648" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D648" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="649" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B649" s="1" t="s">
@@ -8946,6 +8993,9 @@
       <c r="C649" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D649" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="650" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B650" s="1" t="s">
@@ -8954,6 +9004,9 @@
       <c r="C650" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D650" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="651" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B651" s="1" t="s">
@@ -8962,6 +9015,9 @@
       <c r="C651" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D651" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="652" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B652" s="1" t="s">
@@ -8970,6 +9026,9 @@
       <c r="C652" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D652" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="653" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B653" s="1" t="s">
@@ -8978,6 +9037,9 @@
       <c r="C653" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D653" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="654" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B654" s="1" t="s">
@@ -8986,6 +9048,9 @@
       <c r="C654" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D654" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="655" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B655" s="1" t="s">
@@ -8994,6 +9059,9 @@
       <c r="C655" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D655" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="656" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B656" s="1" t="s">
@@ -9002,6 +9070,9 @@
       <c r="C656" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D656" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="657" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B657" s="1" t="s">
@@ -9010,6 +9081,9 @@
       <c r="C657" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D657" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="658" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B658" s="1" t="s">
@@ -9018,6 +9092,9 @@
       <c r="C658" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D658" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="659" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B659" s="1" t="s">
@@ -9026,6 +9103,9 @@
       <c r="C659" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D659" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="660" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B660" s="1" t="s">
@@ -9034,6 +9114,9 @@
       <c r="C660" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D660" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="661" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B661" s="1" t="s">
@@ -9042,6 +9125,9 @@
       <c r="C661" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D661" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="662" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B662" s="1" t="s">
@@ -9050,6 +9136,9 @@
       <c r="C662" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D662" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="663" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B663" s="1" t="s">
@@ -9058,6 +9147,9 @@
       <c r="C663" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D663" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="664" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B664" s="1" t="s">
@@ -9075,7 +9167,7 @@
         <v>664</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D665" s="1" t="s">
         <v>790</v>
@@ -9086,7 +9178,7 @@
         <v>665</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D666" s="1" t="s">
         <v>790</v>
@@ -9097,7 +9189,7 @@
         <v>666</v>
       </c>
       <c r="C667" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D667" s="1" t="s">
         <v>790</v>
@@ -9108,7 +9200,7 @@
         <v>667</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D668" s="1" t="s">
         <v>790</v>
@@ -9119,7 +9211,7 @@
         <v>668</v>
       </c>
       <c r="C669" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D669" s="1" t="s">
         <v>790</v>
@@ -9130,7 +9222,7 @@
         <v>669</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D670" s="1" t="s">
         <v>790</v>
@@ -9141,7 +9233,7 @@
         <v>670</v>
       </c>
       <c r="C671" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D671" s="1" t="s">
         <v>790</v>
@@ -9152,7 +9244,7 @@
         <v>671</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D672" s="1" t="s">
         <v>790</v>
@@ -9163,7 +9255,7 @@
         <v>672</v>
       </c>
       <c r="C673" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D673" s="1" t="s">
         <v>790</v>
@@ -9174,7 +9266,7 @@
         <v>673</v>
       </c>
       <c r="C674" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D674" s="1" t="s">
         <v>790</v>
@@ -9185,7 +9277,7 @@
         <v>674</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D675" s="1" t="s">
         <v>790</v>
@@ -9196,7 +9288,7 @@
         <v>675</v>
       </c>
       <c r="C676" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D676" s="1" t="s">
         <v>790</v>
@@ -9207,7 +9299,7 @@
         <v>676</v>
       </c>
       <c r="C677" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D677" s="1" t="s">
         <v>790</v>
@@ -9218,7 +9310,7 @@
         <v>677</v>
       </c>
       <c r="C678" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D678" s="1" t="s">
         <v>790</v>
@@ -9229,7 +9321,7 @@
         <v>678</v>
       </c>
       <c r="C679" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D679" s="1" t="s">
         <v>790</v>
@@ -9240,7 +9332,7 @@
         <v>679</v>
       </c>
       <c r="C680" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D680" s="1" t="s">
         <v>790</v>
@@ -9251,7 +9343,7 @@
         <v>680</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D681" s="1" t="s">
         <v>790</v>
@@ -9262,7 +9354,7 @@
         <v>681</v>
       </c>
       <c r="C682" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D682" s="1" t="s">
         <v>790</v>
@@ -9273,7 +9365,7 @@
         <v>682</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D683" s="1" t="s">
         <v>790</v>
@@ -9284,7 +9376,7 @@
         <v>683</v>
       </c>
       <c r="C684" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D684" s="1" t="s">
         <v>790</v>
@@ -9295,7 +9387,7 @@
         <v>684</v>
       </c>
       <c r="C685" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D685" s="1" t="s">
         <v>790</v>
@@ -9328,7 +9420,7 @@
         <v>687</v>
       </c>
       <c r="C688" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D688" s="1" t="s">
         <v>790</v>
@@ -9339,7 +9431,7 @@
         <v>688</v>
       </c>
       <c r="C689" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D689" s="1" t="s">
         <v>790</v>
@@ -9350,7 +9442,7 @@
         <v>689</v>
       </c>
       <c r="C690" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D690" s="1" t="s">
         <v>790</v>
@@ -9361,7 +9453,7 @@
         <v>690</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D691" s="1" t="s">
         <v>790</v>
@@ -9372,7 +9464,7 @@
         <v>691</v>
       </c>
       <c r="C692" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D692" s="1" t="s">
         <v>790</v>
@@ -9669,7 +9761,7 @@
         <v>718</v>
       </c>
       <c r="C719" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D719" s="1" t="s">
         <v>790</v>
@@ -9680,7 +9772,7 @@
         <v>719</v>
       </c>
       <c r="C720" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D720" s="1" t="s">
         <v>790</v>
@@ -10332,12 +10424,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2470,41 +2470,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2816,8 +2782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A679" workbookViewId="0">
-      <selection activeCell="C665" sqref="C665"/>
+    <sheetView tabSelected="1" topLeftCell="A676" workbookViewId="0">
+      <selection activeCell="C685" sqref="C685:C687"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9398,7 +9364,7 @@
         <v>685</v>
       </c>
       <c r="C686" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D686" s="1" t="s">
         <v>790</v>
@@ -9409,7 +9375,7 @@
         <v>686</v>
       </c>
       <c r="C687" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D687" s="1" t="s">
         <v>790</v>
@@ -10424,12 +10390,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\danger\traducoes\traducao-blue-dragon-xbox360\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BD\traducao-blue-dragon-xbox360\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="794">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2470,17 +2470,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -2782,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A676" workbookViewId="0">
-      <selection activeCell="C685" sqref="C685:C687"/>
+    <sheetView tabSelected="1" topLeftCell="A756" workbookViewId="0">
+      <selection activeCell="D778" sqref="D778"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8784,6 +8774,9 @@
       <c r="C629" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D629" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="630" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B630" s="1" t="s">
@@ -8792,6 +8785,9 @@
       <c r="C630" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D630" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="631" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B631" s="1" t="s">
@@ -8800,6 +8796,9 @@
       <c r="C631" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D631" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="632" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B632" s="1" t="s">
@@ -8808,6 +8807,9 @@
       <c r="C632" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D632" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="633" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B633" s="1" t="s">
@@ -8816,6 +8818,9 @@
       <c r="C633" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D633" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="634" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B634" s="1" t="s">
@@ -8824,6 +8829,9 @@
       <c r="C634" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D634" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="635" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B635" s="1" t="s">
@@ -8832,6 +8840,9 @@
       <c r="C635" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D635" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="636" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B636" s="1" t="s">
@@ -8840,6 +8851,9 @@
       <c r="C636" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D636" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="637" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B637" s="1" t="s">
@@ -8848,6 +8862,9 @@
       <c r="C637" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D637" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="638" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B638" s="1" t="s">
@@ -8856,6 +8873,9 @@
       <c r="C638" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D638" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="639" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B639" s="1" t="s">
@@ -8864,6 +8884,9 @@
       <c r="C639" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D639" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="640" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B640" s="1" t="s">
@@ -8905,6 +8928,9 @@
       <c r="C643" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D643" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="644" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B644" s="1" t="s">
@@ -8913,6 +8939,9 @@
       <c r="C644" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D644" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="645" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B645" s="1" t="s">
@@ -8921,6 +8950,9 @@
       <c r="C645" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="D645" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="646" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B646" s="1" t="s">
@@ -8928,6 +8960,9 @@
       </c>
       <c r="C646" s="1" t="s">
         <v>784</v>
+      </c>
+      <c r="D646" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="647" spans="2:4" x14ac:dyDescent="0.25">
@@ -10390,12 +10425,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A756" workbookViewId="0">
-      <selection activeCell="D778" sqref="D778"/>
+    <sheetView tabSelected="1" topLeftCell="A627" workbookViewId="0">
+      <selection activeCell="C632" sqref="C632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8772,7 +8772,7 @@
         <v>628</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D629" s="1" t="s">
         <v>785</v>
@@ -8794,7 +8794,7 @@
         <v>630</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D631" s="1" t="s">
         <v>785</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BD\traducao-blue-dragon-xbox360\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\danger\traducoes\traducao-blue-dragon-xbox360\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="793">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2325,9 +2325,6 @@
   </si>
   <si>
     <t>rvr_str_us.u16</t>
-  </si>
-  <si>
-    <t>saida.txt</t>
   </si>
   <si>
     <t>shp_jwl_str_us.u16</t>
@@ -2770,10 +2767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D782"/>
+  <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A627" workbookViewId="0">
-      <selection activeCell="C632" sqref="C632"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2788,10 +2785,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>782</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -2799,10 +2796,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -2810,10 +2807,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -2821,10 +2818,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -2832,10 +2829,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -2843,10 +2840,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -2854,10 +2851,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -2865,10 +2862,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -2876,7 +2873,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -2884,7 +2881,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -2892,7 +2889,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -2900,7 +2897,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -2908,7 +2905,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
@@ -2916,7 +2913,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
@@ -2924,7 +2921,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
@@ -2932,7 +2929,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -2940,7 +2937,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -2948,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -2956,7 +2953,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -2964,7 +2961,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -2972,7 +2969,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -2980,7 +2977,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -2988,7 +2985,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -2996,7 +2993,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -3004,7 +3001,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -3012,7 +3009,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -3020,7 +3017,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -3028,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -3036,7 +3033,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -3044,7 +3041,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -3052,7 +3049,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -3060,7 +3057,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -3068,7 +3065,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -3076,7 +3073,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -3084,7 +3081,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -3092,7 +3089,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -3100,7 +3097,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -3108,7 +3105,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -3116,7 +3113,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -3124,7 +3121,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -3132,7 +3129,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -3140,7 +3137,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -3148,7 +3145,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -3156,7 +3153,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -3164,7 +3161,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -3172,7 +3169,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -3180,7 +3177,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
@@ -3188,7 +3185,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
@@ -3196,7 +3193,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
@@ -3204,7 +3201,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
@@ -3212,7 +3209,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
@@ -3220,7 +3217,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
@@ -3228,7 +3225,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
@@ -3236,7 +3233,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
@@ -3244,7 +3241,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
@@ -3252,7 +3249,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
@@ -3260,7 +3257,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
@@ -3268,7 +3265,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
@@ -3276,7 +3273,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
@@ -3284,7 +3281,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
@@ -3292,7 +3289,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
@@ -3300,7 +3297,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
@@ -3308,7 +3305,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
@@ -3316,7 +3313,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
@@ -3324,7 +3321,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -3332,7 +3329,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
@@ -3340,7 +3337,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
@@ -3348,7 +3345,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
@@ -3356,7 +3353,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -3364,7 +3361,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -3372,7 +3369,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
@@ -3380,7 +3377,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
@@ -3388,7 +3385,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
@@ -3396,7 +3393,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
@@ -3404,7 +3401,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
@@ -3412,7 +3409,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
@@ -3420,7 +3417,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
@@ -3428,7 +3425,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
@@ -3436,7 +3433,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
@@ -3444,7 +3441,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
@@ -3452,7 +3449,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
@@ -3460,7 +3457,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
@@ -3468,7 +3465,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
@@ -3476,7 +3473,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
@@ -3484,7 +3481,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
@@ -3492,7 +3489,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
@@ -3500,7 +3497,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
@@ -3508,7 +3505,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
@@ -3516,7 +3513,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
@@ -3524,7 +3521,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
@@ -3532,7 +3529,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
@@ -3540,7 +3537,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
@@ -3548,7 +3545,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
@@ -3556,7 +3553,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
@@ -3564,7 +3561,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
@@ -3572,7 +3569,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
@@ -3580,7 +3577,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
@@ -3588,7 +3585,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
@@ -3596,7 +3593,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
@@ -3604,7 +3601,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
@@ -3612,7 +3609,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
@@ -3620,7 +3617,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
@@ -3628,7 +3625,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
@@ -3636,7 +3633,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
@@ -3644,7 +3641,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
@@ -3652,7 +3649,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
@@ -3660,7 +3657,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
@@ -3668,7 +3665,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
@@ -3676,7 +3673,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
@@ -3684,7 +3681,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
@@ -3692,7 +3689,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
@@ -3700,7 +3697,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
@@ -3708,7 +3705,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
@@ -3716,7 +3713,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
@@ -3724,7 +3721,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
@@ -3732,7 +3729,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
@@ -3740,7 +3737,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
@@ -3748,7 +3745,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
@@ -3756,7 +3753,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
@@ -3764,7 +3761,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
@@ -3772,7 +3769,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
@@ -3780,7 +3777,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
@@ -3788,7 +3785,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
@@ -3796,7 +3793,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
@@ -3804,7 +3801,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
@@ -3812,7 +3809,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
@@ -3820,7 +3817,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
@@ -3828,7 +3825,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
@@ -3836,7 +3833,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
@@ -3844,7 +3841,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
@@ -3852,7 +3849,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
@@ -3860,7 +3857,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
@@ -3868,7 +3865,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
@@ -3876,7 +3873,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
@@ -3884,7 +3881,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
@@ -3892,7 +3889,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
@@ -3900,7 +3897,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
@@ -3908,7 +3905,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
@@ -3916,7 +3913,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
@@ -3924,7 +3921,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
@@ -3932,7 +3929,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
@@ -3940,7 +3937,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
@@ -3948,7 +3945,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
@@ -3956,7 +3953,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
@@ -3964,7 +3961,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
@@ -3972,7 +3969,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
@@ -3980,7 +3977,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
@@ -3988,7 +3985,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
@@ -3996,7 +3993,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
@@ -4004,7 +4001,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
@@ -4012,7 +4009,7 @@
         <v>150</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
@@ -4020,7 +4017,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
@@ -4028,7 +4025,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
@@ -4036,7 +4033,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
@@ -4044,7 +4041,7 @@
         <v>154</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
@@ -4052,7 +4049,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
@@ -4060,7 +4057,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
@@ -4068,7 +4065,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
@@ -4076,7 +4073,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
@@ -4084,7 +4081,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
@@ -4092,7 +4089,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
@@ -4100,7 +4097,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
@@ -4108,7 +4105,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
@@ -4116,7 +4113,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
@@ -4124,7 +4121,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
@@ -4132,7 +4129,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
@@ -4140,7 +4137,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
@@ -4148,7 +4145,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
@@ -4156,7 +4153,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
@@ -4164,7 +4161,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
@@ -4172,7 +4169,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
@@ -4180,7 +4177,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
@@ -4188,7 +4185,7 @@
         <v>172</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
@@ -4196,7 +4193,7 @@
         <v>173</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
@@ -4204,7 +4201,7 @@
         <v>174</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
@@ -4212,7 +4209,7 @@
         <v>175</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
@@ -4220,7 +4217,7 @@
         <v>176</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
@@ -4228,7 +4225,7 @@
         <v>177</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
@@ -4236,7 +4233,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
@@ -4244,7 +4241,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
@@ -4252,7 +4249,7 @@
         <v>180</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
@@ -4260,7 +4257,7 @@
         <v>181</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
@@ -4268,7 +4265,7 @@
         <v>182</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
@@ -4276,7 +4273,7 @@
         <v>183</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
@@ -4284,7 +4281,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
@@ -4292,7 +4289,7 @@
         <v>185</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
@@ -4300,7 +4297,7 @@
         <v>186</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
@@ -4308,7 +4305,7 @@
         <v>187</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
@@ -4316,7 +4313,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
@@ -4324,7 +4321,7 @@
         <v>189</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
@@ -4332,7 +4329,7 @@
         <v>190</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
@@ -4340,7 +4337,7 @@
         <v>191</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
@@ -4348,7 +4345,7 @@
         <v>192</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
@@ -4356,7 +4353,7 @@
         <v>193</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
@@ -4364,7 +4361,7 @@
         <v>194</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
@@ -4372,7 +4369,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
@@ -4380,7 +4377,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
@@ -4388,7 +4385,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
@@ -4396,7 +4393,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
@@ -4404,7 +4401,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
@@ -4412,7 +4409,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
@@ -4420,7 +4417,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
@@ -4428,7 +4425,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
@@ -4436,7 +4433,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
@@ -4444,7 +4441,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
@@ -4452,7 +4449,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
@@ -4460,7 +4457,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
@@ -4468,7 +4465,7 @@
         <v>207</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
@@ -4476,7 +4473,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
@@ -4484,7 +4481,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
@@ -4492,7 +4489,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.25">
@@ -4500,7 +4497,7 @@
         <v>211</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.25">
@@ -4508,7 +4505,7 @@
         <v>212</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
@@ -4516,7 +4513,7 @@
         <v>213</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.25">
@@ -4524,7 +4521,7 @@
         <v>214</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
@@ -4532,7 +4529,7 @@
         <v>215</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
@@ -4540,7 +4537,7 @@
         <v>216</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
@@ -4548,7 +4545,7 @@
         <v>217</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.25">
@@ -4556,7 +4553,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
@@ -4564,7 +4561,7 @@
         <v>219</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
@@ -4572,7 +4569,7 @@
         <v>220</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
@@ -4580,7 +4577,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
@@ -4588,7 +4585,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
@@ -4596,7 +4593,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.25">
@@ -4604,7 +4601,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.25">
@@ -4612,7 +4609,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.25">
@@ -4620,7 +4617,7 @@
         <v>226</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.25">
@@ -4628,7 +4625,7 @@
         <v>227</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.25">
@@ -4636,7 +4633,7 @@
         <v>228</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.25">
@@ -4644,7 +4641,7 @@
         <v>229</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.25">
@@ -4652,7 +4649,7 @@
         <v>230</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.25">
@@ -4660,7 +4657,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.25">
@@ -4668,7 +4665,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.25">
@@ -4676,7 +4673,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.25">
@@ -4684,7 +4681,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.25">
@@ -4692,7 +4689,7 @@
         <v>235</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.25">
@@ -4700,7 +4697,7 @@
         <v>236</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.25">
@@ -4708,7 +4705,7 @@
         <v>237</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.25">
@@ -4716,7 +4713,7 @@
         <v>238</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.25">
@@ -4724,7 +4721,7 @@
         <v>239</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.25">
@@ -4732,7 +4729,7 @@
         <v>240</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.25">
@@ -4740,7 +4737,7 @@
         <v>241</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.25">
@@ -4748,7 +4745,7 @@
         <v>242</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.25">
@@ -4756,7 +4753,7 @@
         <v>243</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.25">
@@ -4764,7 +4761,7 @@
         <v>244</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.25">
@@ -4772,7 +4769,7 @@
         <v>245</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.25">
@@ -4780,7 +4777,7 @@
         <v>246</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.25">
@@ -4788,7 +4785,7 @@
         <v>247</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.25">
@@ -4796,7 +4793,7 @@
         <v>248</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.25">
@@ -4804,7 +4801,7 @@
         <v>249</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.25">
@@ -4812,7 +4809,7 @@
         <v>250</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.25">
@@ -4820,7 +4817,7 @@
         <v>251</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.25">
@@ -4828,7 +4825,7 @@
         <v>252</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.25">
@@ -4836,7 +4833,7 @@
         <v>253</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.25">
@@ -4844,7 +4841,7 @@
         <v>254</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.25">
@@ -4852,7 +4849,7 @@
         <v>255</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.25">
@@ -4860,7 +4857,7 @@
         <v>256</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.25">
@@ -4868,7 +4865,7 @@
         <v>257</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.25">
@@ -4876,7 +4873,7 @@
         <v>258</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.25">
@@ -4884,7 +4881,7 @@
         <v>259</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.25">
@@ -4892,7 +4889,7 @@
         <v>260</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.25">
@@ -4900,7 +4897,7 @@
         <v>261</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.25">
@@ -4908,7 +4905,7 @@
         <v>262</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.25">
@@ -4916,7 +4913,7 @@
         <v>263</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.25">
@@ -4924,7 +4921,7 @@
         <v>264</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.25">
@@ -4932,7 +4929,7 @@
         <v>265</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.25">
@@ -4940,7 +4937,7 @@
         <v>266</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.25">
@@ -4948,7 +4945,7 @@
         <v>267</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.25">
@@ -4956,7 +4953,7 @@
         <v>268</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.25">
@@ -4964,7 +4961,7 @@
         <v>269</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.25">
@@ -4972,7 +4969,7 @@
         <v>270</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.25">
@@ -4980,7 +4977,7 @@
         <v>271</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.25">
@@ -4988,7 +4985,7 @@
         <v>272</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.25">
@@ -4996,7 +4993,7 @@
         <v>273</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.25">
@@ -5004,7 +5001,7 @@
         <v>274</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.25">
@@ -5012,7 +5009,7 @@
         <v>275</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.25">
@@ -5020,7 +5017,7 @@
         <v>276</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.25">
@@ -5028,7 +5025,7 @@
         <v>277</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.25">
@@ -5036,7 +5033,7 @@
         <v>278</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.25">
@@ -5044,7 +5041,7 @@
         <v>279</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.25">
@@ -5052,7 +5049,7 @@
         <v>280</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.25">
@@ -5060,7 +5057,7 @@
         <v>281</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.25">
@@ -5068,7 +5065,7 @@
         <v>282</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.25">
@@ -5076,7 +5073,7 @@
         <v>283</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.25">
@@ -5084,7 +5081,7 @@
         <v>284</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.25">
@@ -5092,7 +5089,7 @@
         <v>285</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.25">
@@ -5100,7 +5097,7 @@
         <v>286</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.25">
@@ -5108,7 +5105,7 @@
         <v>287</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.25">
@@ -5116,7 +5113,7 @@
         <v>288</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.25">
@@ -5124,7 +5121,7 @@
         <v>289</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.25">
@@ -5132,7 +5129,7 @@
         <v>290</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.25">
@@ -5140,7 +5137,7 @@
         <v>291</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.25">
@@ -5148,7 +5145,7 @@
         <v>292</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.25">
@@ -5156,7 +5153,7 @@
         <v>293</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.25">
@@ -5164,7 +5161,7 @@
         <v>294</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.25">
@@ -5172,7 +5169,7 @@
         <v>295</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.25">
@@ -5180,7 +5177,7 @@
         <v>296</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.25">
@@ -5188,7 +5185,7 @@
         <v>297</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.25">
@@ -5196,7 +5193,7 @@
         <v>298</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.25">
@@ -5204,7 +5201,7 @@
         <v>299</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.25">
@@ -5212,7 +5209,7 @@
         <v>300</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.25">
@@ -5220,7 +5217,7 @@
         <v>301</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.25">
@@ -5228,7 +5225,7 @@
         <v>302</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.25">
@@ -5236,7 +5233,7 @@
         <v>303</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.25">
@@ -5244,7 +5241,7 @@
         <v>304</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.25">
@@ -5252,7 +5249,7 @@
         <v>305</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.25">
@@ -5260,7 +5257,7 @@
         <v>306</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.25">
@@ -5268,7 +5265,7 @@
         <v>307</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.25">
@@ -5276,7 +5273,7 @@
         <v>308</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.25">
@@ -5284,7 +5281,7 @@
         <v>309</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.25">
@@ -5292,7 +5289,7 @@
         <v>310</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.25">
@@ -5300,10 +5297,10 @@
         <v>311</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.25">
@@ -5311,10 +5308,10 @@
         <v>312</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.25">
@@ -5322,10 +5319,10 @@
         <v>313</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.25">
@@ -5333,10 +5330,10 @@
         <v>314</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.25">
@@ -5344,10 +5341,10 @@
         <v>315</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.25">
@@ -5355,10 +5352,10 @@
         <v>316</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="318" spans="2:4" x14ac:dyDescent="0.25">
@@ -5366,10 +5363,10 @@
         <v>317</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.25">
@@ -5377,10 +5374,10 @@
         <v>318</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="320" spans="2:4" x14ac:dyDescent="0.25">
@@ -5388,10 +5385,10 @@
         <v>319</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.25">
@@ -5399,10 +5396,10 @@
         <v>320</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.25">
@@ -5410,10 +5407,10 @@
         <v>321</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.25">
@@ -5421,10 +5418,10 @@
         <v>322</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.25">
@@ -5432,10 +5429,10 @@
         <v>323</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.25">
@@ -5443,10 +5440,10 @@
         <v>324</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.25">
@@ -5454,10 +5451,10 @@
         <v>325</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.25">
@@ -5465,10 +5462,10 @@
         <v>326</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.25">
@@ -5476,10 +5473,10 @@
         <v>327</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.25">
@@ -5487,10 +5484,10 @@
         <v>328</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.25">
@@ -5498,10 +5495,10 @@
         <v>329</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.25">
@@ -5509,10 +5506,10 @@
         <v>330</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.25">
@@ -5520,10 +5517,10 @@
         <v>331</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.25">
@@ -5531,10 +5528,10 @@
         <v>332</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.25">
@@ -5542,10 +5539,10 @@
         <v>333</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.25">
@@ -5553,10 +5550,10 @@
         <v>334</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.25">
@@ -5564,10 +5561,10 @@
         <v>335</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="337" spans="2:4" x14ac:dyDescent="0.25">
@@ -5575,10 +5572,10 @@
         <v>336</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="338" spans="2:4" x14ac:dyDescent="0.25">
@@ -5586,10 +5583,10 @@
         <v>337</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.25">
@@ -5597,10 +5594,10 @@
         <v>338</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.25">
@@ -5608,10 +5605,10 @@
         <v>339</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.25">
@@ -5619,10 +5616,10 @@
         <v>340</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.25">
@@ -5630,10 +5627,10 @@
         <v>341</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.25">
@@ -5641,10 +5638,10 @@
         <v>342</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="344" spans="2:4" x14ac:dyDescent="0.25">
@@ -5652,10 +5649,10 @@
         <v>343</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="345" spans="2:4" x14ac:dyDescent="0.25">
@@ -5663,10 +5660,10 @@
         <v>344</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.25">
@@ -5674,10 +5671,10 @@
         <v>345</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.25">
@@ -5685,10 +5682,10 @@
         <v>346</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.25">
@@ -5696,10 +5693,10 @@
         <v>347</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.25">
@@ -5707,10 +5704,10 @@
         <v>348</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.25">
@@ -5718,10 +5715,10 @@
         <v>349</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.25">
@@ -5729,10 +5726,10 @@
         <v>350</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.25">
@@ -5740,10 +5737,10 @@
         <v>351</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.25">
@@ -5751,10 +5748,10 @@
         <v>352</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.25">
@@ -5762,10 +5759,10 @@
         <v>353</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="355" spans="2:4" x14ac:dyDescent="0.25">
@@ -5773,10 +5770,10 @@
         <v>354</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="356" spans="2:4" x14ac:dyDescent="0.25">
@@ -5784,10 +5781,10 @@
         <v>355</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.25">
@@ -5795,10 +5792,10 @@
         <v>356</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="358" spans="2:4" x14ac:dyDescent="0.25">
@@ -5806,10 +5803,10 @@
         <v>357</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="359" spans="2:4" x14ac:dyDescent="0.25">
@@ -5817,10 +5814,10 @@
         <v>358</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.25">
@@ -5828,10 +5825,10 @@
         <v>359</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.25">
@@ -5839,10 +5836,10 @@
         <v>360</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.25">
@@ -5850,10 +5847,10 @@
         <v>361</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.25">
@@ -5861,10 +5858,10 @@
         <v>362</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.25">
@@ -5872,10 +5869,10 @@
         <v>363</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="365" spans="2:4" x14ac:dyDescent="0.25">
@@ -5883,10 +5880,10 @@
         <v>364</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="366" spans="2:4" x14ac:dyDescent="0.25">
@@ -5894,10 +5891,10 @@
         <v>365</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.25">
@@ -5905,10 +5902,10 @@
         <v>366</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.25">
@@ -5916,10 +5913,10 @@
         <v>367</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="369" spans="2:4" x14ac:dyDescent="0.25">
@@ -5927,10 +5924,10 @@
         <v>368</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="370" spans="2:4" x14ac:dyDescent="0.25">
@@ -5938,10 +5935,10 @@
         <v>369</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.25">
@@ -5949,10 +5946,10 @@
         <v>370</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="372" spans="2:4" x14ac:dyDescent="0.25">
@@ -5960,10 +5957,10 @@
         <v>371</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="373" spans="2:4" x14ac:dyDescent="0.25">
@@ -5971,10 +5968,10 @@
         <v>372</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="374" spans="2:4" x14ac:dyDescent="0.25">
@@ -5982,10 +5979,10 @@
         <v>373</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="375" spans="2:4" x14ac:dyDescent="0.25">
@@ -5993,10 +5990,10 @@
         <v>374</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="376" spans="2:4" x14ac:dyDescent="0.25">
@@ -6004,10 +6001,10 @@
         <v>375</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="377" spans="2:4" x14ac:dyDescent="0.25">
@@ -6015,10 +6012,10 @@
         <v>376</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.25">
@@ -6026,10 +6023,10 @@
         <v>377</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="379" spans="2:4" x14ac:dyDescent="0.25">
@@ -6037,10 +6034,10 @@
         <v>378</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="380" spans="2:4" x14ac:dyDescent="0.25">
@@ -6048,10 +6045,10 @@
         <v>379</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="381" spans="2:4" x14ac:dyDescent="0.25">
@@ -6059,10 +6056,10 @@
         <v>380</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="382" spans="2:4" x14ac:dyDescent="0.25">
@@ -6070,10 +6067,10 @@
         <v>381</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="383" spans="2:4" x14ac:dyDescent="0.25">
@@ -6081,10 +6078,10 @@
         <v>382</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="384" spans="2:4" x14ac:dyDescent="0.25">
@@ -6092,10 +6089,10 @@
         <v>383</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.25">
@@ -6103,10 +6100,10 @@
         <v>384</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="386" spans="2:4" x14ac:dyDescent="0.25">
@@ -6114,10 +6111,10 @@
         <v>385</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="387" spans="2:4" x14ac:dyDescent="0.25">
@@ -6125,10 +6122,10 @@
         <v>386</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="388" spans="2:4" x14ac:dyDescent="0.25">
@@ -6136,10 +6133,10 @@
         <v>387</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="389" spans="2:4" x14ac:dyDescent="0.25">
@@ -6147,10 +6144,10 @@
         <v>388</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="390" spans="2:4" x14ac:dyDescent="0.25">
@@ -6158,10 +6155,10 @@
         <v>389</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="391" spans="2:4" x14ac:dyDescent="0.25">
@@ -6169,10 +6166,10 @@
         <v>390</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.25">
@@ -6180,10 +6177,10 @@
         <v>391</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="393" spans="2:4" x14ac:dyDescent="0.25">
@@ -6191,10 +6188,10 @@
         <v>392</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="394" spans="2:4" x14ac:dyDescent="0.25">
@@ -6202,10 +6199,10 @@
         <v>393</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="395" spans="2:4" x14ac:dyDescent="0.25">
@@ -6213,10 +6210,10 @@
         <v>394</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="396" spans="2:4" x14ac:dyDescent="0.25">
@@ -6224,10 +6221,10 @@
         <v>395</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="397" spans="2:4" x14ac:dyDescent="0.25">
@@ -6235,10 +6232,10 @@
         <v>396</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="398" spans="2:4" x14ac:dyDescent="0.25">
@@ -6246,10 +6243,10 @@
         <v>397</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.25">
@@ -6257,10 +6254,10 @@
         <v>398</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="400" spans="2:4" x14ac:dyDescent="0.25">
@@ -6268,10 +6265,10 @@
         <v>399</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.25">
@@ -6279,10 +6276,10 @@
         <v>400</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="402" spans="2:4" x14ac:dyDescent="0.25">
@@ -6290,10 +6287,10 @@
         <v>401</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="403" spans="2:4" x14ac:dyDescent="0.25">
@@ -6301,10 +6298,10 @@
         <v>402</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="404" spans="2:4" x14ac:dyDescent="0.25">
@@ -6312,10 +6309,10 @@
         <v>403</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="405" spans="2:4" x14ac:dyDescent="0.25">
@@ -6323,10 +6320,10 @@
         <v>404</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.25">
@@ -6334,10 +6331,10 @@
         <v>405</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="407" spans="2:4" x14ac:dyDescent="0.25">
@@ -6345,10 +6342,10 @@
         <v>406</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="408" spans="2:4" x14ac:dyDescent="0.25">
@@ -6356,10 +6353,10 @@
         <v>407</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="409" spans="2:4" x14ac:dyDescent="0.25">
@@ -6367,10 +6364,10 @@
         <v>408</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="410" spans="2:4" x14ac:dyDescent="0.25">
@@ -6378,10 +6375,10 @@
         <v>409</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="411" spans="2:4" x14ac:dyDescent="0.25">
@@ -6389,10 +6386,10 @@
         <v>410</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="412" spans="2:4" x14ac:dyDescent="0.25">
@@ -6400,10 +6397,10 @@
         <v>411</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.25">
@@ -6411,10 +6408,10 @@
         <v>412</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="414" spans="2:4" x14ac:dyDescent="0.25">
@@ -6422,10 +6419,10 @@
         <v>413</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="415" spans="2:4" x14ac:dyDescent="0.25">
@@ -6433,10 +6430,10 @@
         <v>414</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="416" spans="2:4" x14ac:dyDescent="0.25">
@@ -6444,10 +6441,10 @@
         <v>415</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="417" spans="2:4" x14ac:dyDescent="0.25">
@@ -6455,10 +6452,10 @@
         <v>416</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="418" spans="2:4" x14ac:dyDescent="0.25">
@@ -6466,10 +6463,10 @@
         <v>417</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="419" spans="2:4" x14ac:dyDescent="0.25">
@@ -6477,10 +6474,10 @@
         <v>418</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.25">
@@ -6488,10 +6485,10 @@
         <v>419</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="421" spans="2:4" x14ac:dyDescent="0.25">
@@ -6499,10 +6496,10 @@
         <v>420</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="422" spans="2:4" x14ac:dyDescent="0.25">
@@ -6510,10 +6507,10 @@
         <v>421</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.25">
@@ -6521,10 +6518,10 @@
         <v>422</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="424" spans="2:4" x14ac:dyDescent="0.25">
@@ -6532,10 +6529,10 @@
         <v>423</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="425" spans="2:4" x14ac:dyDescent="0.25">
@@ -6543,10 +6540,10 @@
         <v>424</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="426" spans="2:4" x14ac:dyDescent="0.25">
@@ -6554,10 +6551,10 @@
         <v>425</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.25">
@@ -6565,10 +6562,10 @@
         <v>426</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="428" spans="2:4" x14ac:dyDescent="0.25">
@@ -6576,10 +6573,10 @@
         <v>427</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="429" spans="2:4" x14ac:dyDescent="0.25">
@@ -6587,10 +6584,10 @@
         <v>428</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="430" spans="2:4" x14ac:dyDescent="0.25">
@@ -6598,10 +6595,10 @@
         <v>429</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="431" spans="2:4" x14ac:dyDescent="0.25">
@@ -6609,10 +6606,10 @@
         <v>430</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="432" spans="2:4" x14ac:dyDescent="0.25">
@@ -6620,10 +6617,10 @@
         <v>431</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.25">
@@ -6631,10 +6628,10 @@
         <v>432</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="434" spans="2:4" x14ac:dyDescent="0.25">
@@ -6642,10 +6639,10 @@
         <v>433</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="435" spans="2:4" x14ac:dyDescent="0.25">
@@ -6653,10 +6650,10 @@
         <v>434</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="436" spans="2:4" x14ac:dyDescent="0.25">
@@ -6664,10 +6661,10 @@
         <v>435</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="437" spans="2:4" x14ac:dyDescent="0.25">
@@ -6675,10 +6672,10 @@
         <v>436</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="438" spans="2:4" x14ac:dyDescent="0.25">
@@ -6686,10 +6683,10 @@
         <v>437</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="439" spans="2:4" x14ac:dyDescent="0.25">
@@ -6697,10 +6694,10 @@
         <v>438</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="440" spans="2:4" x14ac:dyDescent="0.25">
@@ -6708,10 +6705,10 @@
         <v>439</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="441" spans="2:4" x14ac:dyDescent="0.25">
@@ -6719,10 +6716,10 @@
         <v>440</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.25">
@@ -6730,10 +6727,10 @@
         <v>441</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="443" spans="2:4" x14ac:dyDescent="0.25">
@@ -6741,10 +6738,10 @@
         <v>442</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="444" spans="2:4" x14ac:dyDescent="0.25">
@@ -6752,10 +6749,10 @@
         <v>443</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="445" spans="2:4" x14ac:dyDescent="0.25">
@@ -6763,10 +6760,10 @@
         <v>444</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="446" spans="2:4" x14ac:dyDescent="0.25">
@@ -6774,10 +6771,10 @@
         <v>445</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="447" spans="2:4" x14ac:dyDescent="0.25">
@@ -6785,10 +6782,10 @@
         <v>446</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="448" spans="2:4" x14ac:dyDescent="0.25">
@@ -6796,10 +6793,10 @@
         <v>447</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.25">
@@ -6807,10 +6804,10 @@
         <v>448</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="450" spans="2:4" x14ac:dyDescent="0.25">
@@ -6818,10 +6815,10 @@
         <v>449</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="451" spans="2:4" x14ac:dyDescent="0.25">
@@ -6829,10 +6826,10 @@
         <v>450</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="452" spans="2:4" x14ac:dyDescent="0.25">
@@ -6840,10 +6837,10 @@
         <v>451</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="453" spans="2:4" x14ac:dyDescent="0.25">
@@ -6851,10 +6848,10 @@
         <v>452</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="454" spans="2:4" x14ac:dyDescent="0.25">
@@ -6862,10 +6859,10 @@
         <v>453</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="455" spans="2:4" x14ac:dyDescent="0.25">
@@ -6873,10 +6870,10 @@
         <v>454</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.25">
@@ -6884,10 +6881,10 @@
         <v>455</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="457" spans="2:4" x14ac:dyDescent="0.25">
@@ -6895,10 +6892,10 @@
         <v>456</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="458" spans="2:4" x14ac:dyDescent="0.25">
@@ -6906,10 +6903,10 @@
         <v>457</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="459" spans="2:4" x14ac:dyDescent="0.25">
@@ -6917,10 +6914,10 @@
         <v>458</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="460" spans="2:4" x14ac:dyDescent="0.25">
@@ -6928,10 +6925,10 @@
         <v>459</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="461" spans="2:4" x14ac:dyDescent="0.25">
@@ -6939,10 +6936,10 @@
         <v>460</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="462" spans="2:4" x14ac:dyDescent="0.25">
@@ -6950,10 +6947,10 @@
         <v>461</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.25">
@@ -6961,10 +6958,10 @@
         <v>462</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="464" spans="2:4" x14ac:dyDescent="0.25">
@@ -6972,10 +6969,10 @@
         <v>463</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="465" spans="2:4" x14ac:dyDescent="0.25">
@@ -6983,10 +6980,10 @@
         <v>464</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="466" spans="2:4" x14ac:dyDescent="0.25">
@@ -6994,10 +6991,10 @@
         <v>465</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="467" spans="2:4" x14ac:dyDescent="0.25">
@@ -7005,10 +7002,10 @@
         <v>466</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="468" spans="2:4" x14ac:dyDescent="0.25">
@@ -7016,10 +7013,10 @@
         <v>467</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="469" spans="2:4" x14ac:dyDescent="0.25">
@@ -7027,10 +7024,10 @@
         <v>468</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="470" spans="2:4" x14ac:dyDescent="0.25">
@@ -7038,10 +7035,10 @@
         <v>469</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="471" spans="2:4" x14ac:dyDescent="0.25">
@@ -7049,10 +7046,10 @@
         <v>470</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="472" spans="2:4" x14ac:dyDescent="0.25">
@@ -7060,10 +7057,10 @@
         <v>471</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="473" spans="2:4" x14ac:dyDescent="0.25">
@@ -7071,10 +7068,10 @@
         <v>472</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="474" spans="2:4" x14ac:dyDescent="0.25">
@@ -7082,10 +7079,10 @@
         <v>473</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="475" spans="2:4" x14ac:dyDescent="0.25">
@@ -7093,10 +7090,10 @@
         <v>474</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="476" spans="2:4" x14ac:dyDescent="0.25">
@@ -7104,10 +7101,10 @@
         <v>475</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.25">
@@ -7115,10 +7112,10 @@
         <v>476</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="478" spans="2:4" x14ac:dyDescent="0.25">
@@ -7126,10 +7123,10 @@
         <v>477</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="479" spans="2:4" x14ac:dyDescent="0.25">
@@ -7137,10 +7134,10 @@
         <v>478</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="480" spans="2:4" x14ac:dyDescent="0.25">
@@ -7148,10 +7145,10 @@
         <v>479</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="481" spans="2:4" x14ac:dyDescent="0.25">
@@ -7159,10 +7156,10 @@
         <v>480</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="482" spans="2:4" x14ac:dyDescent="0.25">
@@ -7170,10 +7167,10 @@
         <v>481</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="483" spans="2:4" x14ac:dyDescent="0.25">
@@ -7181,10 +7178,10 @@
         <v>482</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="484" spans="2:4" x14ac:dyDescent="0.25">
@@ -7192,10 +7189,10 @@
         <v>483</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="485" spans="2:4" x14ac:dyDescent="0.25">
@@ -7203,10 +7200,10 @@
         <v>484</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="486" spans="2:4" x14ac:dyDescent="0.25">
@@ -7214,10 +7211,10 @@
         <v>485</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="487" spans="2:4" x14ac:dyDescent="0.25">
@@ -7225,10 +7222,10 @@
         <v>486</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="488" spans="2:4" x14ac:dyDescent="0.25">
@@ -7236,10 +7233,10 @@
         <v>487</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="489" spans="2:4" x14ac:dyDescent="0.25">
@@ -7247,10 +7244,10 @@
         <v>488</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="490" spans="2:4" x14ac:dyDescent="0.25">
@@ -7258,10 +7255,10 @@
         <v>489</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="491" spans="2:4" x14ac:dyDescent="0.25">
@@ -7269,10 +7266,10 @@
         <v>490</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="492" spans="2:4" x14ac:dyDescent="0.25">
@@ -7280,10 +7277,10 @@
         <v>491</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="493" spans="2:4" x14ac:dyDescent="0.25">
@@ -7291,10 +7288,10 @@
         <v>492</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="494" spans="2:4" x14ac:dyDescent="0.25">
@@ -7302,10 +7299,10 @@
         <v>493</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="495" spans="2:4" x14ac:dyDescent="0.25">
@@ -7313,10 +7310,10 @@
         <v>494</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="496" spans="2:4" x14ac:dyDescent="0.25">
@@ -7324,10 +7321,10 @@
         <v>495</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="497" spans="2:4" x14ac:dyDescent="0.25">
@@ -7335,10 +7332,10 @@
         <v>496</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="498" spans="2:4" x14ac:dyDescent="0.25">
@@ -7346,10 +7343,10 @@
         <v>497</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="499" spans="2:4" x14ac:dyDescent="0.25">
@@ -7357,10 +7354,10 @@
         <v>498</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="500" spans="2:4" x14ac:dyDescent="0.25">
@@ -7368,10 +7365,10 @@
         <v>499</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="501" spans="2:4" x14ac:dyDescent="0.25">
@@ -7379,10 +7376,10 @@
         <v>500</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="502" spans="2:4" x14ac:dyDescent="0.25">
@@ -7390,10 +7387,10 @@
         <v>501</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="503" spans="2:4" x14ac:dyDescent="0.25">
@@ -7401,10 +7398,10 @@
         <v>502</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="504" spans="2:4" x14ac:dyDescent="0.25">
@@ -7412,10 +7409,10 @@
         <v>503</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="505" spans="2:4" x14ac:dyDescent="0.25">
@@ -7423,10 +7420,10 @@
         <v>504</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="506" spans="2:4" x14ac:dyDescent="0.25">
@@ -7434,10 +7431,10 @@
         <v>505</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="507" spans="2:4" x14ac:dyDescent="0.25">
@@ -7445,10 +7442,10 @@
         <v>506</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="508" spans="2:4" x14ac:dyDescent="0.25">
@@ -7456,10 +7453,10 @@
         <v>507</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="509" spans="2:4" x14ac:dyDescent="0.25">
@@ -7467,10 +7464,10 @@
         <v>508</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="510" spans="2:4" x14ac:dyDescent="0.25">
@@ -7478,10 +7475,10 @@
         <v>509</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="511" spans="2:4" x14ac:dyDescent="0.25">
@@ -7489,10 +7486,10 @@
         <v>510</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="512" spans="2:4" x14ac:dyDescent="0.25">
@@ -7500,10 +7497,10 @@
         <v>511</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D512" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="513" spans="2:4" x14ac:dyDescent="0.25">
@@ -7511,10 +7508,10 @@
         <v>512</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="514" spans="2:4" x14ac:dyDescent="0.25">
@@ -7522,10 +7519,10 @@
         <v>513</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="515" spans="2:4" x14ac:dyDescent="0.25">
@@ -7533,10 +7530,10 @@
         <v>514</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D515" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="516" spans="2:4" x14ac:dyDescent="0.25">
@@ -7544,10 +7541,10 @@
         <v>515</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D516" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="517" spans="2:4" x14ac:dyDescent="0.25">
@@ -7555,10 +7552,10 @@
         <v>516</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="518" spans="2:4" x14ac:dyDescent="0.25">
@@ -7566,10 +7563,10 @@
         <v>517</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D518" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="519" spans="2:4" x14ac:dyDescent="0.25">
@@ -7577,10 +7574,10 @@
         <v>518</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D519" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="520" spans="2:4" x14ac:dyDescent="0.25">
@@ -7588,10 +7585,10 @@
         <v>519</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D520" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="521" spans="2:4" x14ac:dyDescent="0.25">
@@ -7599,10 +7596,10 @@
         <v>520</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D521" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="522" spans="2:4" x14ac:dyDescent="0.25">
@@ -7610,10 +7607,10 @@
         <v>521</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="523" spans="2:4" x14ac:dyDescent="0.25">
@@ -7621,10 +7618,10 @@
         <v>522</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D523" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="524" spans="2:4" x14ac:dyDescent="0.25">
@@ -7632,10 +7629,10 @@
         <v>523</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D524" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="525" spans="2:4" x14ac:dyDescent="0.25">
@@ -7643,10 +7640,10 @@
         <v>524</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D525" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="526" spans="2:4" x14ac:dyDescent="0.25">
@@ -7654,10 +7651,10 @@
         <v>525</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="527" spans="2:4" x14ac:dyDescent="0.25">
@@ -7665,10 +7662,10 @@
         <v>526</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D527" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="528" spans="2:4" x14ac:dyDescent="0.25">
@@ -7676,10 +7673,10 @@
         <v>527</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="529" spans="2:4" x14ac:dyDescent="0.25">
@@ -7687,10 +7684,10 @@
         <v>528</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D529" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="530" spans="2:4" x14ac:dyDescent="0.25">
@@ -7698,10 +7695,10 @@
         <v>529</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D530" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="531" spans="2:4" x14ac:dyDescent="0.25">
@@ -7709,10 +7706,10 @@
         <v>530</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="532" spans="2:4" x14ac:dyDescent="0.25">
@@ -7720,10 +7717,10 @@
         <v>531</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D532" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="533" spans="2:4" x14ac:dyDescent="0.25">
@@ -7731,10 +7728,10 @@
         <v>532</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="534" spans="2:4" x14ac:dyDescent="0.25">
@@ -7742,10 +7739,10 @@
         <v>533</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="535" spans="2:4" x14ac:dyDescent="0.25">
@@ -7753,10 +7750,10 @@
         <v>534</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="536" spans="2:4" x14ac:dyDescent="0.25">
@@ -7764,10 +7761,10 @@
         <v>535</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="537" spans="2:4" x14ac:dyDescent="0.25">
@@ -7775,10 +7772,10 @@
         <v>536</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="538" spans="2:4" x14ac:dyDescent="0.25">
@@ -7786,10 +7783,10 @@
         <v>537</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="539" spans="2:4" x14ac:dyDescent="0.25">
@@ -7797,10 +7794,10 @@
         <v>538</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D539" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="540" spans="2:4" x14ac:dyDescent="0.25">
@@ -7808,10 +7805,10 @@
         <v>539</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D540" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="541" spans="2:4" x14ac:dyDescent="0.25">
@@ -7819,10 +7816,10 @@
         <v>540</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="542" spans="2:4" x14ac:dyDescent="0.25">
@@ -7830,10 +7827,10 @@
         <v>541</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D542" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="543" spans="2:4" x14ac:dyDescent="0.25">
@@ -7841,10 +7838,10 @@
         <v>542</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D543" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="544" spans="2:4" x14ac:dyDescent="0.25">
@@ -7852,10 +7849,10 @@
         <v>543</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D544" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="545" spans="2:4" x14ac:dyDescent="0.25">
@@ -7863,10 +7860,10 @@
         <v>544</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="546" spans="2:4" x14ac:dyDescent="0.25">
@@ -7874,10 +7871,10 @@
         <v>545</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="547" spans="2:4" x14ac:dyDescent="0.25">
@@ -7885,10 +7882,10 @@
         <v>546</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D547" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="548" spans="2:4" x14ac:dyDescent="0.25">
@@ -7896,10 +7893,10 @@
         <v>547</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="549" spans="2:4" x14ac:dyDescent="0.25">
@@ -7907,10 +7904,10 @@
         <v>548</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D549" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="550" spans="2:4" x14ac:dyDescent="0.25">
@@ -7918,10 +7915,10 @@
         <v>549</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D550" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="551" spans="2:4" x14ac:dyDescent="0.25">
@@ -7929,10 +7926,10 @@
         <v>550</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="552" spans="2:4" x14ac:dyDescent="0.25">
@@ -7940,10 +7937,10 @@
         <v>551</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="553" spans="2:4" x14ac:dyDescent="0.25">
@@ -7951,10 +7948,10 @@
         <v>552</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="554" spans="2:4" x14ac:dyDescent="0.25">
@@ -7962,10 +7959,10 @@
         <v>553</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="555" spans="2:4" x14ac:dyDescent="0.25">
@@ -7973,10 +7970,10 @@
         <v>554</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="556" spans="2:4" x14ac:dyDescent="0.25">
@@ -7984,10 +7981,10 @@
         <v>555</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="557" spans="2:4" x14ac:dyDescent="0.25">
@@ -7995,10 +7992,10 @@
         <v>556</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D557" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="558" spans="2:4" x14ac:dyDescent="0.25">
@@ -8006,10 +8003,10 @@
         <v>557</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D558" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="559" spans="2:4" x14ac:dyDescent="0.25">
@@ -8017,10 +8014,10 @@
         <v>558</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D559" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="560" spans="2:4" x14ac:dyDescent="0.25">
@@ -8028,10 +8025,10 @@
         <v>559</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D560" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="561" spans="2:4" x14ac:dyDescent="0.25">
@@ -8039,10 +8036,10 @@
         <v>560</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="562" spans="2:4" x14ac:dyDescent="0.25">
@@ -8050,10 +8047,10 @@
         <v>561</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="563" spans="2:4" x14ac:dyDescent="0.25">
@@ -8061,10 +8058,10 @@
         <v>562</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D563" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="564" spans="2:4" x14ac:dyDescent="0.25">
@@ -8072,10 +8069,10 @@
         <v>563</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="565" spans="2:4" x14ac:dyDescent="0.25">
@@ -8083,10 +8080,10 @@
         <v>564</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="566" spans="2:4" x14ac:dyDescent="0.25">
@@ -8094,10 +8091,10 @@
         <v>565</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D566" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="567" spans="2:4" x14ac:dyDescent="0.25">
@@ -8105,10 +8102,10 @@
         <v>566</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D567" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="568" spans="2:4" x14ac:dyDescent="0.25">
@@ -8116,10 +8113,10 @@
         <v>567</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D568" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="569" spans="2:4" x14ac:dyDescent="0.25">
@@ -8127,10 +8124,10 @@
         <v>568</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D569" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="570" spans="2:4" x14ac:dyDescent="0.25">
@@ -8138,10 +8135,10 @@
         <v>569</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D570" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="571" spans="2:4" x14ac:dyDescent="0.25">
@@ -8149,10 +8146,10 @@
         <v>570</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="572" spans="2:4" x14ac:dyDescent="0.25">
@@ -8160,10 +8157,10 @@
         <v>571</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D572" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="573" spans="2:4" x14ac:dyDescent="0.25">
@@ -8171,10 +8168,10 @@
         <v>572</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D573" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="574" spans="2:4" x14ac:dyDescent="0.25">
@@ -8182,10 +8179,10 @@
         <v>573</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="575" spans="2:4" x14ac:dyDescent="0.25">
@@ -8193,10 +8190,10 @@
         <v>574</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="576" spans="2:4" x14ac:dyDescent="0.25">
@@ -8204,10 +8201,10 @@
         <v>575</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D576" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="577" spans="2:4" x14ac:dyDescent="0.25">
@@ -8215,10 +8212,10 @@
         <v>576</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D577" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="578" spans="2:4" x14ac:dyDescent="0.25">
@@ -8226,10 +8223,10 @@
         <v>577</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D578" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="579" spans="2:4" x14ac:dyDescent="0.25">
@@ -8237,10 +8234,10 @@
         <v>578</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D579" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="580" spans="2:4" x14ac:dyDescent="0.25">
@@ -8248,10 +8245,10 @@
         <v>579</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D580" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="581" spans="2:4" x14ac:dyDescent="0.25">
@@ -8259,10 +8256,10 @@
         <v>580</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D581" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="582" spans="2:4" x14ac:dyDescent="0.25">
@@ -8270,10 +8267,10 @@
         <v>581</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D582" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="583" spans="2:4" x14ac:dyDescent="0.25">
@@ -8281,10 +8278,10 @@
         <v>582</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D583" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="584" spans="2:4" x14ac:dyDescent="0.25">
@@ -8292,10 +8289,10 @@
         <v>583</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D584" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="585" spans="2:4" x14ac:dyDescent="0.25">
@@ -8303,10 +8300,10 @@
         <v>584</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D585" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="586" spans="2:4" x14ac:dyDescent="0.25">
@@ -8314,10 +8311,10 @@
         <v>585</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="587" spans="2:4" x14ac:dyDescent="0.25">
@@ -8325,10 +8322,10 @@
         <v>586</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D587" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="588" spans="2:4" x14ac:dyDescent="0.25">
@@ -8336,10 +8333,10 @@
         <v>587</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D588" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="589" spans="2:4" x14ac:dyDescent="0.25">
@@ -8347,10 +8344,10 @@
         <v>588</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D589" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="590" spans="2:4" x14ac:dyDescent="0.25">
@@ -8358,10 +8355,10 @@
         <v>589</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D590" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="591" spans="2:4" x14ac:dyDescent="0.25">
@@ -8369,10 +8366,10 @@
         <v>590</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D591" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="592" spans="2:4" x14ac:dyDescent="0.25">
@@ -8380,10 +8377,10 @@
         <v>591</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D592" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="593" spans="2:4" x14ac:dyDescent="0.25">
@@ -8391,10 +8388,10 @@
         <v>592</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D593" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="594" spans="2:4" x14ac:dyDescent="0.25">
@@ -8402,10 +8399,10 @@
         <v>593</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D594" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="595" spans="2:4" x14ac:dyDescent="0.25">
@@ -8413,10 +8410,10 @@
         <v>594</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D595" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="596" spans="2:4" x14ac:dyDescent="0.25">
@@ -8424,10 +8421,10 @@
         <v>595</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D596" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="597" spans="2:4" x14ac:dyDescent="0.25">
@@ -8435,10 +8432,10 @@
         <v>596</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D597" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="598" spans="2:4" x14ac:dyDescent="0.25">
@@ -8446,10 +8443,10 @@
         <v>597</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D598" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="599" spans="2:4" x14ac:dyDescent="0.25">
@@ -8457,10 +8454,10 @@
         <v>598</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D599" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="600" spans="2:4" x14ac:dyDescent="0.25">
@@ -8468,10 +8465,10 @@
         <v>599</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D600" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="601" spans="2:4" x14ac:dyDescent="0.25">
@@ -8479,10 +8476,10 @@
         <v>600</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D601" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="602" spans="2:4" x14ac:dyDescent="0.25">
@@ -8490,10 +8487,10 @@
         <v>601</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D602" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="603" spans="2:4" x14ac:dyDescent="0.25">
@@ -8501,10 +8498,10 @@
         <v>602</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D603" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="604" spans="2:4" x14ac:dyDescent="0.25">
@@ -8512,10 +8509,10 @@
         <v>603</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D604" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="605" spans="2:4" x14ac:dyDescent="0.25">
@@ -8523,10 +8520,10 @@
         <v>604</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D605" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="606" spans="2:4" x14ac:dyDescent="0.25">
@@ -8534,10 +8531,10 @@
         <v>605</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D606" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="607" spans="2:4" x14ac:dyDescent="0.25">
@@ -8545,10 +8542,10 @@
         <v>606</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D607" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="608" spans="2:4" x14ac:dyDescent="0.25">
@@ -8556,10 +8553,10 @@
         <v>607</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D608" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="609" spans="2:4" x14ac:dyDescent="0.25">
@@ -8567,10 +8564,10 @@
         <v>608</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D609" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="610" spans="2:4" x14ac:dyDescent="0.25">
@@ -8578,10 +8575,10 @@
         <v>609</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D610" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="611" spans="2:4" x14ac:dyDescent="0.25">
@@ -8589,10 +8586,10 @@
         <v>610</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="612" spans="2:4" x14ac:dyDescent="0.25">
@@ -8600,10 +8597,10 @@
         <v>611</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D612" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="613" spans="2:4" x14ac:dyDescent="0.25">
@@ -8611,7 +8608,7 @@
         <v>612</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="614" spans="2:4" x14ac:dyDescent="0.25">
@@ -8619,7 +8616,7 @@
         <v>613</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="615" spans="2:4" x14ac:dyDescent="0.25">
@@ -8627,7 +8624,7 @@
         <v>614</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="616" spans="2:4" x14ac:dyDescent="0.25">
@@ -8635,7 +8632,7 @@
         <v>615</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="617" spans="2:4" x14ac:dyDescent="0.25">
@@ -8643,7 +8640,7 @@
         <v>616</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="618" spans="2:4" x14ac:dyDescent="0.25">
@@ -8651,10 +8648,10 @@
         <v>617</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D618" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="619" spans="2:4" x14ac:dyDescent="0.25">
@@ -8662,10 +8659,10 @@
         <v>618</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D619" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="620" spans="2:4" x14ac:dyDescent="0.25">
@@ -8673,10 +8670,10 @@
         <v>619</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D620" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="621" spans="2:4" x14ac:dyDescent="0.25">
@@ -8684,10 +8681,10 @@
         <v>620</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D621" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="622" spans="2:4" x14ac:dyDescent="0.25">
@@ -8695,10 +8692,10 @@
         <v>621</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D622" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="623" spans="2:4" x14ac:dyDescent="0.25">
@@ -8706,10 +8703,10 @@
         <v>622</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D623" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="624" spans="2:4" x14ac:dyDescent="0.25">
@@ -8717,10 +8714,10 @@
         <v>623</v>
       </c>
       <c r="C624" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D624" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="625" spans="2:4" x14ac:dyDescent="0.25">
@@ -8728,10 +8725,10 @@
         <v>624</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D625" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="626" spans="2:4" x14ac:dyDescent="0.25">
@@ -8739,10 +8736,10 @@
         <v>625</v>
       </c>
       <c r="C626" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D626" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="627" spans="2:4" x14ac:dyDescent="0.25">
@@ -8750,10 +8747,10 @@
         <v>626</v>
       </c>
       <c r="C627" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D627" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="628" spans="2:4" x14ac:dyDescent="0.25">
@@ -8761,10 +8758,10 @@
         <v>627</v>
       </c>
       <c r="C628" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="629" spans="2:4" x14ac:dyDescent="0.25">
@@ -8772,10 +8769,10 @@
         <v>628</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D629" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="630" spans="2:4" x14ac:dyDescent="0.25">
@@ -8783,10 +8780,10 @@
         <v>629</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D630" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="631" spans="2:4" x14ac:dyDescent="0.25">
@@ -8794,10 +8791,10 @@
         <v>630</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D631" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="632" spans="2:4" x14ac:dyDescent="0.25">
@@ -8805,10 +8802,10 @@
         <v>631</v>
       </c>
       <c r="C632" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D632" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="633" spans="2:4" x14ac:dyDescent="0.25">
@@ -8816,10 +8813,10 @@
         <v>632</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D633" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="634" spans="2:4" x14ac:dyDescent="0.25">
@@ -8827,10 +8824,10 @@
         <v>633</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D634" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="635" spans="2:4" x14ac:dyDescent="0.25">
@@ -8838,10 +8835,10 @@
         <v>634</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D635" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="636" spans="2:4" x14ac:dyDescent="0.25">
@@ -8849,10 +8846,10 @@
         <v>635</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D636" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="637" spans="2:4" x14ac:dyDescent="0.25">
@@ -8860,10 +8857,10 @@
         <v>636</v>
       </c>
       <c r="C637" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D637" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="638" spans="2:4" x14ac:dyDescent="0.25">
@@ -8871,10 +8868,10 @@
         <v>637</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D638" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="639" spans="2:4" x14ac:dyDescent="0.25">
@@ -8882,10 +8879,10 @@
         <v>638</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D639" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="640" spans="2:4" x14ac:dyDescent="0.25">
@@ -8893,10 +8890,10 @@
         <v>639</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D640" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="641" spans="2:4" x14ac:dyDescent="0.25">
@@ -8904,10 +8901,10 @@
         <v>640</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D641" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="642" spans="2:4" x14ac:dyDescent="0.25">
@@ -8915,10 +8912,10 @@
         <v>641</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="643" spans="2:4" x14ac:dyDescent="0.25">
@@ -8926,10 +8923,10 @@
         <v>642</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="644" spans="2:4" x14ac:dyDescent="0.25">
@@ -8937,10 +8934,10 @@
         <v>643</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D644" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="645" spans="2:4" x14ac:dyDescent="0.25">
@@ -8948,10 +8945,10 @@
         <v>644</v>
       </c>
       <c r="C645" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D645" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="646" spans="2:4" x14ac:dyDescent="0.25">
@@ -8959,10 +8956,10 @@
         <v>645</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D646" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="647" spans="2:4" x14ac:dyDescent="0.25">
@@ -8970,10 +8967,10 @@
         <v>646</v>
       </c>
       <c r="C647" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D647" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="648" spans="2:4" x14ac:dyDescent="0.25">
@@ -8981,10 +8978,10 @@
         <v>647</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="649" spans="2:4" x14ac:dyDescent="0.25">
@@ -8992,10 +8989,10 @@
         <v>648</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="650" spans="2:4" x14ac:dyDescent="0.25">
@@ -9003,10 +9000,10 @@
         <v>649</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D650" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="651" spans="2:4" x14ac:dyDescent="0.25">
@@ -9014,10 +9011,10 @@
         <v>650</v>
       </c>
       <c r="C651" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D651" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="652" spans="2:4" x14ac:dyDescent="0.25">
@@ -9025,10 +9022,10 @@
         <v>651</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D652" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="653" spans="2:4" x14ac:dyDescent="0.25">
@@ -9036,10 +9033,10 @@
         <v>652</v>
       </c>
       <c r="C653" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="654" spans="2:4" x14ac:dyDescent="0.25">
@@ -9047,10 +9044,10 @@
         <v>653</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="655" spans="2:4" x14ac:dyDescent="0.25">
@@ -9058,10 +9055,10 @@
         <v>654</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="656" spans="2:4" x14ac:dyDescent="0.25">
@@ -9069,10 +9066,10 @@
         <v>655</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="657" spans="2:4" x14ac:dyDescent="0.25">
@@ -9080,10 +9077,10 @@
         <v>656</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D657" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="658" spans="2:4" x14ac:dyDescent="0.25">
@@ -9091,10 +9088,10 @@
         <v>657</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D658" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="659" spans="2:4" x14ac:dyDescent="0.25">
@@ -9102,10 +9099,10 @@
         <v>658</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="660" spans="2:4" x14ac:dyDescent="0.25">
@@ -9113,10 +9110,10 @@
         <v>659</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="661" spans="2:4" x14ac:dyDescent="0.25">
@@ -9124,10 +9121,10 @@
         <v>660</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D661" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="662" spans="2:4" x14ac:dyDescent="0.25">
@@ -9135,10 +9132,10 @@
         <v>661</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D662" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="663" spans="2:4" x14ac:dyDescent="0.25">
@@ -9146,10 +9143,10 @@
         <v>662</v>
       </c>
       <c r="C663" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D663" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="664" spans="2:4" x14ac:dyDescent="0.25">
@@ -9157,10 +9154,10 @@
         <v>663</v>
       </c>
       <c r="C664" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D664" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="665" spans="2:4" x14ac:dyDescent="0.25">
@@ -9168,10 +9165,10 @@
         <v>664</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D665" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="666" spans="2:4" x14ac:dyDescent="0.25">
@@ -9179,10 +9176,10 @@
         <v>665</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D666" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="667" spans="2:4" x14ac:dyDescent="0.25">
@@ -9190,10 +9187,10 @@
         <v>666</v>
       </c>
       <c r="C667" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D667" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="668" spans="2:4" x14ac:dyDescent="0.25">
@@ -9201,10 +9198,10 @@
         <v>667</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D668" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="669" spans="2:4" x14ac:dyDescent="0.25">
@@ -9212,10 +9209,10 @@
         <v>668</v>
       </c>
       <c r="C669" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D669" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="670" spans="2:4" x14ac:dyDescent="0.25">
@@ -9223,10 +9220,10 @@
         <v>669</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D670" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="671" spans="2:4" x14ac:dyDescent="0.25">
@@ -9234,10 +9231,10 @@
         <v>670</v>
       </c>
       <c r="C671" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D671" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="672" spans="2:4" x14ac:dyDescent="0.25">
@@ -9245,10 +9242,10 @@
         <v>671</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D672" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="673" spans="2:4" x14ac:dyDescent="0.25">
@@ -9256,10 +9253,10 @@
         <v>672</v>
       </c>
       <c r="C673" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D673" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="674" spans="2:4" x14ac:dyDescent="0.25">
@@ -9267,10 +9264,10 @@
         <v>673</v>
       </c>
       <c r="C674" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D674" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="675" spans="2:4" x14ac:dyDescent="0.25">
@@ -9278,10 +9275,10 @@
         <v>674</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D675" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="676" spans="2:4" x14ac:dyDescent="0.25">
@@ -9289,10 +9286,10 @@
         <v>675</v>
       </c>
       <c r="C676" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D676" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="677" spans="2:4" x14ac:dyDescent="0.25">
@@ -9300,10 +9297,10 @@
         <v>676</v>
       </c>
       <c r="C677" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D677" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="678" spans="2:4" x14ac:dyDescent="0.25">
@@ -9311,10 +9308,10 @@
         <v>677</v>
       </c>
       <c r="C678" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D678" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="679" spans="2:4" x14ac:dyDescent="0.25">
@@ -9322,10 +9319,10 @@
         <v>678</v>
       </c>
       <c r="C679" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D679" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="680" spans="2:4" x14ac:dyDescent="0.25">
@@ -9333,10 +9330,10 @@
         <v>679</v>
       </c>
       <c r="C680" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="681" spans="2:4" x14ac:dyDescent="0.25">
@@ -9344,10 +9341,10 @@
         <v>680</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D681" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="682" spans="2:4" x14ac:dyDescent="0.25">
@@ -9355,10 +9352,10 @@
         <v>681</v>
       </c>
       <c r="C682" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D682" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="683" spans="2:4" x14ac:dyDescent="0.25">
@@ -9366,10 +9363,10 @@
         <v>682</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D683" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="684" spans="2:4" x14ac:dyDescent="0.25">
@@ -9377,10 +9374,10 @@
         <v>683</v>
       </c>
       <c r="C684" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D684" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="685" spans="2:4" x14ac:dyDescent="0.25">
@@ -9388,10 +9385,10 @@
         <v>684</v>
       </c>
       <c r="C685" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D685" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="686" spans="2:4" x14ac:dyDescent="0.25">
@@ -9399,10 +9396,10 @@
         <v>685</v>
       </c>
       <c r="C686" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D686" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="687" spans="2:4" x14ac:dyDescent="0.25">
@@ -9410,10 +9407,10 @@
         <v>686</v>
       </c>
       <c r="C687" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D687" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="688" spans="2:4" x14ac:dyDescent="0.25">
@@ -9421,10 +9418,10 @@
         <v>687</v>
       </c>
       <c r="C688" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D688" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="689" spans="2:4" x14ac:dyDescent="0.25">
@@ -9432,10 +9429,10 @@
         <v>688</v>
       </c>
       <c r="C689" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D689" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="690" spans="2:4" x14ac:dyDescent="0.25">
@@ -9443,10 +9440,10 @@
         <v>689</v>
       </c>
       <c r="C690" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D690" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="691" spans="2:4" x14ac:dyDescent="0.25">
@@ -9454,10 +9451,10 @@
         <v>690</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D691" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="692" spans="2:4" x14ac:dyDescent="0.25">
@@ -9465,10 +9462,10 @@
         <v>691</v>
       </c>
       <c r="C692" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D692" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="693" spans="2:4" x14ac:dyDescent="0.25">
@@ -9476,10 +9473,10 @@
         <v>692</v>
       </c>
       <c r="C693" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D693" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="694" spans="2:4" x14ac:dyDescent="0.25">
@@ -9487,10 +9484,10 @@
         <v>693</v>
       </c>
       <c r="C694" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D694" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="695" spans="2:4" x14ac:dyDescent="0.25">
@@ -9498,10 +9495,10 @@
         <v>694</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D695" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="696" spans="2:4" x14ac:dyDescent="0.25">
@@ -9509,10 +9506,10 @@
         <v>695</v>
       </c>
       <c r="C696" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D696" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="697" spans="2:4" x14ac:dyDescent="0.25">
@@ -9520,10 +9517,10 @@
         <v>696</v>
       </c>
       <c r="C697" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D697" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="698" spans="2:4" x14ac:dyDescent="0.25">
@@ -9531,10 +9528,10 @@
         <v>697</v>
       </c>
       <c r="C698" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D698" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="699" spans="2:4" x14ac:dyDescent="0.25">
@@ -9542,10 +9539,10 @@
         <v>698</v>
       </c>
       <c r="C699" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D699" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="700" spans="2:4" x14ac:dyDescent="0.25">
@@ -9553,10 +9550,10 @@
         <v>699</v>
       </c>
       <c r="C700" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D700" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="701" spans="2:4" x14ac:dyDescent="0.25">
@@ -9564,10 +9561,10 @@
         <v>700</v>
       </c>
       <c r="C701" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D701" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="702" spans="2:4" x14ac:dyDescent="0.25">
@@ -9575,10 +9572,10 @@
         <v>701</v>
       </c>
       <c r="C702" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D702" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="703" spans="2:4" x14ac:dyDescent="0.25">
@@ -9586,10 +9583,10 @@
         <v>702</v>
       </c>
       <c r="C703" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D703" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="704" spans="2:4" x14ac:dyDescent="0.25">
@@ -9597,10 +9594,10 @@
         <v>703</v>
       </c>
       <c r="C704" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D704" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="705" spans="2:4" x14ac:dyDescent="0.25">
@@ -9608,10 +9605,10 @@
         <v>704</v>
       </c>
       <c r="C705" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D705" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="706" spans="2:4" x14ac:dyDescent="0.25">
@@ -9619,10 +9616,10 @@
         <v>705</v>
       </c>
       <c r="C706" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D706" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="707" spans="2:4" x14ac:dyDescent="0.25">
@@ -9630,10 +9627,10 @@
         <v>706</v>
       </c>
       <c r="C707" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D707" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="708" spans="2:4" x14ac:dyDescent="0.25">
@@ -9641,10 +9638,10 @@
         <v>707</v>
       </c>
       <c r="C708" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D708" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="709" spans="2:4" x14ac:dyDescent="0.25">
@@ -9652,10 +9649,10 @@
         <v>708</v>
       </c>
       <c r="C709" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D709" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="710" spans="2:4" x14ac:dyDescent="0.25">
@@ -9663,10 +9660,10 @@
         <v>709</v>
       </c>
       <c r="C710" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D710" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="711" spans="2:4" x14ac:dyDescent="0.25">
@@ -9674,10 +9671,10 @@
         <v>710</v>
       </c>
       <c r="C711" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D711" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="712" spans="2:4" x14ac:dyDescent="0.25">
@@ -9685,10 +9682,10 @@
         <v>711</v>
       </c>
       <c r="C712" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D712" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="713" spans="2:4" x14ac:dyDescent="0.25">
@@ -9696,10 +9693,10 @@
         <v>712</v>
       </c>
       <c r="C713" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D713" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="714" spans="2:4" x14ac:dyDescent="0.25">
@@ -9707,10 +9704,10 @@
         <v>713</v>
       </c>
       <c r="C714" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D714" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="715" spans="2:4" x14ac:dyDescent="0.25">
@@ -9718,10 +9715,10 @@
         <v>714</v>
       </c>
       <c r="C715" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D715" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="716" spans="2:4" x14ac:dyDescent="0.25">
@@ -9729,10 +9726,10 @@
         <v>715</v>
       </c>
       <c r="C716" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D716" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="717" spans="2:4" x14ac:dyDescent="0.25">
@@ -9740,10 +9737,10 @@
         <v>716</v>
       </c>
       <c r="C717" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D717" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="718" spans="2:4" x14ac:dyDescent="0.25">
@@ -9751,10 +9748,10 @@
         <v>717</v>
       </c>
       <c r="C718" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D718" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="719" spans="2:4" x14ac:dyDescent="0.25">
@@ -9762,10 +9759,10 @@
         <v>718</v>
       </c>
       <c r="C719" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D719" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="720" spans="2:4" x14ac:dyDescent="0.25">
@@ -9773,10 +9770,10 @@
         <v>719</v>
       </c>
       <c r="C720" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D720" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="721" spans="2:4" x14ac:dyDescent="0.25">
@@ -9784,10 +9781,10 @@
         <v>720</v>
       </c>
       <c r="C721" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D721" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="722" spans="2:4" x14ac:dyDescent="0.25">
@@ -9795,10 +9792,10 @@
         <v>721</v>
       </c>
       <c r="C722" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D722" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="723" spans="2:4" x14ac:dyDescent="0.25">
@@ -9806,10 +9803,10 @@
         <v>722</v>
       </c>
       <c r="C723" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D723" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="724" spans="2:4" x14ac:dyDescent="0.25">
@@ -9817,10 +9814,10 @@
         <v>723</v>
       </c>
       <c r="C724" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D724" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="725" spans="2:4" x14ac:dyDescent="0.25">
@@ -9828,10 +9825,10 @@
         <v>724</v>
       </c>
       <c r="C725" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D725" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="726" spans="2:4" x14ac:dyDescent="0.25">
@@ -9839,10 +9836,10 @@
         <v>725</v>
       </c>
       <c r="C726" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D726" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="727" spans="2:4" x14ac:dyDescent="0.25">
@@ -9850,10 +9847,10 @@
         <v>726</v>
       </c>
       <c r="C727" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D727" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="728" spans="2:4" x14ac:dyDescent="0.25">
@@ -9861,10 +9858,10 @@
         <v>727</v>
       </c>
       <c r="C728" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D728" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="729" spans="2:4" x14ac:dyDescent="0.25">
@@ -9872,10 +9869,10 @@
         <v>728</v>
       </c>
       <c r="C729" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D729" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="730" spans="2:4" x14ac:dyDescent="0.25">
@@ -9883,10 +9880,10 @@
         <v>729</v>
       </c>
       <c r="C730" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D730" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="731" spans="2:4" x14ac:dyDescent="0.25">
@@ -9894,10 +9891,10 @@
         <v>730</v>
       </c>
       <c r="C731" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D731" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="732" spans="2:4" x14ac:dyDescent="0.25">
@@ -9905,10 +9902,10 @@
         <v>731</v>
       </c>
       <c r="C732" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D732" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="733" spans="2:4" x14ac:dyDescent="0.25">
@@ -9916,10 +9913,10 @@
         <v>732</v>
       </c>
       <c r="C733" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D733" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="734" spans="2:4" x14ac:dyDescent="0.25">
@@ -9927,10 +9924,10 @@
         <v>733</v>
       </c>
       <c r="C734" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D734" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="735" spans="2:4" x14ac:dyDescent="0.25">
@@ -9938,10 +9935,10 @@
         <v>734</v>
       </c>
       <c r="C735" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D735" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="736" spans="2:4" x14ac:dyDescent="0.25">
@@ -9949,10 +9946,10 @@
         <v>735</v>
       </c>
       <c r="C736" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D736" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="737" spans="2:4" x14ac:dyDescent="0.25">
@@ -9960,10 +9957,10 @@
         <v>736</v>
       </c>
       <c r="C737" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D737" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="738" spans="2:4" x14ac:dyDescent="0.25">
@@ -9971,10 +9968,10 @@
         <v>737</v>
       </c>
       <c r="C738" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D738" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="739" spans="2:4" x14ac:dyDescent="0.25">
@@ -9982,10 +9979,10 @@
         <v>738</v>
       </c>
       <c r="C739" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D739" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="740" spans="2:4" x14ac:dyDescent="0.25">
@@ -9993,10 +9990,10 @@
         <v>739</v>
       </c>
       <c r="C740" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D740" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="741" spans="2:4" x14ac:dyDescent="0.25">
@@ -10004,10 +10001,10 @@
         <v>740</v>
       </c>
       <c r="C741" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D741" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="742" spans="2:4" x14ac:dyDescent="0.25">
@@ -10015,10 +10012,10 @@
         <v>741</v>
       </c>
       <c r="C742" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D742" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="743" spans="2:4" x14ac:dyDescent="0.25">
@@ -10026,10 +10023,10 @@
         <v>742</v>
       </c>
       <c r="C743" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D743" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="744" spans="2:4" x14ac:dyDescent="0.25">
@@ -10037,10 +10034,10 @@
         <v>743</v>
       </c>
       <c r="C744" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D744" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="745" spans="2:4" x14ac:dyDescent="0.25">
@@ -10048,10 +10045,10 @@
         <v>744</v>
       </c>
       <c r="C745" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D745" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="746" spans="2:4" x14ac:dyDescent="0.25">
@@ -10059,10 +10056,10 @@
         <v>745</v>
       </c>
       <c r="C746" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D746" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="747" spans="2:4" x14ac:dyDescent="0.25">
@@ -10070,10 +10067,10 @@
         <v>746</v>
       </c>
       <c r="C747" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D747" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="748" spans="2:4" x14ac:dyDescent="0.25">
@@ -10081,10 +10078,10 @@
         <v>747</v>
       </c>
       <c r="C748" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D748" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="749" spans="2:4" x14ac:dyDescent="0.25">
@@ -10092,10 +10089,10 @@
         <v>748</v>
       </c>
       <c r="C749" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D749" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="750" spans="2:4" x14ac:dyDescent="0.25">
@@ -10103,10 +10100,10 @@
         <v>749</v>
       </c>
       <c r="C750" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D750" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="751" spans="2:4" x14ac:dyDescent="0.25">
@@ -10114,10 +10111,10 @@
         <v>750</v>
       </c>
       <c r="C751" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D751" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="752" spans="2:4" x14ac:dyDescent="0.25">
@@ -10125,10 +10122,10 @@
         <v>751</v>
       </c>
       <c r="C752" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D752" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="753" spans="2:4" x14ac:dyDescent="0.25">
@@ -10136,10 +10133,10 @@
         <v>752</v>
       </c>
       <c r="C753" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D753" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="754" spans="2:4" x14ac:dyDescent="0.25">
@@ -10147,10 +10144,10 @@
         <v>753</v>
       </c>
       <c r="C754" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D754" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="755" spans="2:4" x14ac:dyDescent="0.25">
@@ -10158,10 +10155,10 @@
         <v>754</v>
       </c>
       <c r="C755" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D755" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="756" spans="2:4" x14ac:dyDescent="0.25">
@@ -10169,10 +10166,10 @@
         <v>755</v>
       </c>
       <c r="C756" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D756" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="757" spans="2:4" x14ac:dyDescent="0.25">
@@ -10180,10 +10177,10 @@
         <v>756</v>
       </c>
       <c r="C757" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D757" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="758" spans="2:4" x14ac:dyDescent="0.25">
@@ -10191,10 +10188,10 @@
         <v>757</v>
       </c>
       <c r="C758" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D758" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="759" spans="2:4" x14ac:dyDescent="0.25">
@@ -10202,7 +10199,7 @@
         <v>758</v>
       </c>
       <c r="C759" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="760" spans="2:4" x14ac:dyDescent="0.25">
@@ -10210,10 +10207,10 @@
         <v>759</v>
       </c>
       <c r="C760" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D760" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="761" spans="2:4" x14ac:dyDescent="0.25">
@@ -10221,7 +10218,7 @@
         <v>760</v>
       </c>
       <c r="C761" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="762" spans="2:4" x14ac:dyDescent="0.25">
@@ -10229,7 +10226,7 @@
         <v>761</v>
       </c>
       <c r="C762" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="763" spans="2:4" x14ac:dyDescent="0.25">
@@ -10237,7 +10234,7 @@
         <v>762</v>
       </c>
       <c r="C763" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="764" spans="2:4" x14ac:dyDescent="0.25">
@@ -10245,7 +10242,7 @@
         <v>763</v>
       </c>
       <c r="C764" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="765" spans="2:4" x14ac:dyDescent="0.25">
@@ -10253,7 +10250,7 @@
         <v>764</v>
       </c>
       <c r="C765" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="766" spans="2:4" x14ac:dyDescent="0.25">
@@ -10261,7 +10258,7 @@
         <v>765</v>
       </c>
       <c r="C766" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="767" spans="2:4" x14ac:dyDescent="0.25">
@@ -10269,7 +10266,7 @@
         <v>766</v>
       </c>
       <c r="C767" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="768" spans="2:4" x14ac:dyDescent="0.25">
@@ -10277,7 +10274,7 @@
         <v>767</v>
       </c>
       <c r="C768" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="769" spans="2:4" x14ac:dyDescent="0.25">
@@ -10285,7 +10282,7 @@
         <v>768</v>
       </c>
       <c r="C769" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="770" spans="2:4" x14ac:dyDescent="0.25">
@@ -10293,7 +10290,7 @@
         <v>769</v>
       </c>
       <c r="C770" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="771" spans="2:4" x14ac:dyDescent="0.25">
@@ -10301,7 +10298,7 @@
         <v>770</v>
       </c>
       <c r="C771" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="772" spans="2:4" x14ac:dyDescent="0.25">
@@ -10309,7 +10306,7 @@
         <v>771</v>
       </c>
       <c r="C772" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="773" spans="2:4" x14ac:dyDescent="0.25">
@@ -10317,7 +10314,7 @@
         <v>772</v>
       </c>
       <c r="C773" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="774" spans="2:4" x14ac:dyDescent="0.25">
@@ -10325,7 +10322,7 @@
         <v>773</v>
       </c>
       <c r="C774" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="775" spans="2:4" x14ac:dyDescent="0.25">
@@ -10333,6 +10330,9 @@
         <v>774</v>
       </c>
       <c r="C775" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D775" s="1" t="s">
         <v>784</v>
       </c>
     </row>
@@ -10341,10 +10341,10 @@
         <v>775</v>
       </c>
       <c r="C776" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D776" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="777" spans="2:4" x14ac:dyDescent="0.25">
@@ -10352,10 +10352,10 @@
         <v>776</v>
       </c>
       <c r="C777" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D777" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="778" spans="2:4" x14ac:dyDescent="0.25">
@@ -10363,10 +10363,10 @@
         <v>777</v>
       </c>
       <c r="C778" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D778" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="779" spans="2:4" x14ac:dyDescent="0.25">
@@ -10374,10 +10374,10 @@
         <v>778</v>
       </c>
       <c r="C779" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D779" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="780" spans="2:4" x14ac:dyDescent="0.25">
@@ -10385,10 +10385,10 @@
         <v>779</v>
       </c>
       <c r="C780" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D780" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="781" spans="2:4" x14ac:dyDescent="0.25">
@@ -10396,25 +10396,17 @@
         <v>780</v>
       </c>
       <c r="C781" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D781" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="782" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B782" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="C782" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="D782" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"SIM"</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10424,9 +10416,6 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"SIM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="793">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2467,7 +2467,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2770,7 +2794,7 @@
   <dimension ref="B1:D781"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C663" sqref="C663"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2875,6 +2899,9 @@
       <c r="C9" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -2883,6 +2910,9 @@
       <c r="C10" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -2891,6 +2921,9 @@
       <c r="C11" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -2899,6 +2932,9 @@
       <c r="C12" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -2907,6 +2943,9 @@
       <c r="C13" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -2915,6 +2954,9 @@
       <c r="C14" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -2923,6 +2965,9 @@
       <c r="C15" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -2931,1680 +2976,2310 @@
       <c r="C16" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D76" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D84" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D85" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D86" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D87" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D88" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D89" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D91" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D92" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D93" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D94" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D96" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D97" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D98" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D99" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D100" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D101" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D102" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D103" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D104" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D105" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D106" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D107" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D108" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D109" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D110" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D111" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D112" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D113" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D114" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D115" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D116" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D117" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D118" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D119" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D120" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D121" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D122" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D123" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D124" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D125" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D126" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D127" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D128" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D129" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D130" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D131" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D132" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D133" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D134" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D135" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D136" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D137" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D138" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D139" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D140" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D141" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D142" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D143" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D144" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D145" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D146" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D147" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D148" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D149" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D150" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D151" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D152" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D153" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D154" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D155" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D156" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D157" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D158" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D159" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D160" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D161" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D162" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D163" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D164" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D165" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D166" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D167" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D168" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D169" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D170" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>170</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D171" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>171</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D172" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
         <v>172</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D173" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D174" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>174</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D175" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D176" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D177" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>177</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D178" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D179" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D180" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D181" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D182" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D183" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D184" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D185" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D186" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D187" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D188" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>188</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D189" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
         <v>189</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D190" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
         <v>190</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D191" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D192" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D193" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
         <v>193</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D194" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
         <v>194</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D195" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D196" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D197" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D198" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D199" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D200" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D201" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D202" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D203" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D204" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
         <v>204</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D205" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D206" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D207" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B208" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D208" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" s="1" t="s">
         <v>208</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D209" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D210" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D211" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D212" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" s="1" t="s">
         <v>212</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D213" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
         <v>213</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D214" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" s="1" t="s">
         <v>214</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D215" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D216" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D217" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D218" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
         <v>218</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D219" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D220" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D221" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D222" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D223" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D224" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D225" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B226" s="1" t="s">
         <v>225</v>
       </c>
@@ -4612,7 +5287,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
         <v>226</v>
       </c>
@@ -4620,7 +5295,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
         <v>227</v>
       </c>
@@ -4628,7 +5303,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
         <v>228</v>
       </c>
@@ -4636,7 +5311,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
         <v>229</v>
       </c>
@@ -4644,596 +5319,818 @@
         <v>783</v>
       </c>
     </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
         <v>230</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D231" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D232" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
         <v>232</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D233" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
         <v>233</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D234" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
         <v>234</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D235" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
         <v>235</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D236" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B237" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D237" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
         <v>237</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D238" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
         <v>238</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D239" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D240" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D241" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D242" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
         <v>242</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D243" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B244" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D244" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B245" s="1" t="s">
         <v>244</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D245" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
         <v>245</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D246" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
         <v>246</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D247" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B248" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D248" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
         <v>248</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D249" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B250" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D250" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B251" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D251" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B252" s="1" t="s">
         <v>251</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D252" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B253" s="1" t="s">
         <v>252</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D253" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B254" s="1" t="s">
         <v>253</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D254" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B255" s="1" t="s">
         <v>254</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D255" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B256" s="1" t="s">
         <v>255</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D256" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B257" s="1" t="s">
         <v>256</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D257" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B258" s="1" t="s">
         <v>257</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D258" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B259" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D259" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B260" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D260" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" s="1" t="s">
         <v>260</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D261" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B262" s="1" t="s">
         <v>261</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D262" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B263" s="1" t="s">
         <v>262</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D263" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B264" s="1" t="s">
         <v>263</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D264" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B265" s="1" t="s">
         <v>264</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D265" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B266" s="1" t="s">
         <v>265</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D266" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B267" s="1" t="s">
         <v>266</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D267" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B268" s="1" t="s">
         <v>267</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D268" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B269" s="1" t="s">
         <v>268</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D269" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B270" s="1" t="s">
         <v>269</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D270" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B271" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D271" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B272" s="1" t="s">
         <v>271</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D272" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B273" s="1" t="s">
         <v>272</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D273" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B274" s="1" t="s">
         <v>273</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D274" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B275" s="1" t="s">
         <v>274</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D275" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B276" s="1" t="s">
         <v>275</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D276" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B277" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D277" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B278" s="1" t="s">
         <v>277</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D278" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B279" s="1" t="s">
         <v>278</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D279" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B280" s="1" t="s">
         <v>279</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D280" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B281" s="1" t="s">
         <v>280</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D281" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B282" s="1" t="s">
         <v>281</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D282" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B283" s="1" t="s">
         <v>282</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D283" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B284" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D284" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B285" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D285" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B286" s="1" t="s">
         <v>285</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D286" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B287" s="1" t="s">
         <v>286</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D287" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B288" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D288" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B289" s="1" t="s">
         <v>288</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D289" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
         <v>289</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D290" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B291" s="1" t="s">
         <v>290</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D291" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B292" s="1" t="s">
         <v>291</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D292" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B293" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D293" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B294" s="1" t="s">
         <v>293</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D294" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B295" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D295" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B296" s="1" t="s">
         <v>295</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D296" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B297" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D297" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B298" s="1" t="s">
         <v>297</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D298" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B299" s="1" t="s">
         <v>298</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D299" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B300" s="1" t="s">
         <v>299</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D300" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B301" s="1" t="s">
         <v>300</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D301" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B302" s="1" t="s">
         <v>301</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D302" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B303" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D303" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B304" s="1" t="s">
         <v>303</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>783</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.25">
@@ -5243,6 +6140,9 @@
       <c r="C305" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D305" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B306" s="1" t="s">
@@ -5251,6 +6151,9 @@
       <c r="C306" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D306" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B307" s="1" t="s">
@@ -5259,6 +6162,9 @@
       <c r="C307" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D307" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B308" s="1" t="s">
@@ -5267,6 +6173,9 @@
       <c r="C308" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D308" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B309" s="1" t="s">
@@ -8978,7 +9887,7 @@
         <v>647</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D648" s="1" t="s">
         <v>789</v>
@@ -8989,7 +9898,7 @@
         <v>648</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D649" s="1" t="s">
         <v>789</v>
@@ -9000,7 +9909,7 @@
         <v>649</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D650" s="1" t="s">
         <v>789</v>
@@ -9011,7 +9920,7 @@
         <v>650</v>
       </c>
       <c r="C651" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D651" s="1" t="s">
         <v>789</v>
@@ -9022,7 +9931,7 @@
         <v>651</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D652" s="1" t="s">
         <v>789</v>
@@ -10404,7 +11313,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -10419,7 +11328,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2479,6 +2479,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
@@ -2486,6 +2489,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
@@ -2793,8 +2799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C663" sqref="C663"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="E306" sqref="E306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2897,7 +2903,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>789</v>
@@ -2908,7 +2914,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>789</v>
@@ -2919,7 +2925,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>789</v>
@@ -2930,7 +2936,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>789</v>
@@ -2941,7 +2947,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>789</v>
@@ -2952,7 +2958,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>789</v>
@@ -2963,7 +2969,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>789</v>
@@ -2974,7 +2980,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>789</v>
@@ -2985,7 +2991,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>789</v>
@@ -2996,7 +3002,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>789</v>
@@ -3007,7 +3013,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>789</v>
@@ -3018,7 +3024,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>789</v>
@@ -3029,7 +3035,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>789</v>
@@ -3040,7 +3046,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>789</v>
@@ -3051,7 +3057,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>789</v>
@@ -3062,7 +3068,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>789</v>
@@ -3073,7 +3079,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>789</v>
@@ -3084,7 +3090,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>789</v>
@@ -3095,7 +3101,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>789</v>
@@ -3106,7 +3112,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>789</v>
@@ -3117,7 +3123,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>789</v>
@@ -3128,7 +3134,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>789</v>
@@ -3139,7 +3145,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>789</v>
@@ -3150,7 +3156,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>789</v>
@@ -3161,7 +3167,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>789</v>
@@ -3172,7 +3178,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>789</v>
@@ -3183,7 +3189,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>789</v>
@@ -3194,7 +3200,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>789</v>
@@ -3205,7 +3211,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>789</v>
@@ -3216,7 +3222,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>789</v>
@@ -3227,7 +3233,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>789</v>
@@ -3238,7 +3244,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>789</v>
@@ -3249,7 +3255,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>789</v>
@@ -3260,7 +3266,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>789</v>
@@ -3271,7 +3277,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>789</v>
@@ -3282,7 +3288,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>789</v>
@@ -3293,7 +3299,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>789</v>
@@ -3304,7 +3310,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>789</v>
@@ -3315,7 +3321,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>789</v>
@@ -3326,7 +3332,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>789</v>
@@ -3337,7 +3343,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>789</v>
@@ -3348,7 +3354,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>789</v>
@@ -3359,7 +3365,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>789</v>
@@ -3370,7 +3376,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>789</v>
@@ -3381,7 +3387,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>789</v>
@@ -3392,7 +3398,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>789</v>
@@ -3403,7 +3409,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>789</v>
@@ -3414,7 +3420,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>789</v>
@@ -3425,7 +3431,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>789</v>
@@ -3436,7 +3442,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>789</v>
@@ -3447,7 +3453,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>789</v>
@@ -3458,7 +3464,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>789</v>
@@ -3469,7 +3475,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>789</v>
@@ -3480,7 +3486,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>789</v>
@@ -3491,7 +3497,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>789</v>
@@ -3502,7 +3508,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>789</v>
@@ -3513,7 +3519,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>789</v>
@@ -3524,7 +3530,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>789</v>
@@ -3535,7 +3541,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>789</v>
@@ -3546,7 +3552,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>789</v>
@@ -3557,7 +3563,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>789</v>
@@ -3568,7 +3574,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>789</v>
@@ -3579,7 +3585,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>789</v>
@@ -3590,7 +3596,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>789</v>
@@ -3601,7 +3607,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>789</v>
@@ -3612,7 +3618,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>789</v>
@@ -3623,7 +3629,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>789</v>
@@ -3634,7 +3640,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>789</v>
@@ -3645,7 +3651,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>789</v>
@@ -3656,7 +3662,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>789</v>
@@ -3667,7 +3673,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>789</v>
@@ -3678,7 +3684,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>789</v>
@@ -3689,7 +3695,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>789</v>
@@ -3700,7 +3706,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>789</v>
@@ -3711,7 +3717,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>789</v>
@@ -3722,7 +3728,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>789</v>
@@ -3733,7 +3739,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>789</v>
@@ -3744,7 +3750,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>789</v>
@@ -3755,7 +3761,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>789</v>
@@ -3766,7 +3772,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>789</v>
@@ -3777,7 +3783,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>789</v>
@@ -3788,7 +3794,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>789</v>
@@ -3799,7 +3805,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>789</v>
@@ -3810,7 +3816,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>789</v>
@@ -3821,7 +3827,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>789</v>
@@ -3832,7 +3838,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>789</v>
@@ -3843,7 +3849,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>789</v>
@@ -3854,7 +3860,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>789</v>
@@ -3865,7 +3871,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>789</v>
@@ -3876,7 +3882,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>789</v>
@@ -3887,7 +3893,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>789</v>
@@ -3898,7 +3904,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>789</v>
@@ -3909,7 +3915,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>789</v>
@@ -3920,7 +3926,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>789</v>
@@ -3931,7 +3937,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>789</v>
@@ -3942,7 +3948,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>789</v>
@@ -3953,7 +3959,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>789</v>
@@ -3964,7 +3970,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>789</v>
@@ -3975,7 +3981,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>789</v>
@@ -3986,7 +3992,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>789</v>
@@ -3997,7 +4003,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>789</v>
@@ -4008,7 +4014,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>789</v>
@@ -4019,7 +4025,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>789</v>
@@ -4030,7 +4036,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>789</v>
@@ -4041,7 +4047,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>789</v>
@@ -4052,7 +4058,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>789</v>
@@ -4063,7 +4069,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>789</v>
@@ -4074,7 +4080,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>789</v>
@@ -4085,7 +4091,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>789</v>
@@ -4096,7 +4102,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>789</v>
@@ -4107,7 +4113,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>789</v>
@@ -4118,7 +4124,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>789</v>
@@ -4129,7 +4135,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>789</v>
@@ -4140,7 +4146,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>789</v>
@@ -4151,7 +4157,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>789</v>
@@ -4162,7 +4168,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>789</v>
@@ -4173,7 +4179,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>789</v>
@@ -4184,7 +4190,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>789</v>
@@ -4195,7 +4201,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>789</v>
@@ -4206,7 +4212,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>789</v>
@@ -4217,7 +4223,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>789</v>
@@ -4228,7 +4234,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>789</v>
@@ -4239,7 +4245,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>789</v>
@@ -4250,7 +4256,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>789</v>
@@ -4261,7 +4267,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>789</v>
@@ -4272,7 +4278,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>789</v>
@@ -4283,7 +4289,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>789</v>
@@ -4294,7 +4300,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>789</v>
@@ -4305,7 +4311,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>789</v>
@@ -4316,7 +4322,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>789</v>
@@ -4327,7 +4333,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>789</v>
@@ -4338,7 +4344,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>789</v>
@@ -4349,7 +4355,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>789</v>
@@ -4360,7 +4366,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>789</v>
@@ -4371,7 +4377,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>789</v>
@@ -4382,7 +4388,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>789</v>
@@ -4393,7 +4399,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>789</v>
@@ -4404,7 +4410,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>789</v>
@@ -4415,7 +4421,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>789</v>
@@ -4426,7 +4432,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>789</v>
@@ -4437,7 +4443,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>789</v>
@@ -4448,7 +4454,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>789</v>
@@ -4459,7 +4465,7 @@
         <v>150</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>789</v>
@@ -4470,7 +4476,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>789</v>
@@ -4481,7 +4487,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>789</v>
@@ -4492,7 +4498,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>789</v>
@@ -4503,7 +4509,7 @@
         <v>154</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>789</v>
@@ -4514,7 +4520,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>789</v>
@@ -4525,7 +4531,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>789</v>
@@ -4536,7 +4542,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>789</v>
@@ -4547,7 +4553,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>789</v>
@@ -4558,7 +4564,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>789</v>
@@ -4569,7 +4575,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>789</v>
@@ -4580,7 +4586,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>789</v>
@@ -4591,7 +4597,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>789</v>
@@ -4602,7 +4608,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>789</v>
@@ -4613,7 +4619,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>789</v>
@@ -4624,7 +4630,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>789</v>
@@ -4635,7 +4641,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>789</v>
@@ -4646,7 +4652,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>789</v>
@@ -4657,7 +4663,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>789</v>
@@ -4668,7 +4674,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>789</v>
@@ -4679,7 +4685,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>789</v>
@@ -4690,7 +4696,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>789</v>
@@ -4701,7 +4707,7 @@
         <v>172</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>789</v>
@@ -4712,7 +4718,7 @@
         <v>173</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>789</v>
@@ -4723,7 +4729,7 @@
         <v>174</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>789</v>
@@ -4734,7 +4740,7 @@
         <v>175</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>789</v>
@@ -4745,7 +4751,7 @@
         <v>176</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>789</v>
@@ -4756,7 +4762,7 @@
         <v>177</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>789</v>
@@ -4767,7 +4773,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>789</v>
@@ -4778,7 +4784,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>789</v>
@@ -4789,7 +4795,7 @@
         <v>180</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>789</v>
@@ -4800,7 +4806,7 @@
         <v>181</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>789</v>
@@ -4811,7 +4817,7 @@
         <v>182</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>789</v>
@@ -4822,7 +4828,7 @@
         <v>183</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>789</v>
@@ -4833,7 +4839,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>789</v>
@@ -4844,7 +4850,7 @@
         <v>185</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>789</v>
@@ -4855,7 +4861,7 @@
         <v>186</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>789</v>
@@ -4866,7 +4872,7 @@
         <v>187</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>789</v>
@@ -4877,7 +4883,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>789</v>
@@ -4888,7 +4894,7 @@
         <v>189</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>789</v>
@@ -4899,7 +4905,7 @@
         <v>190</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>789</v>
@@ -4910,7 +4916,7 @@
         <v>191</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>789</v>
@@ -4921,7 +4927,7 @@
         <v>192</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>789</v>
@@ -4932,7 +4938,7 @@
         <v>193</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>789</v>
@@ -4943,7 +4949,7 @@
         <v>194</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>789</v>
@@ -4954,7 +4960,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>789</v>
@@ -4965,7 +4971,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>789</v>
@@ -4976,7 +4982,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>789</v>
@@ -4987,7 +4993,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>789</v>
@@ -4998,7 +5004,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>789</v>
@@ -5009,7 +5015,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>789</v>
@@ -5020,7 +5026,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>789</v>
@@ -5031,7 +5037,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>789</v>
@@ -5042,7 +5048,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>789</v>
@@ -5053,7 +5059,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>789</v>
@@ -5064,7 +5070,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>789</v>
@@ -5075,7 +5081,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>789</v>
@@ -5086,7 +5092,7 @@
         <v>207</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>789</v>
@@ -5097,7 +5103,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>789</v>
@@ -5108,7 +5114,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>789</v>
@@ -5119,7 +5125,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>789</v>
@@ -5130,7 +5136,7 @@
         <v>211</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>789</v>
@@ -5141,7 +5147,7 @@
         <v>212</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>789</v>
@@ -5152,7 +5158,7 @@
         <v>213</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>789</v>
@@ -5163,7 +5169,7 @@
         <v>214</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>789</v>
@@ -5174,7 +5180,7 @@
         <v>215</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>789</v>
@@ -5185,7 +5191,7 @@
         <v>216</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>789</v>
@@ -5196,7 +5202,7 @@
         <v>217</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>789</v>
@@ -5207,7 +5213,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>789</v>
@@ -5218,7 +5224,7 @@
         <v>219</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>789</v>
@@ -5229,7 +5235,7 @@
         <v>220</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>789</v>
@@ -5240,7 +5246,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>789</v>
@@ -5251,7 +5257,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>789</v>
@@ -5262,7 +5268,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>789</v>
@@ -5273,7 +5279,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>789</v>
@@ -5324,7 +5330,7 @@
         <v>230</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>789</v>
@@ -5335,7 +5341,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>789</v>
@@ -5346,7 +5352,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>789</v>
@@ -5357,7 +5363,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>789</v>
@@ -5368,7 +5374,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>789</v>
@@ -5379,7 +5385,7 @@
         <v>235</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>789</v>
@@ -5390,7 +5396,7 @@
         <v>236</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>789</v>
@@ -5401,7 +5407,7 @@
         <v>237</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>789</v>
@@ -5412,7 +5418,7 @@
         <v>238</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>789</v>
@@ -5423,7 +5429,7 @@
         <v>239</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>789</v>
@@ -5434,7 +5440,7 @@
         <v>240</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>789</v>
@@ -5445,7 +5451,7 @@
         <v>241</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>789</v>
@@ -5456,7 +5462,7 @@
         <v>242</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>789</v>
@@ -5467,7 +5473,7 @@
         <v>243</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>789</v>
@@ -5478,7 +5484,7 @@
         <v>244</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>789</v>
@@ -5489,7 +5495,7 @@
         <v>245</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>789</v>
@@ -5500,7 +5506,7 @@
         <v>246</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>789</v>
@@ -5511,7 +5517,7 @@
         <v>247</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>789</v>
@@ -5522,7 +5528,7 @@
         <v>248</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>789</v>
@@ -5533,7 +5539,7 @@
         <v>249</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>789</v>
@@ -5544,7 +5550,7 @@
         <v>250</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>789</v>
@@ -5555,7 +5561,7 @@
         <v>251</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>789</v>
@@ -5566,7 +5572,7 @@
         <v>252</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>789</v>
@@ -5577,7 +5583,7 @@
         <v>253</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>789</v>
@@ -5588,7 +5594,7 @@
         <v>254</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>789</v>
@@ -5599,7 +5605,7 @@
         <v>255</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>789</v>
@@ -5610,7 +5616,7 @@
         <v>256</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>789</v>
@@ -5621,7 +5627,7 @@
         <v>257</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>789</v>
@@ -5632,7 +5638,7 @@
         <v>258</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>789</v>
@@ -5643,7 +5649,7 @@
         <v>259</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>789</v>
@@ -5654,7 +5660,7 @@
         <v>260</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>789</v>
@@ -5665,7 +5671,7 @@
         <v>261</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>789</v>
@@ -5676,7 +5682,7 @@
         <v>262</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>789</v>
@@ -5687,7 +5693,7 @@
         <v>263</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>789</v>
@@ -5698,7 +5704,7 @@
         <v>264</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>789</v>
@@ -5709,7 +5715,7 @@
         <v>265</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>789</v>
@@ -5720,7 +5726,7 @@
         <v>266</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>789</v>
@@ -5731,7 +5737,7 @@
         <v>267</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>789</v>
@@ -5742,7 +5748,7 @@
         <v>268</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>789</v>
@@ -5753,7 +5759,7 @@
         <v>269</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>789</v>
@@ -5764,7 +5770,7 @@
         <v>270</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>789</v>
@@ -5775,7 +5781,7 @@
         <v>271</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>789</v>
@@ -5786,7 +5792,7 @@
         <v>272</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>789</v>
@@ -5797,7 +5803,7 @@
         <v>273</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>789</v>
@@ -5808,7 +5814,7 @@
         <v>274</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>789</v>
@@ -5819,7 +5825,7 @@
         <v>275</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>789</v>
@@ -5830,7 +5836,7 @@
         <v>276</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>789</v>
@@ -5841,7 +5847,7 @@
         <v>277</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>789</v>
@@ -5852,7 +5858,7 @@
         <v>278</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>789</v>
@@ -5863,7 +5869,7 @@
         <v>279</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>789</v>
@@ -5874,7 +5880,7 @@
         <v>280</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>789</v>
@@ -5885,7 +5891,7 @@
         <v>281</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>789</v>
@@ -5896,7 +5902,7 @@
         <v>282</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>789</v>
@@ -5907,7 +5913,7 @@
         <v>283</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>789</v>
@@ -5918,7 +5924,7 @@
         <v>284</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>789</v>
@@ -5929,7 +5935,7 @@
         <v>285</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>789</v>
@@ -5940,7 +5946,7 @@
         <v>286</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>789</v>
@@ -5951,7 +5957,7 @@
         <v>287</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>789</v>
@@ -5962,7 +5968,7 @@
         <v>288</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>789</v>
@@ -5973,7 +5979,7 @@
         <v>289</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>789</v>
@@ -5984,7 +5990,7 @@
         <v>290</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>789</v>
@@ -5995,7 +6001,7 @@
         <v>291</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>789</v>
@@ -6006,7 +6012,7 @@
         <v>292</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>789</v>
@@ -6017,7 +6023,7 @@
         <v>293</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>789</v>
@@ -6028,7 +6034,7 @@
         <v>294</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>789</v>
@@ -6039,7 +6045,7 @@
         <v>295</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>789</v>
@@ -6050,7 +6056,7 @@
         <v>296</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>789</v>
@@ -6061,7 +6067,7 @@
         <v>297</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>789</v>
@@ -6072,7 +6078,7 @@
         <v>298</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>789</v>
@@ -6083,7 +6089,7 @@
         <v>299</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>789</v>
@@ -6094,7 +6100,7 @@
         <v>300</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>789</v>
@@ -6105,7 +6111,7 @@
         <v>301</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>789</v>
@@ -6116,7 +6122,7 @@
         <v>302</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>789</v>
@@ -6127,7 +6133,7 @@
         <v>303</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>789</v>
@@ -6138,7 +6144,7 @@
         <v>304</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>789</v>
@@ -6149,7 +6155,7 @@
         <v>305</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>789</v>
@@ -6160,7 +6166,7 @@
         <v>306</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>789</v>
@@ -6171,7 +6177,7 @@
         <v>307</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>789</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="793">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2467,11 +2467,8 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="14">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
@@ -2479,9 +2476,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
@@ -2489,9 +2483,69 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
@@ -2799,8 +2853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="E306" sqref="E306"/>
+    <sheetView tabSelected="1" topLeftCell="A751" workbookViewId="0">
+      <selection activeCell="D774" sqref="D774"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5308,6 +5362,9 @@
       <c r="C228" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D228" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
@@ -5316,6 +5373,9 @@
       <c r="C229" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D229" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
@@ -5324,6 +5384,9 @@
       <c r="C230" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D230" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
@@ -6190,6 +6253,9 @@
       <c r="C309" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D309" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B310" s="1" t="s">
@@ -6206,6 +6272,9 @@
       <c r="C311" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D311" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B312" s="1" t="s">
@@ -11135,6 +11204,9 @@
       <c r="C761" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D761" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="762" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B762" s="1" t="s">
@@ -11151,6 +11223,9 @@
       <c r="C763" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D763" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="764" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B764" s="1" t="s">
@@ -11159,6 +11234,9 @@
       <c r="C764" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D764" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="765" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B765" s="1" t="s">
@@ -11175,6 +11253,9 @@
       <c r="C766" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D766" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="767" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B767" s="1" t="s">
@@ -11183,6 +11264,9 @@
       <c r="C767" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D767" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="768" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B768" s="1" t="s">
@@ -11199,6 +11283,9 @@
       <c r="C769" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D769" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="770" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B770" s="1" t="s">
@@ -11207,6 +11294,9 @@
       <c r="C770" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D770" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="771" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B771" s="1" t="s">
@@ -11215,6 +11305,9 @@
       <c r="C771" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D771" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="772" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B772" s="1" t="s">
@@ -11223,6 +11316,9 @@
       <c r="C772" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D772" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="773" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B773" s="1" t="s">
@@ -11239,6 +11335,9 @@
       <c r="C774" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D774" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="775" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B775" s="1" t="s">
@@ -11319,7 +11418,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -11334,7 +11433,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\danger\traducoes\traducao-blue-dragon-xbox360\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BD\traducao-blue-dragon-xbox360\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="794">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2403,6 +2403,9 @@
   </si>
   <si>
     <t>uds</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -2467,91 +2470,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -2853,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A751" workbookViewId="0">
-      <selection activeCell="D774" sqref="D774"/>
+    <sheetView tabSelected="1" topLeftCell="A599" workbookViewId="0">
+      <selection activeCell="C611" sqref="C611"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9559,7 +9478,7 @@
         <v>609</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="D610" s="1" t="s">
         <v>784</v>
@@ -9570,7 +9489,7 @@
         <v>610</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="D611" s="1" t="s">
         <v>784</v>
@@ -11418,7 +11337,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -11433,7 +11352,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BD\traducao-blue-dragon-xbox360\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\danger\traducoes\traducao-blue-dragon-xbox360\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2470,7 +2470,137 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2772,9 +2902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A599" workbookViewId="0">
-      <selection activeCell="C611" sqref="C611"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5279,7 +5407,7 @@
         <v>227</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>789</v>
@@ -5290,7 +5418,7 @@
         <v>228</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>789</v>
@@ -5301,7 +5429,7 @@
         <v>229</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>789</v>
@@ -6170,7 +6298,7 @@
         <v>308</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>789</v>
@@ -6189,7 +6317,7 @@
         <v>310</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>789</v>
@@ -11121,7 +11249,7 @@
         <v>760</v>
       </c>
       <c r="C761" s="1" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="D761" s="1" t="s">
         <v>789</v>
@@ -11140,7 +11268,7 @@
         <v>762</v>
       </c>
       <c r="C763" s="1" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="D763" s="1" t="s">
         <v>789</v>
@@ -11151,7 +11279,7 @@
         <v>763</v>
       </c>
       <c r="C764" s="1" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="D764" s="1" t="s">
         <v>789</v>
@@ -11170,7 +11298,7 @@
         <v>765</v>
       </c>
       <c r="C766" s="1" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="D766" s="1" t="s">
         <v>789</v>
@@ -11181,7 +11309,7 @@
         <v>766</v>
       </c>
       <c r="C767" s="1" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="D767" s="1" t="s">
         <v>789</v>
@@ -11200,7 +11328,7 @@
         <v>768</v>
       </c>
       <c r="C769" s="1" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="D769" s="1" t="s">
         <v>789</v>
@@ -11211,7 +11339,7 @@
         <v>769</v>
       </c>
       <c r="C770" s="1" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="D770" s="1" t="s">
         <v>789</v>
@@ -11222,7 +11350,7 @@
         <v>770</v>
       </c>
       <c r="C771" s="1" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="D771" s="1" t="s">
         <v>789</v>
@@ -11233,7 +11361,7 @@
         <v>771</v>
       </c>
       <c r="C772" s="1" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="D772" s="1" t="s">
         <v>789</v>
@@ -11252,7 +11380,7 @@
         <v>773</v>
       </c>
       <c r="C774" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D774" s="1" t="s">
         <v>789</v>
@@ -11337,7 +11465,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -11352,7 +11480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\danger\traducoes\traducao-blue-dragon-xbox360\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BD\traducao-blue-dragon-xbox360\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2470,137 +2470,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -2902,7 +2772,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A638" workbookViewId="0">
+      <selection activeCell="C645" sqref="C645"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9965,7 +9837,7 @@
         <v>643</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D644" s="1" t="s">
         <v>784</v>
@@ -11465,7 +11337,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -11480,7 +11352,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2773,7 +2773,7 @@
   <dimension ref="B1:D781"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A638" workbookViewId="0">
-      <selection activeCell="C645" sqref="C645"/>
+      <selection activeCell="C644" sqref="C644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9826,7 +9826,7 @@
         <v>642</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D643" s="1" t="s">
         <v>784</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A638" workbookViewId="0">
-      <selection activeCell="C644" sqref="C644"/>
+    <sheetView tabSelected="1" topLeftCell="A637" workbookViewId="0">
+      <selection activeCell="C639" sqref="C639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9771,7 +9771,7 @@
         <v>637</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D638" s="1" t="s">
         <v>784</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="794">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A637" workbookViewId="0">
-      <selection activeCell="C639" sqref="C639"/>
+    <sheetView tabSelected="1" topLeftCell="A763" workbookViewId="0">
+      <selection activeCell="D781" sqref="D781"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11319,9 +11319,6 @@
       </c>
       <c r="C780" s="1" t="s">
         <v>783</v>
-      </c>
-      <c r="D780" s="1" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="781" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A763" workbookViewId="0">
-      <selection activeCell="D781" sqref="D781"/>
+    <sheetView tabSelected="1" topLeftCell="A633" workbookViewId="0">
+      <selection activeCell="C645" sqref="C645"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9848,7 +9848,7 @@
         <v>644</v>
       </c>
       <c r="C645" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D645" s="1" t="s">
         <v>784</v>
@@ -11307,7 +11307,7 @@
         <v>778</v>
       </c>
       <c r="C779" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D779" s="1" t="s">
         <v>784</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2773,7 +2773,7 @@
   <dimension ref="B1:D781"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A633" workbookViewId="0">
-      <selection activeCell="C645" sqref="C645"/>
+      <selection activeCell="C636" sqref="C636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9749,7 +9749,7 @@
         <v>635</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D636" s="1" t="s">
         <v>784</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A633" workbookViewId="0">
-      <selection activeCell="C636" sqref="C636"/>
+    <sheetView tabSelected="1" topLeftCell="A623" workbookViewId="0">
+      <selection activeCell="C627" sqref="C627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9650,7 +9650,7 @@
         <v>626</v>
       </c>
       <c r="C627" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D627" s="1" t="s">
         <v>784</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2773,7 +2773,7 @@
   <dimension ref="B1:D781"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A623" workbookViewId="0">
-      <selection activeCell="C627" sqref="C627"/>
+      <selection activeCell="C636" sqref="C636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9738,7 +9738,7 @@
         <v>634</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D635" s="1" t="s">
         <v>784</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A623" workbookViewId="0">
-      <selection activeCell="C636" sqref="C636"/>
+    <sheetView tabSelected="1" topLeftCell="A640" workbookViewId="0">
+      <selection activeCell="C647" sqref="C647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9859,7 +9859,7 @@
         <v>645</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D646" s="1" t="s">
         <v>784</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A640" workbookViewId="0">
-      <selection activeCell="C647" sqref="C647"/>
+    <sheetView tabSelected="1" topLeftCell="A617" workbookViewId="0">
+      <selection activeCell="C624" sqref="C624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9606,7 +9606,7 @@
         <v>622</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D623" s="1" t="s">
         <v>784</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2773,7 +2773,7 @@
   <dimension ref="B1:D781"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A617" workbookViewId="0">
-      <selection activeCell="C624" sqref="C624"/>
+      <selection activeCell="C625" sqref="C625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9617,7 +9617,7 @@
         <v>623</v>
       </c>
       <c r="C624" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D624" s="1" t="s">
         <v>784</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BD\traducao-blue-dragon-xbox360\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\danger\traducoes\traducao-blue-dragon-xbox360\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2470,7 +2470,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2772,8 +2782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A617" workbookViewId="0">
-      <selection activeCell="C625" sqref="C625"/>
+    <sheetView tabSelected="1" topLeftCell="A614" workbookViewId="0">
+      <selection activeCell="C652" sqref="C652:C663"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9936,7 +9946,7 @@
         <v>652</v>
       </c>
       <c r="C653" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D653" s="1" t="s">
         <v>789</v>
@@ -9947,7 +9957,7 @@
         <v>653</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D654" s="1" t="s">
         <v>789</v>
@@ -9958,7 +9968,7 @@
         <v>654</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D655" s="1" t="s">
         <v>789</v>
@@ -9969,7 +9979,7 @@
         <v>655</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D656" s="1" t="s">
         <v>789</v>
@@ -9980,7 +9990,7 @@
         <v>656</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D657" s="1" t="s">
         <v>789</v>
@@ -9991,7 +10001,7 @@
         <v>657</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D658" s="1" t="s">
         <v>789</v>
@@ -10002,7 +10012,7 @@
         <v>658</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D659" s="1" t="s">
         <v>789</v>
@@ -10013,7 +10023,7 @@
         <v>659</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D660" s="1" t="s">
         <v>789</v>
@@ -10024,7 +10034,7 @@
         <v>660</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D661" s="1" t="s">
         <v>789</v>
@@ -10035,7 +10045,7 @@
         <v>661</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D662" s="1" t="s">
         <v>789</v>
@@ -10046,7 +10056,7 @@
         <v>662</v>
       </c>
       <c r="C663" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D663" s="1" t="s">
         <v>789</v>
@@ -11334,7 +11344,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -11349,7 +11359,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\danger\traducoes\traducao-blue-dragon-xbox360\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BD\traducao-blue-dragon-xbox360\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2470,17 +2470,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -2783,7 +2773,7 @@
   <dimension ref="B1:D781"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A614" workbookViewId="0">
-      <selection activeCell="C652" sqref="C652:C663"/>
+      <selection activeCell="C627" sqref="C627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9649,7 +9639,7 @@
         <v>625</v>
       </c>
       <c r="C626" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D626" s="1" t="s">
         <v>784</v>
@@ -11344,7 +11334,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -11359,7 +11349,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2773,7 +2773,7 @@
   <dimension ref="B1:D781"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A614" workbookViewId="0">
-      <selection activeCell="C627" sqref="C627"/>
+      <selection activeCell="C634" sqref="C634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9716,7 +9716,7 @@
         <v>632</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D633" s="1" t="s">
         <v>784</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A614" workbookViewId="0">
-      <selection activeCell="C634" sqref="C634"/>
+    <sheetView tabSelected="1" topLeftCell="A619" workbookViewId="0">
+      <selection activeCell="C633" sqref="C633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9705,7 +9705,7 @@
         <v>631</v>
       </c>
       <c r="C632" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D632" s="1" t="s">
         <v>784</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A619" workbookViewId="0">
-      <selection activeCell="C633" sqref="C633"/>
+    <sheetView tabSelected="1" topLeftCell="A623" workbookViewId="0">
+      <selection activeCell="C640" sqref="C640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9782,7 +9782,7 @@
         <v>638</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D639" s="1" t="s">
         <v>784</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A623" workbookViewId="0">
-      <selection activeCell="C640" sqref="C640"/>
+    <sheetView tabSelected="1" topLeftCell="A611" workbookViewId="0">
+      <selection activeCell="C622" sqref="C622"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9584,7 +9584,7 @@
         <v>620</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D621" s="1" t="s">
         <v>784</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A611" workbookViewId="0">
-      <selection activeCell="C622" sqref="C622"/>
+    <sheetView tabSelected="1" topLeftCell="A605" workbookViewId="0">
+      <selection activeCell="C612" sqref="C612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9500,7 +9500,7 @@
         <v>611</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D612" s="1" t="s">
         <v>784</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="793">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2397,9 +2397,6 @@
   </si>
   <si>
     <t>Sim</t>
-  </si>
-  <si>
-    <t>*sim</t>
   </si>
   <si>
     <t>uds</t>
@@ -2772,8 +2769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A605" workbookViewId="0">
-      <selection activeCell="C612" sqref="C612"/>
+    <sheetView tabSelected="1" topLeftCell="A611" workbookViewId="0">
+      <selection activeCell="C619" sqref="C619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8557,7 +8554,7 @@
         <v>785</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="527" spans="2:4" x14ac:dyDescent="0.25">
@@ -9478,7 +9475,7 @@
         <v>609</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D610" s="1" t="s">
         <v>784</v>
@@ -9489,7 +9486,7 @@
         <v>610</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D611" s="1" t="s">
         <v>784</v>
@@ -9551,7 +9548,7 @@
         <v>617</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="D618" s="1" t="s">
         <v>784</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="793">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2769,8 +2769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A611" workbookViewId="0">
-      <selection activeCell="C619" sqref="C619"/>
+    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
+      <selection activeCell="D311" sqref="D311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6179,6 +6179,9 @@
       </c>
       <c r="C310" s="1" t="s">
         <v>783</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BD\traducao-blue-dragon-xbox360\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\danger\traducoes\traducao-blue-dragon-xbox360\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="794">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2403,6 +2403,9 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>UDS/cfarl</t>
   </si>
 </sst>
 </file>
@@ -2467,7 +2470,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2769,8 +2782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="D311" sqref="D311"/>
+    <sheetView tabSelected="1" topLeftCell="A612" workbookViewId="0">
+      <selection activeCell="D630" sqref="D630"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9683,10 +9696,10 @@
         <v>629</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D630" s="1" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
     </row>
     <row r="631" spans="2:4" x14ac:dyDescent="0.25">
@@ -11334,7 +11347,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -11349,7 +11362,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\danger\traducoes\traducao-blue-dragon-xbox360\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="795">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2406,6 +2401,9 @@
   </si>
   <si>
     <t>UDS/cfarl</t>
+  </si>
+  <si>
+    <t>sem texto</t>
   </si>
 </sst>
 </file>
@@ -2470,11 +2468,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
@@ -2772,7 +2777,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2782,8 +2787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A612" workbookViewId="0">
-      <selection activeCell="D630" sqref="D630"/>
+    <sheetView tabSelected="1" topLeftCell="A604" workbookViewId="0">
+      <selection activeCell="C615" sqref="C615:C617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9540,7 +9545,10 @@
         <v>614</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
+      </c>
+      <c r="D615" s="1" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="616" spans="2:4" x14ac:dyDescent="0.25">
@@ -9548,7 +9556,10 @@
         <v>615</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
+      </c>
+      <c r="D616" s="1" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="617" spans="2:4" x14ac:dyDescent="0.25">
@@ -9556,7 +9567,10 @@
         <v>616</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
+      </c>
+      <c r="D617" s="1" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="618" spans="2:4" x14ac:dyDescent="0.25">
@@ -11115,7 +11129,10 @@
         <v>758</v>
       </c>
       <c r="C759" s="1" t="s">
-        <v>783</v>
+        <v>790</v>
+      </c>
+      <c r="D759" s="1" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="760" spans="2:4" x14ac:dyDescent="0.25">
@@ -11175,7 +11192,10 @@
         <v>764</v>
       </c>
       <c r="C765" s="1" t="s">
-        <v>783</v>
+        <v>790</v>
+      </c>
+      <c r="D765" s="1" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="766" spans="2:4" x14ac:dyDescent="0.25">
@@ -11205,7 +11225,10 @@
         <v>767</v>
       </c>
       <c r="C768" s="1" t="s">
-        <v>783</v>
+        <v>790</v>
+      </c>
+      <c r="D768" s="1" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="769" spans="2:4" x14ac:dyDescent="0.25">
@@ -11331,7 +11354,10 @@
         <v>779</v>
       </c>
       <c r="C780" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
+      </c>
+      <c r="D780" s="1" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="781" spans="2:4" x14ac:dyDescent="0.25">
@@ -11347,7 +11373,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -11362,7 +11388,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="795">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2468,24 +2468,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -2787,8 +2770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A604" workbookViewId="0">
-      <selection activeCell="C615" sqref="C615:C617"/>
+    <sheetView tabSelected="1" topLeftCell="A766" workbookViewId="0">
+      <selection activeCell="C774" sqref="C774"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5280,6 +5263,9 @@
       <c r="C226" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D226" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
@@ -5288,6 +5274,9 @@
       <c r="C227" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D227" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
@@ -9537,7 +9526,10 @@
         <v>613</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
+      </c>
+      <c r="D614" s="1" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="615" spans="2:4" x14ac:dyDescent="0.25">
@@ -11282,6 +11274,9 @@
       <c r="C773" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="D773" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="774" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B774" s="1" t="s">
@@ -11373,7 +11368,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -11388,7 +11383,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\danger\traducoes\traducao-blue-dragon-xbox360\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -2468,7 +2473,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2760,7 +2775,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2770,8 +2785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A766" workbookViewId="0">
-      <selection activeCell="C774" sqref="C774"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="G232" sqref="G232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5261,7 +5276,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>789</v>
@@ -11368,7 +11383,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -11383,7 +11398,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="795">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2473,11 +2473,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
@@ -2785,8 +2792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="G232" sqref="G232"/>
+    <sheetView tabSelected="1" topLeftCell="A757" workbookViewId="0">
+      <selection activeCell="C761" sqref="C761:C762"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11169,7 +11176,10 @@
         <v>761</v>
       </c>
       <c r="C762" s="1" t="s">
-        <v>783</v>
+        <v>790</v>
+      </c>
+      <c r="D762" s="1" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="763" spans="2:4" x14ac:dyDescent="0.25">
@@ -11383,7 +11393,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -11398,7 +11408,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\danger\traducoes\traducao-blue-dragon-xbox360\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BLUE DRAGON\traducao-blue-dragon-xbox360\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2473,24 +2473,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -2792,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A757" workbookViewId="0">
-      <selection activeCell="C761" sqref="C761:C762"/>
+    <sheetView tabSelected="1" topLeftCell="A627" workbookViewId="0">
+      <selection activeCell="C629" sqref="C629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9702,7 +9685,7 @@
         <v>627</v>
       </c>
       <c r="C628" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D628" s="1" t="s">
         <v>787</v>
@@ -11393,7 +11376,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -11408,7 +11391,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2775,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A627" workbookViewId="0">
-      <selection activeCell="C629" sqref="C629"/>
+    <sheetView tabSelected="1" topLeftCell="A756" workbookViewId="0">
+      <selection activeCell="D756" sqref="D756"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5280,7 +5280,7 @@
         <v>783</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="794">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2382,9 +2382,6 @@
   </si>
   <si>
     <t>SIM</t>
-  </si>
-  <si>
-    <t>*SIM</t>
   </si>
   <si>
     <t>juminho</t>
@@ -2776,7 +2773,7 @@
   <dimension ref="B1:D781"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A756" workbookViewId="0">
-      <selection activeCell="D756" sqref="D756"/>
+      <selection activeCell="C760" sqref="C760"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2882,7 +2879,7 @@
         <v>785</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -2893,7 +2890,7 @@
         <v>785</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -2904,7 +2901,7 @@
         <v>785</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -2915,7 +2912,7 @@
         <v>785</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -2926,7 +2923,7 @@
         <v>785</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
@@ -2937,7 +2934,7 @@
         <v>785</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
@@ -2948,7 +2945,7 @@
         <v>785</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
@@ -2959,7 +2956,7 @@
         <v>785</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -2970,7 +2967,7 @@
         <v>785</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -2981,7 +2978,7 @@
         <v>785</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -2992,7 +2989,7 @@
         <v>785</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -3003,7 +3000,7 @@
         <v>785</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -3014,7 +3011,7 @@
         <v>785</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -3025,7 +3022,7 @@
         <v>785</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
@@ -3036,7 +3033,7 @@
         <v>785</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
@@ -3047,7 +3044,7 @@
         <v>785</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -3058,7 +3055,7 @@
         <v>785</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
@@ -3069,7 +3066,7 @@
         <v>785</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
@@ -3080,7 +3077,7 @@
         <v>785</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -3091,7 +3088,7 @@
         <v>785</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
@@ -3102,7 +3099,7 @@
         <v>785</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
@@ -3113,7 +3110,7 @@
         <v>785</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
@@ -3124,7 +3121,7 @@
         <v>785</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
@@ -3135,7 +3132,7 @@
         <v>785</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
@@ -3146,7 +3143,7 @@
         <v>785</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -3157,7 +3154,7 @@
         <v>785</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -3168,7 +3165,7 @@
         <v>785</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -3179,7 +3176,7 @@
         <v>785</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
@@ -3190,7 +3187,7 @@
         <v>785</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
@@ -3201,7 +3198,7 @@
         <v>785</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
@@ -3212,7 +3209,7 @@
         <v>785</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -3223,7 +3220,7 @@
         <v>785</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
@@ -3234,7 +3231,7 @@
         <v>785</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
@@ -3245,7 +3242,7 @@
         <v>785</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
@@ -3256,7 +3253,7 @@
         <v>785</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
@@ -3267,7 +3264,7 @@
         <v>785</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
@@ -3278,7 +3275,7 @@
         <v>785</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
@@ -3289,7 +3286,7 @@
         <v>785</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
@@ -3300,7 +3297,7 @@
         <v>785</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
@@ -3311,7 +3308,7 @@
         <v>785</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
@@ -3322,7 +3319,7 @@
         <v>785</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
@@ -3333,7 +3330,7 @@
         <v>785</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
@@ -3344,7 +3341,7 @@
         <v>785</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
@@ -3355,7 +3352,7 @@
         <v>785</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
@@ -3366,7 +3363,7 @@
         <v>785</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
@@ -3377,7 +3374,7 @@
         <v>785</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
@@ -3388,7 +3385,7 @@
         <v>785</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
@@ -3399,7 +3396,7 @@
         <v>785</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
@@ -3410,7 +3407,7 @@
         <v>785</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
@@ -3421,7 +3418,7 @@
         <v>785</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
@@ -3432,7 +3429,7 @@
         <v>785</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
@@ -3443,7 +3440,7 @@
         <v>785</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
@@ -3454,7 +3451,7 @@
         <v>785</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
@@ -3465,7 +3462,7 @@
         <v>785</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
@@ -3476,7 +3473,7 @@
         <v>785</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
@@ -3487,7 +3484,7 @@
         <v>785</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
@@ -3498,7 +3495,7 @@
         <v>785</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -3509,7 +3506,7 @@
         <v>785</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
@@ -3520,7 +3517,7 @@
         <v>785</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -3531,7 +3528,7 @@
         <v>785</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
@@ -3542,7 +3539,7 @@
         <v>785</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
@@ -3553,7 +3550,7 @@
         <v>785</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
@@ -3564,7 +3561,7 @@
         <v>785</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
@@ -3575,7 +3572,7 @@
         <v>785</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
@@ -3586,7 +3583,7 @@
         <v>785</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
@@ -3597,7 +3594,7 @@
         <v>785</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
@@ -3608,7 +3605,7 @@
         <v>785</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
@@ -3619,7 +3616,7 @@
         <v>785</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
@@ -3630,7 +3627,7 @@
         <v>785</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
@@ -3641,7 +3638,7 @@
         <v>785</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
@@ -3652,7 +3649,7 @@
         <v>785</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
@@ -3663,7 +3660,7 @@
         <v>785</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
@@ -3674,7 +3671,7 @@
         <v>785</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
@@ -3685,7 +3682,7 @@
         <v>785</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
@@ -3696,7 +3693,7 @@
         <v>785</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
@@ -3707,7 +3704,7 @@
         <v>785</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
@@ -3718,7 +3715,7 @@
         <v>785</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
@@ -3729,7 +3726,7 @@
         <v>785</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
@@ -3740,7 +3737,7 @@
         <v>785</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
@@ -3751,7 +3748,7 @@
         <v>785</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
@@ -3762,7 +3759,7 @@
         <v>785</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
@@ -3773,7 +3770,7 @@
         <v>785</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
@@ -3784,7 +3781,7 @@
         <v>785</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
@@ -3795,7 +3792,7 @@
         <v>785</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
@@ -3806,7 +3803,7 @@
         <v>785</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
@@ -3817,7 +3814,7 @@
         <v>785</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
@@ -3828,7 +3825,7 @@
         <v>785</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
@@ -3839,7 +3836,7 @@
         <v>785</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
@@ -3850,7 +3847,7 @@
         <v>785</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
@@ -3861,7 +3858,7 @@
         <v>785</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
@@ -3872,7 +3869,7 @@
         <v>785</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
@@ -3883,7 +3880,7 @@
         <v>785</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
@@ -3894,7 +3891,7 @@
         <v>785</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
@@ -3905,7 +3902,7 @@
         <v>785</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
@@ -3916,7 +3913,7 @@
         <v>785</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
@@ -3927,7 +3924,7 @@
         <v>785</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
@@ -3938,7 +3935,7 @@
         <v>785</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
@@ -3949,7 +3946,7 @@
         <v>785</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
@@ -3960,7 +3957,7 @@
         <v>785</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
@@ -3971,7 +3968,7 @@
         <v>785</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
@@ -3982,7 +3979,7 @@
         <v>785</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
@@ -3993,7 +3990,7 @@
         <v>785</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
@@ -4004,7 +4001,7 @@
         <v>785</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
@@ -4015,7 +4012,7 @@
         <v>785</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
@@ -4026,7 +4023,7 @@
         <v>785</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
@@ -4037,7 +4034,7 @@
         <v>785</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
@@ -4048,7 +4045,7 @@
         <v>785</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
@@ -4059,7 +4056,7 @@
         <v>785</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
@@ -4070,7 +4067,7 @@
         <v>785</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
@@ -4081,7 +4078,7 @@
         <v>785</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
@@ -4092,7 +4089,7 @@
         <v>785</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
@@ -4103,7 +4100,7 @@
         <v>785</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
@@ -4114,7 +4111,7 @@
         <v>785</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
@@ -4125,7 +4122,7 @@
         <v>785</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
@@ -4136,7 +4133,7 @@
         <v>785</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
@@ -4147,7 +4144,7 @@
         <v>785</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
@@ -4158,7 +4155,7 @@
         <v>785</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
@@ -4169,7 +4166,7 @@
         <v>785</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
@@ -4180,7 +4177,7 @@
         <v>785</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
@@ -4191,7 +4188,7 @@
         <v>785</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
@@ -4202,7 +4199,7 @@
         <v>785</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
@@ -4213,7 +4210,7 @@
         <v>785</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
@@ -4224,7 +4221,7 @@
         <v>785</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
@@ -4235,7 +4232,7 @@
         <v>785</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
@@ -4246,7 +4243,7 @@
         <v>785</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
@@ -4257,7 +4254,7 @@
         <v>785</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
@@ -4268,7 +4265,7 @@
         <v>785</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
@@ -4279,7 +4276,7 @@
         <v>785</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
@@ -4290,7 +4287,7 @@
         <v>785</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
@@ -4301,7 +4298,7 @@
         <v>785</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
@@ -4312,7 +4309,7 @@
         <v>785</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
@@ -4323,7 +4320,7 @@
         <v>785</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
@@ -4334,7 +4331,7 @@
         <v>785</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
@@ -4345,7 +4342,7 @@
         <v>785</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
@@ -4356,7 +4353,7 @@
         <v>785</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
@@ -4367,7 +4364,7 @@
         <v>785</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
@@ -4378,7 +4375,7 @@
         <v>785</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
@@ -4389,7 +4386,7 @@
         <v>785</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
@@ -4400,7 +4397,7 @@
         <v>785</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
@@ -4411,7 +4408,7 @@
         <v>785</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
@@ -4422,7 +4419,7 @@
         <v>785</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
@@ -4433,7 +4430,7 @@
         <v>785</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
@@ -4444,7 +4441,7 @@
         <v>785</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
@@ -4455,7 +4452,7 @@
         <v>785</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
@@ -4466,7 +4463,7 @@
         <v>785</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
@@ -4477,7 +4474,7 @@
         <v>785</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
@@ -4488,7 +4485,7 @@
         <v>785</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
@@ -4499,7 +4496,7 @@
         <v>785</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
@@ -4510,7 +4507,7 @@
         <v>785</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
@@ -4521,7 +4518,7 @@
         <v>785</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
@@ -4532,7 +4529,7 @@
         <v>785</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
@@ -4543,7 +4540,7 @@
         <v>785</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
@@ -4554,7 +4551,7 @@
         <v>785</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
@@ -4565,7 +4562,7 @@
         <v>785</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
@@ -4576,7 +4573,7 @@
         <v>785</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
@@ -4587,7 +4584,7 @@
         <v>785</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
@@ -4598,7 +4595,7 @@
         <v>785</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
@@ -4609,7 +4606,7 @@
         <v>785</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
@@ -4620,7 +4617,7 @@
         <v>785</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.25">
@@ -4631,7 +4628,7 @@
         <v>785</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.25">
@@ -4642,7 +4639,7 @@
         <v>785</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
@@ -4653,7 +4650,7 @@
         <v>785</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
@@ -4664,7 +4661,7 @@
         <v>785</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.25">
@@ -4675,7 +4672,7 @@
         <v>785</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
@@ -4686,7 +4683,7 @@
         <v>785</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.25">
@@ -4697,7 +4694,7 @@
         <v>785</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
@@ -4708,7 +4705,7 @@
         <v>785</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.25">
@@ -4719,7 +4716,7 @@
         <v>785</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
@@ -4730,7 +4727,7 @@
         <v>785</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.25">
@@ -4741,7 +4738,7 @@
         <v>785</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.25">
@@ -4752,7 +4749,7 @@
         <v>785</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.25">
@@ -4763,7 +4760,7 @@
         <v>785</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
@@ -4774,7 +4771,7 @@
         <v>785</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25">
@@ -4785,7 +4782,7 @@
         <v>785</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.25">
@@ -4796,7 +4793,7 @@
         <v>785</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.25">
@@ -4807,7 +4804,7 @@
         <v>785</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
@@ -4818,7 +4815,7 @@
         <v>785</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.25">
@@ -4829,7 +4826,7 @@
         <v>785</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.25">
@@ -4840,7 +4837,7 @@
         <v>785</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
@@ -4851,7 +4848,7 @@
         <v>785</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.25">
@@ -4862,7 +4859,7 @@
         <v>785</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.25">
@@ -4873,7 +4870,7 @@
         <v>785</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.25">
@@ -4884,7 +4881,7 @@
         <v>785</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.25">
@@ -4895,7 +4892,7 @@
         <v>785</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.25">
@@ -4906,7 +4903,7 @@
         <v>785</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.25">
@@ -4917,7 +4914,7 @@
         <v>785</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.25">
@@ -4928,7 +4925,7 @@
         <v>785</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.25">
@@ -4939,7 +4936,7 @@
         <v>785</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.25">
@@ -4950,7 +4947,7 @@
         <v>785</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.25">
@@ -4961,7 +4958,7 @@
         <v>785</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.25">
@@ -4972,7 +4969,7 @@
         <v>785</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.25">
@@ -4983,7 +4980,7 @@
         <v>785</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.25">
@@ -4994,7 +4991,7 @@
         <v>785</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.25">
@@ -5005,7 +5002,7 @@
         <v>785</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.25">
@@ -5016,7 +5013,7 @@
         <v>785</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.25">
@@ -5027,7 +5024,7 @@
         <v>785</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.25">
@@ -5038,7 +5035,7 @@
         <v>785</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.25">
@@ -5049,7 +5046,7 @@
         <v>785</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.25">
@@ -5060,7 +5057,7 @@
         <v>785</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.25">
@@ -5071,7 +5068,7 @@
         <v>785</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.25">
@@ -5082,7 +5079,7 @@
         <v>785</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.25">
@@ -5093,7 +5090,7 @@
         <v>785</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.25">
@@ -5104,7 +5101,7 @@
         <v>785</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.25">
@@ -5115,7 +5112,7 @@
         <v>785</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.25">
@@ -5126,7 +5123,7 @@
         <v>785</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.25">
@@ -5137,7 +5134,7 @@
         <v>785</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.25">
@@ -5148,7 +5145,7 @@
         <v>785</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.25">
@@ -5159,7 +5156,7 @@
         <v>785</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.25">
@@ -5170,7 +5167,7 @@
         <v>785</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.25">
@@ -5181,7 +5178,7 @@
         <v>785</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.25">
@@ -5192,7 +5189,7 @@
         <v>785</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.25">
@@ -5203,7 +5200,7 @@
         <v>785</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.25">
@@ -5214,7 +5211,7 @@
         <v>785</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.25">
@@ -5225,7 +5222,7 @@
         <v>785</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.25">
@@ -5236,7 +5233,7 @@
         <v>785</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.25">
@@ -5247,7 +5244,7 @@
         <v>785</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.25">
@@ -5258,7 +5255,7 @@
         <v>785</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.25">
@@ -5269,7 +5266,7 @@
         <v>785</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.25">
@@ -5291,7 +5288,7 @@
         <v>785</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.25">
@@ -5302,7 +5299,7 @@
         <v>785</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.25">
@@ -5313,7 +5310,7 @@
         <v>785</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.25">
@@ -5324,7 +5321,7 @@
         <v>785</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.25">
@@ -5335,7 +5332,7 @@
         <v>785</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.25">
@@ -5346,7 +5343,7 @@
         <v>785</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.25">
@@ -5357,7 +5354,7 @@
         <v>785</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.25">
@@ -5368,7 +5365,7 @@
         <v>785</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.25">
@@ -5379,7 +5376,7 @@
         <v>785</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.25">
@@ -5390,7 +5387,7 @@
         <v>785</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.25">
@@ -5401,7 +5398,7 @@
         <v>785</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.25">
@@ -5412,7 +5409,7 @@
         <v>785</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.25">
@@ -5423,7 +5420,7 @@
         <v>785</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.25">
@@ -5434,7 +5431,7 @@
         <v>785</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.25">
@@ -5445,7 +5442,7 @@
         <v>785</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.25">
@@ -5456,7 +5453,7 @@
         <v>785</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.25">
@@ -5467,7 +5464,7 @@
         <v>785</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.25">
@@ -5478,7 +5475,7 @@
         <v>785</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.25">
@@ -5489,7 +5486,7 @@
         <v>785</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.25">
@@ -5500,7 +5497,7 @@
         <v>785</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.25">
@@ -5511,7 +5508,7 @@
         <v>785</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.25">
@@ -5522,7 +5519,7 @@
         <v>785</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.25">
@@ -5533,7 +5530,7 @@
         <v>785</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.25">
@@ -5544,7 +5541,7 @@
         <v>785</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.25">
@@ -5555,7 +5552,7 @@
         <v>785</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.25">
@@ -5566,7 +5563,7 @@
         <v>785</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.25">
@@ -5577,7 +5574,7 @@
         <v>785</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.25">
@@ -5588,7 +5585,7 @@
         <v>785</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.25">
@@ -5599,7 +5596,7 @@
         <v>785</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.25">
@@ -5610,7 +5607,7 @@
         <v>785</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.25">
@@ -5621,7 +5618,7 @@
         <v>785</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.25">
@@ -5632,7 +5629,7 @@
         <v>785</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.25">
@@ -5643,7 +5640,7 @@
         <v>785</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.25">
@@ -5654,7 +5651,7 @@
         <v>785</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.25">
@@ -5665,7 +5662,7 @@
         <v>785</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.25">
@@ -5676,7 +5673,7 @@
         <v>785</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.25">
@@ -5687,7 +5684,7 @@
         <v>785</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.25">
@@ -5698,7 +5695,7 @@
         <v>785</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.25">
@@ -5709,7 +5706,7 @@
         <v>785</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.25">
@@ -5720,7 +5717,7 @@
         <v>785</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.25">
@@ -5731,7 +5728,7 @@
         <v>785</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.25">
@@ -5742,7 +5739,7 @@
         <v>785</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.25">
@@ -5753,7 +5750,7 @@
         <v>785</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.25">
@@ -5764,7 +5761,7 @@
         <v>785</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.25">
@@ -5775,7 +5772,7 @@
         <v>785</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.25">
@@ -5786,7 +5783,7 @@
         <v>785</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="274" spans="2:4" x14ac:dyDescent="0.25">
@@ -5797,7 +5794,7 @@
         <v>785</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.25">
@@ -5808,7 +5805,7 @@
         <v>785</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="276" spans="2:4" x14ac:dyDescent="0.25">
@@ -5819,7 +5816,7 @@
         <v>785</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="277" spans="2:4" x14ac:dyDescent="0.25">
@@ -5830,7 +5827,7 @@
         <v>785</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="278" spans="2:4" x14ac:dyDescent="0.25">
@@ -5841,7 +5838,7 @@
         <v>785</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="279" spans="2:4" x14ac:dyDescent="0.25">
@@ -5852,7 +5849,7 @@
         <v>785</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="280" spans="2:4" x14ac:dyDescent="0.25">
@@ -5863,7 +5860,7 @@
         <v>785</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="281" spans="2:4" x14ac:dyDescent="0.25">
@@ -5874,7 +5871,7 @@
         <v>785</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="282" spans="2:4" x14ac:dyDescent="0.25">
@@ -5885,7 +5882,7 @@
         <v>785</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.25">
@@ -5896,7 +5893,7 @@
         <v>785</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="284" spans="2:4" x14ac:dyDescent="0.25">
@@ -5907,7 +5904,7 @@
         <v>785</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="285" spans="2:4" x14ac:dyDescent="0.25">
@@ -5918,7 +5915,7 @@
         <v>785</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="286" spans="2:4" x14ac:dyDescent="0.25">
@@ -5929,7 +5926,7 @@
         <v>785</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="287" spans="2:4" x14ac:dyDescent="0.25">
@@ -5940,7 +5937,7 @@
         <v>785</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.25">
@@ -5951,7 +5948,7 @@
         <v>785</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="289" spans="2:4" x14ac:dyDescent="0.25">
@@ -5962,7 +5959,7 @@
         <v>785</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.25">
@@ -5973,7 +5970,7 @@
         <v>785</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.25">
@@ -5984,7 +5981,7 @@
         <v>785</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="292" spans="2:4" x14ac:dyDescent="0.25">
@@ -5995,7 +5992,7 @@
         <v>785</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="293" spans="2:4" x14ac:dyDescent="0.25">
@@ -6006,7 +6003,7 @@
         <v>785</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="294" spans="2:4" x14ac:dyDescent="0.25">
@@ -6017,7 +6014,7 @@
         <v>785</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.25">
@@ -6028,7 +6025,7 @@
         <v>785</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="296" spans="2:4" x14ac:dyDescent="0.25">
@@ -6039,7 +6036,7 @@
         <v>785</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="297" spans="2:4" x14ac:dyDescent="0.25">
@@ -6050,7 +6047,7 @@
         <v>785</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="298" spans="2:4" x14ac:dyDescent="0.25">
@@ -6061,7 +6058,7 @@
         <v>785</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="299" spans="2:4" x14ac:dyDescent="0.25">
@@ -6072,7 +6069,7 @@
         <v>785</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="300" spans="2:4" x14ac:dyDescent="0.25">
@@ -6083,7 +6080,7 @@
         <v>785</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.25">
@@ -6094,7 +6091,7 @@
         <v>785</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.25">
@@ -6105,7 +6102,7 @@
         <v>785</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.25">
@@ -6116,7 +6113,7 @@
         <v>785</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.25">
@@ -6127,7 +6124,7 @@
         <v>785</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.25">
@@ -6138,7 +6135,7 @@
         <v>785</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.25">
@@ -6149,7 +6146,7 @@
         <v>785</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.25">
@@ -6160,7 +6157,7 @@
         <v>785</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.25">
@@ -6171,7 +6168,7 @@
         <v>785</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.25">
@@ -6182,7 +6179,7 @@
         <v>785</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.25">
@@ -6204,7 +6201,7 @@
         <v>785</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.25">
@@ -6487,7 +6484,7 @@
         <v>336</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>784</v>
@@ -6512,7 +6509,7 @@
         <v>785</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.25">
@@ -6523,7 +6520,7 @@
         <v>785</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.25">
@@ -6534,7 +6531,7 @@
         <v>785</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.25">
@@ -6545,7 +6542,7 @@
         <v>785</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.25">
@@ -6556,7 +6553,7 @@
         <v>785</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="344" spans="2:4" x14ac:dyDescent="0.25">
@@ -6578,7 +6575,7 @@
         <v>785</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.25">
@@ -6589,7 +6586,7 @@
         <v>785</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.25">
@@ -6600,7 +6597,7 @@
         <v>785</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.25">
@@ -6611,7 +6608,7 @@
         <v>785</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.25">
@@ -6622,7 +6619,7 @@
         <v>785</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.25">
@@ -6633,7 +6630,7 @@
         <v>785</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.25">
@@ -6655,7 +6652,7 @@
         <v>785</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.25">
@@ -6666,7 +6663,7 @@
         <v>785</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.25">
@@ -6677,7 +6674,7 @@
         <v>785</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="355" spans="2:4" x14ac:dyDescent="0.25">
@@ -6699,7 +6696,7 @@
         <v>785</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.25">
@@ -6710,7 +6707,7 @@
         <v>785</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="358" spans="2:4" x14ac:dyDescent="0.25">
@@ -6732,7 +6729,7 @@
         <v>785</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.25">
@@ -6743,7 +6740,7 @@
         <v>785</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.25">
@@ -6754,7 +6751,7 @@
         <v>785</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.25">
@@ -6765,7 +6762,7 @@
         <v>785</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.25">
@@ -6776,7 +6773,7 @@
         <v>785</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.25">
@@ -6787,7 +6784,7 @@
         <v>785</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="365" spans="2:4" x14ac:dyDescent="0.25">
@@ -6798,7 +6795,7 @@
         <v>785</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="366" spans="2:4" x14ac:dyDescent="0.25">
@@ -6809,7 +6806,7 @@
         <v>785</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.25">
@@ -6820,7 +6817,7 @@
         <v>785</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.25">
@@ -6831,7 +6828,7 @@
         <v>785</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="369" spans="2:4" x14ac:dyDescent="0.25">
@@ -6842,7 +6839,7 @@
         <v>785</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="370" spans="2:4" x14ac:dyDescent="0.25">
@@ -6853,7 +6850,7 @@
         <v>785</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.25">
@@ -6864,7 +6861,7 @@
         <v>785</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="372" spans="2:4" x14ac:dyDescent="0.25">
@@ -6875,7 +6872,7 @@
         <v>785</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="373" spans="2:4" x14ac:dyDescent="0.25">
@@ -6941,7 +6938,7 @@
         <v>785</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="379" spans="2:4" x14ac:dyDescent="0.25">
@@ -6952,7 +6949,7 @@
         <v>785</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="380" spans="2:4" x14ac:dyDescent="0.25">
@@ -6963,7 +6960,7 @@
         <v>785</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="381" spans="2:4" x14ac:dyDescent="0.25">
@@ -6974,7 +6971,7 @@
         <v>785</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="382" spans="2:4" x14ac:dyDescent="0.25">
@@ -6985,7 +6982,7 @@
         <v>785</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="383" spans="2:4" x14ac:dyDescent="0.25">
@@ -6996,7 +6993,7 @@
         <v>785</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="384" spans="2:4" x14ac:dyDescent="0.25">
@@ -7007,7 +7004,7 @@
         <v>785</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.25">
@@ -7018,7 +7015,7 @@
         <v>785</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="386" spans="2:4" x14ac:dyDescent="0.25">
@@ -7029,7 +7026,7 @@
         <v>785</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="387" spans="2:4" x14ac:dyDescent="0.25">
@@ -7040,7 +7037,7 @@
         <v>785</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="388" spans="2:4" x14ac:dyDescent="0.25">
@@ -7051,7 +7048,7 @@
         <v>785</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="389" spans="2:4" x14ac:dyDescent="0.25">
@@ -7062,7 +7059,7 @@
         <v>785</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="390" spans="2:4" x14ac:dyDescent="0.25">
@@ -7073,7 +7070,7 @@
         <v>785</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="391" spans="2:4" x14ac:dyDescent="0.25">
@@ -7084,7 +7081,7 @@
         <v>785</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.25">
@@ -7095,7 +7092,7 @@
         <v>785</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="393" spans="2:4" x14ac:dyDescent="0.25">
@@ -7106,7 +7103,7 @@
         <v>785</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="394" spans="2:4" x14ac:dyDescent="0.25">
@@ -7117,7 +7114,7 @@
         <v>785</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="395" spans="2:4" x14ac:dyDescent="0.25">
@@ -7128,7 +7125,7 @@
         <v>785</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="396" spans="2:4" x14ac:dyDescent="0.25">
@@ -7139,7 +7136,7 @@
         <v>785</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="397" spans="2:4" x14ac:dyDescent="0.25">
@@ -7150,7 +7147,7 @@
         <v>785</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="398" spans="2:4" x14ac:dyDescent="0.25">
@@ -7161,7 +7158,7 @@
         <v>785</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.25">
@@ -7172,7 +7169,7 @@
         <v>785</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="400" spans="2:4" x14ac:dyDescent="0.25">
@@ -7183,7 +7180,7 @@
         <v>785</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.25">
@@ -7194,7 +7191,7 @@
         <v>785</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="402" spans="2:4" x14ac:dyDescent="0.25">
@@ -7202,7 +7199,7 @@
         <v>401</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D402" s="1" t="s">
         <v>784</v>
@@ -7378,7 +7375,7 @@
         <v>417</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D418" s="1" t="s">
         <v>784</v>
@@ -7480,7 +7477,7 @@
         <v>785</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="428" spans="2:4" x14ac:dyDescent="0.25">
@@ -7491,7 +7488,7 @@
         <v>785</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="429" spans="2:4" x14ac:dyDescent="0.25">
@@ -7502,7 +7499,7 @@
         <v>785</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="430" spans="2:4" x14ac:dyDescent="0.25">
@@ -7513,7 +7510,7 @@
         <v>785</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="431" spans="2:4" x14ac:dyDescent="0.25">
@@ -7524,7 +7521,7 @@
         <v>785</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="432" spans="2:4" x14ac:dyDescent="0.25">
@@ -7535,7 +7532,7 @@
         <v>785</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.25">
@@ -7557,7 +7554,7 @@
         <v>785</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="435" spans="2:4" x14ac:dyDescent="0.25">
@@ -7568,7 +7565,7 @@
         <v>785</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="436" spans="2:4" x14ac:dyDescent="0.25">
@@ -7579,7 +7576,7 @@
         <v>785</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="437" spans="2:4" x14ac:dyDescent="0.25">
@@ -7590,7 +7587,7 @@
         <v>785</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="438" spans="2:4" x14ac:dyDescent="0.25">
@@ -7612,7 +7609,7 @@
         <v>785</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="440" spans="2:4" x14ac:dyDescent="0.25">
@@ -7623,7 +7620,7 @@
         <v>785</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="441" spans="2:4" x14ac:dyDescent="0.25">
@@ -7634,7 +7631,7 @@
         <v>785</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.25">
@@ -7645,7 +7642,7 @@
         <v>785</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="443" spans="2:4" x14ac:dyDescent="0.25">
@@ -7656,7 +7653,7 @@
         <v>785</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="444" spans="2:4" x14ac:dyDescent="0.25">
@@ -7678,7 +7675,7 @@
         <v>785</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="446" spans="2:4" x14ac:dyDescent="0.25">
@@ -7752,7 +7749,7 @@
         <v>451</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D452" s="1" t="s">
         <v>784</v>
@@ -7851,7 +7848,7 @@
         <v>460</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D461" s="1" t="s">
         <v>784</v>
@@ -7873,7 +7870,7 @@
         <v>462</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D463" s="1" t="s">
         <v>784</v>
@@ -7884,7 +7881,7 @@
         <v>463</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D464" s="1" t="s">
         <v>784</v>
@@ -7895,7 +7892,7 @@
         <v>464</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D465" s="1" t="s">
         <v>784</v>
@@ -7928,10 +7925,10 @@
         <v>467</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="469" spans="2:4" x14ac:dyDescent="0.25">
@@ -7942,7 +7939,7 @@
         <v>785</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="470" spans="2:4" x14ac:dyDescent="0.25">
@@ -7953,7 +7950,7 @@
         <v>785</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="471" spans="2:4" x14ac:dyDescent="0.25">
@@ -7964,7 +7961,7 @@
         <v>785</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="472" spans="2:4" x14ac:dyDescent="0.25">
@@ -7975,7 +7972,7 @@
         <v>785</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="473" spans="2:4" x14ac:dyDescent="0.25">
@@ -7986,7 +7983,7 @@
         <v>785</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="474" spans="2:4" x14ac:dyDescent="0.25">
@@ -7997,7 +7994,7 @@
         <v>785</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="475" spans="2:4" x14ac:dyDescent="0.25">
@@ -8008,7 +8005,7 @@
         <v>785</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="476" spans="2:4" x14ac:dyDescent="0.25">
@@ -8019,7 +8016,7 @@
         <v>785</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.25">
@@ -8030,7 +8027,7 @@
         <v>785</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="478" spans="2:4" x14ac:dyDescent="0.25">
@@ -8052,7 +8049,7 @@
         <v>785</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="480" spans="2:4" x14ac:dyDescent="0.25">
@@ -8063,7 +8060,7 @@
         <v>785</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="481" spans="2:4" x14ac:dyDescent="0.25">
@@ -8129,7 +8126,7 @@
         <v>785</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="487" spans="2:4" x14ac:dyDescent="0.25">
@@ -8140,7 +8137,7 @@
         <v>785</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="488" spans="2:4" x14ac:dyDescent="0.25">
@@ -8151,7 +8148,7 @@
         <v>785</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="489" spans="2:4" x14ac:dyDescent="0.25">
@@ -8162,7 +8159,7 @@
         <v>785</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="490" spans="2:4" x14ac:dyDescent="0.25">
@@ -8173,7 +8170,7 @@
         <v>785</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="491" spans="2:4" x14ac:dyDescent="0.25">
@@ -8184,7 +8181,7 @@
         <v>785</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="492" spans="2:4" x14ac:dyDescent="0.25">
@@ -8195,7 +8192,7 @@
         <v>785</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="493" spans="2:4" x14ac:dyDescent="0.25">
@@ -8206,7 +8203,7 @@
         <v>785</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="494" spans="2:4" x14ac:dyDescent="0.25">
@@ -8217,7 +8214,7 @@
         <v>785</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="495" spans="2:4" x14ac:dyDescent="0.25">
@@ -8228,7 +8225,7 @@
         <v>785</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="496" spans="2:4" x14ac:dyDescent="0.25">
@@ -8239,7 +8236,7 @@
         <v>785</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="497" spans="2:4" x14ac:dyDescent="0.25">
@@ -8250,7 +8247,7 @@
         <v>785</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="498" spans="2:4" x14ac:dyDescent="0.25">
@@ -8258,7 +8255,7 @@
         <v>497</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D498" s="1" t="s">
         <v>784</v>
@@ -8269,10 +8266,10 @@
         <v>498</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="500" spans="2:4" x14ac:dyDescent="0.25">
@@ -8316,7 +8313,7 @@
         <v>785</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="504" spans="2:4" x14ac:dyDescent="0.25">
@@ -8338,7 +8335,7 @@
         <v>785</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="506" spans="2:4" x14ac:dyDescent="0.25">
@@ -8349,7 +8346,7 @@
         <v>785</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="507" spans="2:4" x14ac:dyDescent="0.25">
@@ -8360,7 +8357,7 @@
         <v>785</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="508" spans="2:4" x14ac:dyDescent="0.25">
@@ -8371,7 +8368,7 @@
         <v>785</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="509" spans="2:4" x14ac:dyDescent="0.25">
@@ -8379,7 +8376,7 @@
         <v>508</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D509" s="1" t="s">
         <v>784</v>
@@ -8404,7 +8401,7 @@
         <v>785</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="512" spans="2:4" x14ac:dyDescent="0.25">
@@ -8415,7 +8412,7 @@
         <v>785</v>
       </c>
       <c r="D512" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="513" spans="2:4" x14ac:dyDescent="0.25">
@@ -8426,7 +8423,7 @@
         <v>785</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="514" spans="2:4" x14ac:dyDescent="0.25">
@@ -8437,7 +8434,7 @@
         <v>785</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="515" spans="2:4" x14ac:dyDescent="0.25">
@@ -8448,7 +8445,7 @@
         <v>785</v>
       </c>
       <c r="D515" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="516" spans="2:4" x14ac:dyDescent="0.25">
@@ -8459,7 +8456,7 @@
         <v>785</v>
       </c>
       <c r="D516" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="517" spans="2:4" x14ac:dyDescent="0.25">
@@ -8470,7 +8467,7 @@
         <v>785</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="518" spans="2:4" x14ac:dyDescent="0.25">
@@ -8481,7 +8478,7 @@
         <v>785</v>
       </c>
       <c r="D518" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="519" spans="2:4" x14ac:dyDescent="0.25">
@@ -8492,7 +8489,7 @@
         <v>785</v>
       </c>
       <c r="D519" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="520" spans="2:4" x14ac:dyDescent="0.25">
@@ -8503,7 +8500,7 @@
         <v>785</v>
       </c>
       <c r="D520" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="521" spans="2:4" x14ac:dyDescent="0.25">
@@ -8514,7 +8511,7 @@
         <v>785</v>
       </c>
       <c r="D521" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="522" spans="2:4" x14ac:dyDescent="0.25">
@@ -8525,7 +8522,7 @@
         <v>785</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="523" spans="2:4" x14ac:dyDescent="0.25">
@@ -8547,7 +8544,7 @@
         <v>785</v>
       </c>
       <c r="D524" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="525" spans="2:4" x14ac:dyDescent="0.25">
@@ -8558,7 +8555,7 @@
         <v>785</v>
       </c>
       <c r="D525" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="526" spans="2:4" x14ac:dyDescent="0.25">
@@ -8569,7 +8566,7 @@
         <v>785</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="527" spans="2:4" x14ac:dyDescent="0.25">
@@ -8580,7 +8577,7 @@
         <v>785</v>
       </c>
       <c r="D527" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="528" spans="2:4" x14ac:dyDescent="0.25">
@@ -8591,7 +8588,7 @@
         <v>785</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="529" spans="2:4" x14ac:dyDescent="0.25">
@@ -8602,7 +8599,7 @@
         <v>785</v>
       </c>
       <c r="D529" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="530" spans="2:4" x14ac:dyDescent="0.25">
@@ -8613,7 +8610,7 @@
         <v>785</v>
       </c>
       <c r="D530" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="531" spans="2:4" x14ac:dyDescent="0.25">
@@ -8624,7 +8621,7 @@
         <v>785</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="532" spans="2:4" x14ac:dyDescent="0.25">
@@ -8635,7 +8632,7 @@
         <v>785</v>
       </c>
       <c r="D532" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="533" spans="2:4" x14ac:dyDescent="0.25">
@@ -8646,7 +8643,7 @@
         <v>785</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="534" spans="2:4" x14ac:dyDescent="0.25">
@@ -8657,7 +8654,7 @@
         <v>785</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="535" spans="2:4" x14ac:dyDescent="0.25">
@@ -8668,7 +8665,7 @@
         <v>785</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="536" spans="2:4" x14ac:dyDescent="0.25">
@@ -8690,7 +8687,7 @@
         <v>785</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="538" spans="2:4" x14ac:dyDescent="0.25">
@@ -8701,7 +8698,7 @@
         <v>785</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="539" spans="2:4" x14ac:dyDescent="0.25">
@@ -8712,7 +8709,7 @@
         <v>785</v>
       </c>
       <c r="D539" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="540" spans="2:4" x14ac:dyDescent="0.25">
@@ -8723,7 +8720,7 @@
         <v>785</v>
       </c>
       <c r="D540" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="541" spans="2:4" x14ac:dyDescent="0.25">
@@ -8734,7 +8731,7 @@
         <v>785</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="542" spans="2:4" x14ac:dyDescent="0.25">
@@ -8745,7 +8742,7 @@
         <v>785</v>
       </c>
       <c r="D542" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="543" spans="2:4" x14ac:dyDescent="0.25">
@@ -8756,7 +8753,7 @@
         <v>785</v>
       </c>
       <c r="D543" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="544" spans="2:4" x14ac:dyDescent="0.25">
@@ -8767,7 +8764,7 @@
         <v>785</v>
       </c>
       <c r="D544" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="545" spans="2:4" x14ac:dyDescent="0.25">
@@ -8778,7 +8775,7 @@
         <v>785</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="546" spans="2:4" x14ac:dyDescent="0.25">
@@ -8789,7 +8786,7 @@
         <v>785</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="547" spans="2:4" x14ac:dyDescent="0.25">
@@ -8800,7 +8797,7 @@
         <v>785</v>
       </c>
       <c r="D547" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="548" spans="2:4" x14ac:dyDescent="0.25">
@@ -8811,7 +8808,7 @@
         <v>785</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="549" spans="2:4" x14ac:dyDescent="0.25">
@@ -8822,7 +8819,7 @@
         <v>785</v>
       </c>
       <c r="D549" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="550" spans="2:4" x14ac:dyDescent="0.25">
@@ -8833,7 +8830,7 @@
         <v>785</v>
       </c>
       <c r="D550" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="551" spans="2:4" x14ac:dyDescent="0.25">
@@ -8844,7 +8841,7 @@
         <v>785</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="552" spans="2:4" x14ac:dyDescent="0.25">
@@ -8855,7 +8852,7 @@
         <v>785</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="553" spans="2:4" x14ac:dyDescent="0.25">
@@ -8866,7 +8863,7 @@
         <v>785</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="554" spans="2:4" x14ac:dyDescent="0.25">
@@ -8877,7 +8874,7 @@
         <v>785</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="555" spans="2:4" x14ac:dyDescent="0.25">
@@ -8888,7 +8885,7 @@
         <v>785</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="556" spans="2:4" x14ac:dyDescent="0.25">
@@ -8899,7 +8896,7 @@
         <v>785</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="557" spans="2:4" x14ac:dyDescent="0.25">
@@ -8910,7 +8907,7 @@
         <v>785</v>
       </c>
       <c r="D557" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="558" spans="2:4" x14ac:dyDescent="0.25">
@@ -8954,7 +8951,7 @@
         <v>785</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="562" spans="2:4" x14ac:dyDescent="0.25">
@@ -8965,7 +8962,7 @@
         <v>785</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="563" spans="2:4" x14ac:dyDescent="0.25">
@@ -8976,7 +8973,7 @@
         <v>785</v>
       </c>
       <c r="D563" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="564" spans="2:4" x14ac:dyDescent="0.25">
@@ -8987,7 +8984,7 @@
         <v>785</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="565" spans="2:4" x14ac:dyDescent="0.25">
@@ -8998,7 +8995,7 @@
         <v>785</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="566" spans="2:4" x14ac:dyDescent="0.25">
@@ -9009,7 +9006,7 @@
         <v>785</v>
       </c>
       <c r="D566" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="567" spans="2:4" x14ac:dyDescent="0.25">
@@ -9020,7 +9017,7 @@
         <v>785</v>
       </c>
       <c r="D567" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="568" spans="2:4" x14ac:dyDescent="0.25">
@@ -9031,7 +9028,7 @@
         <v>785</v>
       </c>
       <c r="D568" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="569" spans="2:4" x14ac:dyDescent="0.25">
@@ -9042,7 +9039,7 @@
         <v>785</v>
       </c>
       <c r="D569" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="570" spans="2:4" x14ac:dyDescent="0.25">
@@ -9053,7 +9050,7 @@
         <v>785</v>
       </c>
       <c r="D570" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="571" spans="2:4" x14ac:dyDescent="0.25">
@@ -9064,7 +9061,7 @@
         <v>785</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="572" spans="2:4" x14ac:dyDescent="0.25">
@@ -9075,7 +9072,7 @@
         <v>785</v>
       </c>
       <c r="D572" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="573" spans="2:4" x14ac:dyDescent="0.25">
@@ -9086,7 +9083,7 @@
         <v>785</v>
       </c>
       <c r="D573" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="574" spans="2:4" x14ac:dyDescent="0.25">
@@ -9097,7 +9094,7 @@
         <v>785</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="575" spans="2:4" x14ac:dyDescent="0.25">
@@ -9108,7 +9105,7 @@
         <v>785</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="576" spans="2:4" x14ac:dyDescent="0.25">
@@ -9119,7 +9116,7 @@
         <v>785</v>
       </c>
       <c r="D576" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="577" spans="2:4" x14ac:dyDescent="0.25">
@@ -9130,7 +9127,7 @@
         <v>785</v>
       </c>
       <c r="D577" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="578" spans="2:4" x14ac:dyDescent="0.25">
@@ -9141,7 +9138,7 @@
         <v>785</v>
       </c>
       <c r="D578" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="579" spans="2:4" x14ac:dyDescent="0.25">
@@ -9152,7 +9149,7 @@
         <v>785</v>
       </c>
       <c r="D579" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="580" spans="2:4" x14ac:dyDescent="0.25">
@@ -9163,7 +9160,7 @@
         <v>785</v>
       </c>
       <c r="D580" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="581" spans="2:4" x14ac:dyDescent="0.25">
@@ -9174,7 +9171,7 @@
         <v>785</v>
       </c>
       <c r="D581" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="582" spans="2:4" x14ac:dyDescent="0.25">
@@ -9185,7 +9182,7 @@
         <v>785</v>
       </c>
       <c r="D582" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="583" spans="2:4" x14ac:dyDescent="0.25">
@@ -9207,7 +9204,7 @@
         <v>785</v>
       </c>
       <c r="D584" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="585" spans="2:4" x14ac:dyDescent="0.25">
@@ -9240,7 +9237,7 @@
         <v>785</v>
       </c>
       <c r="D587" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="588" spans="2:4" x14ac:dyDescent="0.25">
@@ -9251,7 +9248,7 @@
         <v>785</v>
       </c>
       <c r="D588" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="589" spans="2:4" x14ac:dyDescent="0.25">
@@ -9262,7 +9259,7 @@
         <v>785</v>
       </c>
       <c r="D589" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="590" spans="2:4" x14ac:dyDescent="0.25">
@@ -9273,7 +9270,7 @@
         <v>785</v>
       </c>
       <c r="D590" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="591" spans="2:4" x14ac:dyDescent="0.25">
@@ -9284,7 +9281,7 @@
         <v>785</v>
       </c>
       <c r="D591" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="592" spans="2:4" x14ac:dyDescent="0.25">
@@ -9295,7 +9292,7 @@
         <v>785</v>
       </c>
       <c r="D592" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="593" spans="2:4" x14ac:dyDescent="0.25">
@@ -9306,7 +9303,7 @@
         <v>785</v>
       </c>
       <c r="D593" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="594" spans="2:4" x14ac:dyDescent="0.25">
@@ -9317,7 +9314,7 @@
         <v>785</v>
       </c>
       <c r="D594" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="595" spans="2:4" x14ac:dyDescent="0.25">
@@ -9339,7 +9336,7 @@
         <v>785</v>
       </c>
       <c r="D596" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="597" spans="2:4" x14ac:dyDescent="0.25">
@@ -9350,7 +9347,7 @@
         <v>785</v>
       </c>
       <c r="D597" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="598" spans="2:4" x14ac:dyDescent="0.25">
@@ -9361,7 +9358,7 @@
         <v>785</v>
       </c>
       <c r="D598" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="599" spans="2:4" x14ac:dyDescent="0.25">
@@ -9372,7 +9369,7 @@
         <v>785</v>
       </c>
       <c r="D599" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="600" spans="2:4" x14ac:dyDescent="0.25">
@@ -9383,7 +9380,7 @@
         <v>785</v>
       </c>
       <c r="D600" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="601" spans="2:4" x14ac:dyDescent="0.25">
@@ -9394,7 +9391,7 @@
         <v>785</v>
       </c>
       <c r="D601" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="602" spans="2:4" x14ac:dyDescent="0.25">
@@ -9405,7 +9402,7 @@
         <v>785</v>
       </c>
       <c r="D602" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="603" spans="2:4" x14ac:dyDescent="0.25">
@@ -9416,7 +9413,7 @@
         <v>785</v>
       </c>
       <c r="D603" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="604" spans="2:4" x14ac:dyDescent="0.25">
@@ -9427,7 +9424,7 @@
         <v>785</v>
       </c>
       <c r="D604" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="605" spans="2:4" x14ac:dyDescent="0.25">
@@ -9438,7 +9435,7 @@
         <v>785</v>
       </c>
       <c r="D605" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="606" spans="2:4" x14ac:dyDescent="0.25">
@@ -9449,7 +9446,7 @@
         <v>785</v>
       </c>
       <c r="D606" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="607" spans="2:4" x14ac:dyDescent="0.25">
@@ -9490,7 +9487,7 @@
         <v>609</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D610" s="1" t="s">
         <v>784</v>
@@ -9501,7 +9498,7 @@
         <v>610</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D611" s="1" t="s">
         <v>784</v>
@@ -9534,7 +9531,7 @@
         <v>785</v>
       </c>
       <c r="D614" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="615" spans="2:4" x14ac:dyDescent="0.25">
@@ -9545,7 +9542,7 @@
         <v>785</v>
       </c>
       <c r="D615" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="616" spans="2:4" x14ac:dyDescent="0.25">
@@ -9556,7 +9553,7 @@
         <v>785</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="617" spans="2:4" x14ac:dyDescent="0.25">
@@ -9567,7 +9564,7 @@
         <v>785</v>
       </c>
       <c r="D617" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="618" spans="2:4" x14ac:dyDescent="0.25">
@@ -9688,7 +9685,7 @@
         <v>785</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="629" spans="2:4" x14ac:dyDescent="0.25">
@@ -9710,7 +9707,7 @@
         <v>785</v>
       </c>
       <c r="D630" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="631" spans="2:4" x14ac:dyDescent="0.25">
@@ -9908,7 +9905,7 @@
         <v>785</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="649" spans="2:4" x14ac:dyDescent="0.25">
@@ -9919,7 +9916,7 @@
         <v>785</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="650" spans="2:4" x14ac:dyDescent="0.25">
@@ -9930,7 +9927,7 @@
         <v>785</v>
       </c>
       <c r="D650" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="651" spans="2:4" x14ac:dyDescent="0.25">
@@ -9941,7 +9938,7 @@
         <v>785</v>
       </c>
       <c r="D651" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="652" spans="2:4" x14ac:dyDescent="0.25">
@@ -9952,7 +9949,7 @@
         <v>785</v>
       </c>
       <c r="D652" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="653" spans="2:4" x14ac:dyDescent="0.25">
@@ -9963,7 +9960,7 @@
         <v>785</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="654" spans="2:4" x14ac:dyDescent="0.25">
@@ -9974,7 +9971,7 @@
         <v>785</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="655" spans="2:4" x14ac:dyDescent="0.25">
@@ -9985,7 +9982,7 @@
         <v>785</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="656" spans="2:4" x14ac:dyDescent="0.25">
@@ -9996,7 +9993,7 @@
         <v>785</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="657" spans="2:4" x14ac:dyDescent="0.25">
@@ -10007,7 +10004,7 @@
         <v>785</v>
       </c>
       <c r="D657" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="658" spans="2:4" x14ac:dyDescent="0.25">
@@ -10018,7 +10015,7 @@
         <v>785</v>
       </c>
       <c r="D658" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="659" spans="2:4" x14ac:dyDescent="0.25">
@@ -10029,7 +10026,7 @@
         <v>785</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="660" spans="2:4" x14ac:dyDescent="0.25">
@@ -10040,7 +10037,7 @@
         <v>785</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="661" spans="2:4" x14ac:dyDescent="0.25">
@@ -10051,7 +10048,7 @@
         <v>785</v>
       </c>
       <c r="D661" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="662" spans="2:4" x14ac:dyDescent="0.25">
@@ -10062,7 +10059,7 @@
         <v>785</v>
       </c>
       <c r="D662" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="663" spans="2:4" x14ac:dyDescent="0.25">
@@ -10073,7 +10070,7 @@
         <v>785</v>
       </c>
       <c r="D663" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="664" spans="2:4" x14ac:dyDescent="0.25">
@@ -10095,7 +10092,7 @@
         <v>785</v>
       </c>
       <c r="D665" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="666" spans="2:4" x14ac:dyDescent="0.25">
@@ -10106,7 +10103,7 @@
         <v>785</v>
       </c>
       <c r="D666" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="667" spans="2:4" x14ac:dyDescent="0.25">
@@ -10117,7 +10114,7 @@
         <v>785</v>
       </c>
       <c r="D667" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="668" spans="2:4" x14ac:dyDescent="0.25">
@@ -10128,7 +10125,7 @@
         <v>785</v>
       </c>
       <c r="D668" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="669" spans="2:4" x14ac:dyDescent="0.25">
@@ -10139,7 +10136,7 @@
         <v>785</v>
       </c>
       <c r="D669" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="670" spans="2:4" x14ac:dyDescent="0.25">
@@ -10150,7 +10147,7 @@
         <v>785</v>
       </c>
       <c r="D670" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="671" spans="2:4" x14ac:dyDescent="0.25">
@@ -10161,7 +10158,7 @@
         <v>785</v>
       </c>
       <c r="D671" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="672" spans="2:4" x14ac:dyDescent="0.25">
@@ -10172,7 +10169,7 @@
         <v>785</v>
       </c>
       <c r="D672" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="673" spans="2:4" x14ac:dyDescent="0.25">
@@ -10183,7 +10180,7 @@
         <v>785</v>
       </c>
       <c r="D673" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="674" spans="2:4" x14ac:dyDescent="0.25">
@@ -10194,7 +10191,7 @@
         <v>785</v>
       </c>
       <c r="D674" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="675" spans="2:4" x14ac:dyDescent="0.25">
@@ -10205,7 +10202,7 @@
         <v>785</v>
       </c>
       <c r="D675" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="676" spans="2:4" x14ac:dyDescent="0.25">
@@ -10216,7 +10213,7 @@
         <v>785</v>
       </c>
       <c r="D676" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="677" spans="2:4" x14ac:dyDescent="0.25">
@@ -10227,7 +10224,7 @@
         <v>785</v>
       </c>
       <c r="D677" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="678" spans="2:4" x14ac:dyDescent="0.25">
@@ -10238,7 +10235,7 @@
         <v>785</v>
       </c>
       <c r="D678" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="679" spans="2:4" x14ac:dyDescent="0.25">
@@ -10249,7 +10246,7 @@
         <v>785</v>
       </c>
       <c r="D679" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="680" spans="2:4" x14ac:dyDescent="0.25">
@@ -10260,7 +10257,7 @@
         <v>785</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="681" spans="2:4" x14ac:dyDescent="0.25">
@@ -10271,7 +10268,7 @@
         <v>785</v>
       </c>
       <c r="D681" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="682" spans="2:4" x14ac:dyDescent="0.25">
@@ -10282,7 +10279,7 @@
         <v>785</v>
       </c>
       <c r="D682" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="683" spans="2:4" x14ac:dyDescent="0.25">
@@ -10293,7 +10290,7 @@
         <v>785</v>
       </c>
       <c r="D683" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="684" spans="2:4" x14ac:dyDescent="0.25">
@@ -10304,7 +10301,7 @@
         <v>785</v>
       </c>
       <c r="D684" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="685" spans="2:4" x14ac:dyDescent="0.25">
@@ -10315,7 +10312,7 @@
         <v>785</v>
       </c>
       <c r="D685" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="686" spans="2:4" x14ac:dyDescent="0.25">
@@ -10326,7 +10323,7 @@
         <v>785</v>
       </c>
       <c r="D686" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="687" spans="2:4" x14ac:dyDescent="0.25">
@@ -10337,7 +10334,7 @@
         <v>785</v>
       </c>
       <c r="D687" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="688" spans="2:4" x14ac:dyDescent="0.25">
@@ -10348,7 +10345,7 @@
         <v>785</v>
       </c>
       <c r="D688" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="689" spans="2:4" x14ac:dyDescent="0.25">
@@ -10359,7 +10356,7 @@
         <v>785</v>
       </c>
       <c r="D689" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="690" spans="2:4" x14ac:dyDescent="0.25">
@@ -10370,7 +10367,7 @@
         <v>785</v>
       </c>
       <c r="D690" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="691" spans="2:4" x14ac:dyDescent="0.25">
@@ -10381,7 +10378,7 @@
         <v>785</v>
       </c>
       <c r="D691" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="692" spans="2:4" x14ac:dyDescent="0.25">
@@ -10392,7 +10389,7 @@
         <v>785</v>
       </c>
       <c r="D692" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="693" spans="2:4" x14ac:dyDescent="0.25">
@@ -10535,7 +10532,7 @@
         <v>785</v>
       </c>
       <c r="D705" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="706" spans="2:4" x14ac:dyDescent="0.25">
@@ -10546,7 +10543,7 @@
         <v>785</v>
       </c>
       <c r="D706" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="707" spans="2:4" x14ac:dyDescent="0.25">
@@ -10557,7 +10554,7 @@
         <v>785</v>
       </c>
       <c r="D707" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="708" spans="2:4" x14ac:dyDescent="0.25">
@@ -10568,7 +10565,7 @@
         <v>785</v>
       </c>
       <c r="D708" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="709" spans="2:4" x14ac:dyDescent="0.25">
@@ -10579,7 +10576,7 @@
         <v>785</v>
       </c>
       <c r="D709" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="710" spans="2:4" x14ac:dyDescent="0.25">
@@ -10590,7 +10587,7 @@
         <v>785</v>
       </c>
       <c r="D710" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="711" spans="2:4" x14ac:dyDescent="0.25">
@@ -10601,7 +10598,7 @@
         <v>785</v>
       </c>
       <c r="D711" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="712" spans="2:4" x14ac:dyDescent="0.25">
@@ -10612,7 +10609,7 @@
         <v>785</v>
       </c>
       <c r="D712" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="713" spans="2:4" x14ac:dyDescent="0.25">
@@ -10623,7 +10620,7 @@
         <v>785</v>
       </c>
       <c r="D713" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="714" spans="2:4" x14ac:dyDescent="0.25">
@@ -10634,7 +10631,7 @@
         <v>785</v>
       </c>
       <c r="D714" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="715" spans="2:4" x14ac:dyDescent="0.25">
@@ -10645,7 +10642,7 @@
         <v>785</v>
       </c>
       <c r="D715" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="716" spans="2:4" x14ac:dyDescent="0.25">
@@ -10656,7 +10653,7 @@
         <v>785</v>
       </c>
       <c r="D716" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="717" spans="2:4" x14ac:dyDescent="0.25">
@@ -10667,7 +10664,7 @@
         <v>785</v>
       </c>
       <c r="D717" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="718" spans="2:4" x14ac:dyDescent="0.25">
@@ -10678,7 +10675,7 @@
         <v>785</v>
       </c>
       <c r="D718" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="719" spans="2:4" x14ac:dyDescent="0.25">
@@ -10689,7 +10686,7 @@
         <v>785</v>
       </c>
       <c r="D719" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="720" spans="2:4" x14ac:dyDescent="0.25">
@@ -10700,7 +10697,7 @@
         <v>785</v>
       </c>
       <c r="D720" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="721" spans="2:4" x14ac:dyDescent="0.25">
@@ -10711,7 +10708,7 @@
         <v>785</v>
       </c>
       <c r="D721" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="722" spans="2:4" x14ac:dyDescent="0.25">
@@ -10722,7 +10719,7 @@
         <v>785</v>
       </c>
       <c r="D722" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="723" spans="2:4" x14ac:dyDescent="0.25">
@@ -10733,7 +10730,7 @@
         <v>785</v>
       </c>
       <c r="D723" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="724" spans="2:4" x14ac:dyDescent="0.25">
@@ -10744,7 +10741,7 @@
         <v>785</v>
       </c>
       <c r="D724" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="725" spans="2:4" x14ac:dyDescent="0.25">
@@ -10755,7 +10752,7 @@
         <v>785</v>
       </c>
       <c r="D725" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="726" spans="2:4" x14ac:dyDescent="0.25">
@@ -10766,7 +10763,7 @@
         <v>785</v>
       </c>
       <c r="D726" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="727" spans="2:4" x14ac:dyDescent="0.25">
@@ -10777,7 +10774,7 @@
         <v>785</v>
       </c>
       <c r="D727" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="728" spans="2:4" x14ac:dyDescent="0.25">
@@ -10788,7 +10785,7 @@
         <v>785</v>
       </c>
       <c r="D728" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="729" spans="2:4" x14ac:dyDescent="0.25">
@@ -10799,7 +10796,7 @@
         <v>785</v>
       </c>
       <c r="D729" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="730" spans="2:4" x14ac:dyDescent="0.25">
@@ -10810,7 +10807,7 @@
         <v>785</v>
       </c>
       <c r="D730" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="731" spans="2:4" x14ac:dyDescent="0.25">
@@ -10821,7 +10818,7 @@
         <v>785</v>
       </c>
       <c r="D731" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="732" spans="2:4" x14ac:dyDescent="0.25">
@@ -10832,7 +10829,7 @@
         <v>785</v>
       </c>
       <c r="D732" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="733" spans="2:4" x14ac:dyDescent="0.25">
@@ -10843,7 +10840,7 @@
         <v>785</v>
       </c>
       <c r="D733" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="734" spans="2:4" x14ac:dyDescent="0.25">
@@ -10854,7 +10851,7 @@
         <v>785</v>
       </c>
       <c r="D734" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="735" spans="2:4" x14ac:dyDescent="0.25">
@@ -10865,7 +10862,7 @@
         <v>785</v>
       </c>
       <c r="D735" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="736" spans="2:4" x14ac:dyDescent="0.25">
@@ -10876,7 +10873,7 @@
         <v>785</v>
       </c>
       <c r="D736" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="737" spans="2:4" x14ac:dyDescent="0.25">
@@ -10887,7 +10884,7 @@
         <v>785</v>
       </c>
       <c r="D737" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="738" spans="2:4" x14ac:dyDescent="0.25">
@@ -10898,7 +10895,7 @@
         <v>785</v>
       </c>
       <c r="D738" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="739" spans="2:4" x14ac:dyDescent="0.25">
@@ -10909,7 +10906,7 @@
         <v>785</v>
       </c>
       <c r="D739" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="740" spans="2:4" x14ac:dyDescent="0.25">
@@ -10920,7 +10917,7 @@
         <v>785</v>
       </c>
       <c r="D740" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="741" spans="2:4" x14ac:dyDescent="0.25">
@@ -10953,7 +10950,7 @@
         <v>785</v>
       </c>
       <c r="D743" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="744" spans="2:4" x14ac:dyDescent="0.25">
@@ -10964,7 +10961,7 @@
         <v>785</v>
       </c>
       <c r="D744" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="745" spans="2:4" x14ac:dyDescent="0.25">
@@ -10975,7 +10972,7 @@
         <v>785</v>
       </c>
       <c r="D745" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="746" spans="2:4" x14ac:dyDescent="0.25">
@@ -10986,7 +10983,7 @@
         <v>785</v>
       </c>
       <c r="D746" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="747" spans="2:4" x14ac:dyDescent="0.25">
@@ -10997,7 +10994,7 @@
         <v>785</v>
       </c>
       <c r="D747" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="748" spans="2:4" x14ac:dyDescent="0.25">
@@ -11008,7 +11005,7 @@
         <v>785</v>
       </c>
       <c r="D748" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="749" spans="2:4" x14ac:dyDescent="0.25">
@@ -11019,7 +11016,7 @@
         <v>785</v>
       </c>
       <c r="D749" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="750" spans="2:4" x14ac:dyDescent="0.25">
@@ -11030,7 +11027,7 @@
         <v>785</v>
       </c>
       <c r="D750" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="751" spans="2:4" x14ac:dyDescent="0.25">
@@ -11041,7 +11038,7 @@
         <v>785</v>
       </c>
       <c r="D751" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="752" spans="2:4" x14ac:dyDescent="0.25">
@@ -11074,7 +11071,7 @@
         <v>785</v>
       </c>
       <c r="D754" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="755" spans="2:4" x14ac:dyDescent="0.25">
@@ -11082,10 +11079,10 @@
         <v>754</v>
       </c>
       <c r="C755" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D755" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="756" spans="2:4" x14ac:dyDescent="0.25">
@@ -11093,10 +11090,10 @@
         <v>755</v>
       </c>
       <c r="C756" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D756" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="757" spans="2:4" x14ac:dyDescent="0.25">
@@ -11104,10 +11101,10 @@
         <v>756</v>
       </c>
       <c r="C757" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D757" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="758" spans="2:4" x14ac:dyDescent="0.25">
@@ -11115,10 +11112,10 @@
         <v>757</v>
       </c>
       <c r="C758" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D758" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="759" spans="2:4" x14ac:dyDescent="0.25">
@@ -11126,10 +11123,10 @@
         <v>758</v>
       </c>
       <c r="C759" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D759" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="760" spans="2:4" x14ac:dyDescent="0.25">
@@ -11137,7 +11134,7 @@
         <v>759</v>
       </c>
       <c r="C760" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D760" s="1" t="s">
         <v>784</v>
@@ -11148,10 +11145,10 @@
         <v>760</v>
       </c>
       <c r="C761" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D761" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="762" spans="2:4" x14ac:dyDescent="0.25">
@@ -11159,10 +11156,10 @@
         <v>761</v>
       </c>
       <c r="C762" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D762" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="763" spans="2:4" x14ac:dyDescent="0.25">
@@ -11170,10 +11167,10 @@
         <v>762</v>
       </c>
       <c r="C763" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D763" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="764" spans="2:4" x14ac:dyDescent="0.25">
@@ -11181,10 +11178,10 @@
         <v>763</v>
       </c>
       <c r="C764" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D764" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="765" spans="2:4" x14ac:dyDescent="0.25">
@@ -11192,10 +11189,10 @@
         <v>764</v>
       </c>
       <c r="C765" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D765" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="766" spans="2:4" x14ac:dyDescent="0.25">
@@ -11203,10 +11200,10 @@
         <v>765</v>
       </c>
       <c r="C766" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D766" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="767" spans="2:4" x14ac:dyDescent="0.25">
@@ -11214,10 +11211,10 @@
         <v>766</v>
       </c>
       <c r="C767" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D767" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="768" spans="2:4" x14ac:dyDescent="0.25">
@@ -11225,10 +11222,10 @@
         <v>767</v>
       </c>
       <c r="C768" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D768" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="769" spans="2:4" x14ac:dyDescent="0.25">
@@ -11236,10 +11233,10 @@
         <v>768</v>
       </c>
       <c r="C769" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D769" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="770" spans="2:4" x14ac:dyDescent="0.25">
@@ -11247,10 +11244,10 @@
         <v>769</v>
       </c>
       <c r="C770" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D770" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="771" spans="2:4" x14ac:dyDescent="0.25">
@@ -11258,10 +11255,10 @@
         <v>770</v>
       </c>
       <c r="C771" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D771" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="772" spans="2:4" x14ac:dyDescent="0.25">
@@ -11269,10 +11266,10 @@
         <v>771</v>
       </c>
       <c r="C772" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D772" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="773" spans="2:4" x14ac:dyDescent="0.25">
@@ -11283,7 +11280,7 @@
         <v>783</v>
       </c>
       <c r="D773" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="774" spans="2:4" x14ac:dyDescent="0.25">
@@ -11294,7 +11291,7 @@
         <v>785</v>
       </c>
       <c r="D774" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="775" spans="2:4" x14ac:dyDescent="0.25">
@@ -11360,7 +11357,7 @@
         <v>785</v>
       </c>
       <c r="D780" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="781" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A756" workbookViewId="0">
-      <selection activeCell="C760" sqref="C760"/>
+    <sheetView tabSelected="1" topLeftCell="A629" workbookViewId="0">
+      <selection activeCell="C642" sqref="C642"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9616,7 +9616,7 @@
         <v>621</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D622" s="1" t="s">
         <v>784</v>
@@ -9748,7 +9748,7 @@
         <v>633</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D634" s="1" t="s">
         <v>784</v>
@@ -9781,7 +9781,7 @@
         <v>636</v>
       </c>
       <c r="C637" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D637" s="1" t="s">
         <v>784</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2773,7 +2773,7 @@
   <dimension ref="B1:D781"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A629" workbookViewId="0">
-      <selection activeCell="C642" sqref="C642"/>
+      <selection activeCell="C643" sqref="C643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9836,7 +9836,7 @@
         <v>641</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D642" s="1" t="s">
         <v>784</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="794">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A629" workbookViewId="0">
-      <selection activeCell="C643" sqref="C643"/>
+    <sheetView tabSelected="1" topLeftCell="A592" workbookViewId="0">
+      <selection activeCell="D613" sqref="D613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9521,6 +9521,9 @@
       </c>
       <c r="C613" s="1" t="s">
         <v>783</v>
+      </c>
+      <c r="D613" s="1" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="614" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BLUE DRAGON\traducao-blue-dragon-xbox360\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\danger\traducoes\traducao-blue-dragon-xbox360\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2470,7 +2470,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2772,8 +2782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A592" workbookViewId="0">
-      <selection activeCell="D613" sqref="D613"/>
+    <sheetView tabSelected="1" topLeftCell="A559" workbookViewId="0">
+      <selection activeCell="C772" sqref="C772:C773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11280,7 +11290,7 @@
         <v>772</v>
       </c>
       <c r="C773" s="1" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="D773" s="1" t="s">
         <v>788</v>
@@ -11376,7 +11386,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -11391,7 +11401,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="795">
   <si>
     <t>Arquivo</t>
   </si>
@@ -2406,14 +2406,25 @@
   </si>
   <si>
     <t>sem texto</t>
+  </si>
+  <si>
+    <t>Diego</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2462,25 +2473,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -2782,8 +2784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A559" workbookViewId="0">
-      <selection activeCell="C772" sqref="C772:C773"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="D228" sqref="D228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5284,10 +5286,10 @@
         <v>226</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.25">
@@ -5297,7 +5299,7 @@
       <c r="C228" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="D228" s="3" t="s">
         <v>788</v>
       </c>
     </row>
@@ -11386,7 +11388,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"SIM"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -11401,7 +11403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2784,9 +2784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="D228" sqref="D228"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9535,7 +9533,7 @@
         <v>783</v>
       </c>
       <c r="D613" s="1" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
     </row>
     <row r="614" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -2399,9 +2399,6 @@
     <t>uds</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>UDS/cfarl</t>
   </si>
   <si>
@@ -2409,6 +2406,9 @@
   </si>
   <si>
     <t>Diego</t>
+  </si>
+  <si>
+    <t>UDS/Diego</t>
   </si>
 </sst>
 </file>
@@ -2784,7 +2784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A767" workbookViewId="0">
+      <selection activeCell="B776" sqref="B776"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5287,7 +5289,7 @@
         <v>785</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.25">
@@ -9497,10 +9499,10 @@
         <v>609</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="D610" s="1" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
     </row>
     <row r="611" spans="2:4" x14ac:dyDescent="0.25">
@@ -9508,10 +9510,10 @@
         <v>610</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
     </row>
     <row r="612" spans="2:4" x14ac:dyDescent="0.25">
@@ -9555,7 +9557,7 @@
         <v>785</v>
       </c>
       <c r="D615" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="616" spans="2:4" x14ac:dyDescent="0.25">
@@ -9566,7 +9568,7 @@
         <v>785</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="617" spans="2:4" x14ac:dyDescent="0.25">
@@ -9577,7 +9579,7 @@
         <v>785</v>
       </c>
       <c r="D617" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="618" spans="2:4" x14ac:dyDescent="0.25">
@@ -9720,7 +9722,7 @@
         <v>785</v>
       </c>
       <c r="D630" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="631" spans="2:4" x14ac:dyDescent="0.25">
@@ -11139,7 +11141,7 @@
         <v>789</v>
       </c>
       <c r="D759" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="760" spans="2:4" x14ac:dyDescent="0.25">

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\danger\traducoes\traducao-blue-dragon-xbox360\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BLUE DRAGON\traducao-blue-dragon-xbox360\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2784,8 +2784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A767" workbookViewId="0">
-      <selection activeCell="B776" sqref="B776"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11325,7 +11325,7 @@
         <v>775</v>
       </c>
       <c r="C776" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D776" s="1" t="s">
         <v>784</v>

--- a/arquivos-tradutor.xlsx
+++ b/arquivos-tradutor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moacyr\Desktop\GITHUB-BLUE DRAGON\traducao-blue-dragon-xbox360\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\danger\traducoes\traducao-blue-dragon-xbox360\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2784,8 +2784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D781"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A760" workbookViewId="0">
+      <selection activeCell="C614" sqref="C614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9532,7 +9532,7 @@
         <v>612</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D613" s="1" t="s">
         <v>788</v>
